--- a/AAII_Financials/Quarterly/IFS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IFS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>IFS</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,84 +665,91 @@
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>284200</v>
+        <v>271700</v>
       </c>
       <c r="E8" s="3">
-        <v>271200</v>
+        <v>265200</v>
       </c>
       <c r="F8" s="3">
-        <v>314200</v>
+        <v>253100</v>
       </c>
       <c r="G8" s="3">
-        <v>308900</v>
+        <v>293300</v>
       </c>
       <c r="H8" s="3">
-        <v>326700</v>
+        <v>288300</v>
       </c>
       <c r="I8" s="3">
-        <v>327100</v>
+        <v>304900</v>
       </c>
       <c r="J8" s="3">
+        <v>305300</v>
+      </c>
+      <c r="K8" s="3">
         <v>321600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>314500</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -770,8 +777,11 @@
       <c r="K9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,8 +809,11 @@
       <c r="K10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,8 +825,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -841,8 +855,11 @@
       <c r="K12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,8 +887,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -899,37 +919,43 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-17700</v>
+        <v>-16300</v>
       </c>
       <c r="E15" s="3">
-        <v>-19100</v>
+        <v>-16500</v>
       </c>
       <c r="F15" s="3">
-        <v>-16800</v>
+        <v>-17800</v>
       </c>
       <c r="G15" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="H15" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="I15" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="J15" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="K15" s="3">
+        <v>-18500</v>
+      </c>
+      <c r="L15" s="3">
         <v>-17100</v>
       </c>
-      <c r="H15" s="3">
-        <v>-17400</v>
-      </c>
-      <c r="I15" s="3">
-        <v>-16500</v>
-      </c>
-      <c r="J15" s="3">
-        <v>-18500</v>
-      </c>
-      <c r="K15" s="3">
-        <v>-17100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,66 +964,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>115400</v>
+        <v>103200</v>
       </c>
       <c r="E17" s="3">
-        <v>156200</v>
+        <v>107700</v>
       </c>
       <c r="F17" s="3">
-        <v>194200</v>
+        <v>145700</v>
       </c>
       <c r="G17" s="3">
-        <v>417600</v>
+        <v>181200</v>
       </c>
       <c r="H17" s="3">
-        <v>170300</v>
+        <v>389700</v>
       </c>
       <c r="I17" s="3">
-        <v>141700</v>
+        <v>158900</v>
       </c>
       <c r="J17" s="3">
+        <v>132200</v>
+      </c>
+      <c r="K17" s="3">
         <v>149400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>139700</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>168800</v>
+        <v>168400</v>
       </c>
       <c r="E18" s="3">
-        <v>115000</v>
+        <v>157500</v>
       </c>
       <c r="F18" s="3">
-        <v>120100</v>
+        <v>107400</v>
       </c>
       <c r="G18" s="3">
-        <v>-108800</v>
+        <v>112000</v>
       </c>
       <c r="H18" s="3">
-        <v>156400</v>
+        <v>-101500</v>
       </c>
       <c r="I18" s="3">
-        <v>185400</v>
+        <v>145900</v>
       </c>
       <c r="J18" s="3">
+        <v>173100</v>
+      </c>
+      <c r="K18" s="3">
         <v>172300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>174800</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,66 +1042,73 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-6400</v>
+        <v>-32100</v>
       </c>
       <c r="E20" s="3">
-        <v>3700</v>
+        <v>-6000</v>
       </c>
       <c r="F20" s="3">
-        <v>-25700</v>
+        <v>3400</v>
       </c>
       <c r="G20" s="3">
-        <v>-80800</v>
+        <v>-24000</v>
       </c>
       <c r="H20" s="3">
-        <v>-98600</v>
+        <v>-75400</v>
       </c>
       <c r="I20" s="3">
-        <v>-38800</v>
+        <v>-92000</v>
       </c>
       <c r="J20" s="3">
+        <v>-36200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-53500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-52600</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>180100</v>
+        <v>152600</v>
       </c>
       <c r="E21" s="3">
-        <v>137800</v>
+        <v>168100</v>
       </c>
       <c r="F21" s="3">
-        <v>111200</v>
+        <v>128600</v>
       </c>
       <c r="G21" s="3">
-        <v>-172500</v>
+        <v>103800</v>
       </c>
       <c r="H21" s="3">
-        <v>75100</v>
+        <v>-161000</v>
       </c>
       <c r="I21" s="3">
-        <v>163100</v>
+        <v>70100</v>
       </c>
       <c r="J21" s="3">
+        <v>152300</v>
+      </c>
+      <c r="K21" s="3">
         <v>137200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>139300</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1096,66 +1136,75 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>162400</v>
+        <v>136400</v>
       </c>
       <c r="E23" s="3">
+        <v>151600</v>
+      </c>
+      <c r="F23" s="3">
+        <v>110800</v>
+      </c>
+      <c r="G23" s="3">
+        <v>88100</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-176900</v>
+      </c>
+      <c r="I23" s="3">
+        <v>53900</v>
+      </c>
+      <c r="J23" s="3">
+        <v>136800</v>
+      </c>
+      <c r="K23" s="3">
         <v>118700</v>
       </c>
-      <c r="F23" s="3">
-        <v>94400</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-189600</v>
-      </c>
-      <c r="H23" s="3">
-        <v>57800</v>
-      </c>
-      <c r="I23" s="3">
-        <v>146600</v>
-      </c>
-      <c r="J23" s="3">
-        <v>118700</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>122200</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>24000</v>
+        <v>25100</v>
       </c>
       <c r="E24" s="3">
-        <v>19900</v>
+        <v>22400</v>
       </c>
       <c r="F24" s="3">
-        <v>11000</v>
+        <v>18600</v>
       </c>
       <c r="G24" s="3">
-        <v>-69900</v>
+        <v>10300</v>
       </c>
       <c r="H24" s="3">
-        <v>19800</v>
+        <v>-65200</v>
       </c>
       <c r="I24" s="3">
-        <v>38600</v>
+        <v>18500</v>
       </c>
       <c r="J24" s="3">
+        <v>36000</v>
+      </c>
+      <c r="K24" s="3">
         <v>31200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>30600</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1232,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>138400</v>
+        <v>111300</v>
       </c>
       <c r="E26" s="3">
-        <v>98800</v>
+        <v>129200</v>
       </c>
       <c r="F26" s="3">
-        <v>83400</v>
+        <v>92200</v>
       </c>
       <c r="G26" s="3">
-        <v>-119700</v>
+        <v>77800</v>
       </c>
       <c r="H26" s="3">
-        <v>37900</v>
+        <v>-111700</v>
       </c>
       <c r="I26" s="3">
-        <v>108000</v>
+        <v>35400</v>
       </c>
       <c r="J26" s="3">
+        <v>100800</v>
+      </c>
+      <c r="K26" s="3">
         <v>87500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>91600</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>137700</v>
+        <v>110800</v>
       </c>
       <c r="E27" s="3">
-        <v>98400</v>
+        <v>128500</v>
       </c>
       <c r="F27" s="3">
-        <v>83100</v>
+        <v>91800</v>
       </c>
       <c r="G27" s="3">
-        <v>-118700</v>
+        <v>77500</v>
       </c>
       <c r="H27" s="3">
-        <v>37500</v>
+        <v>-110800</v>
       </c>
       <c r="I27" s="3">
-        <v>107400</v>
+        <v>35000</v>
       </c>
       <c r="J27" s="3">
+        <v>100200</v>
+      </c>
+      <c r="K27" s="3">
         <v>87000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>91100</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,66 +1424,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>6400</v>
+        <v>32100</v>
       </c>
       <c r="E32" s="3">
-        <v>-3700</v>
+        <v>6000</v>
       </c>
       <c r="F32" s="3">
-        <v>25700</v>
+        <v>-3400</v>
       </c>
       <c r="G32" s="3">
-        <v>80800</v>
+        <v>24000</v>
       </c>
       <c r="H32" s="3">
-        <v>98600</v>
+        <v>75400</v>
       </c>
       <c r="I32" s="3">
-        <v>38800</v>
+        <v>92000</v>
       </c>
       <c r="J32" s="3">
+        <v>36200</v>
+      </c>
+      <c r="K32" s="3">
         <v>53500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>52600</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>137700</v>
+        <v>110800</v>
       </c>
       <c r="E33" s="3">
-        <v>98400</v>
+        <v>128500</v>
       </c>
       <c r="F33" s="3">
-        <v>83100</v>
+        <v>91800</v>
       </c>
       <c r="G33" s="3">
-        <v>-118700</v>
+        <v>77500</v>
       </c>
       <c r="H33" s="3">
-        <v>37500</v>
+        <v>-110800</v>
       </c>
       <c r="I33" s="3">
-        <v>107400</v>
+        <v>35000</v>
       </c>
       <c r="J33" s="3">
+        <v>100200</v>
+      </c>
+      <c r="K33" s="3">
         <v>87000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>91100</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1520,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>137700</v>
+        <v>110800</v>
       </c>
       <c r="E35" s="3">
-        <v>98400</v>
+        <v>128500</v>
       </c>
       <c r="F35" s="3">
-        <v>83100</v>
+        <v>91800</v>
       </c>
       <c r="G35" s="3">
-        <v>-118700</v>
+        <v>77500</v>
       </c>
       <c r="H35" s="3">
-        <v>37500</v>
+        <v>-110800</v>
       </c>
       <c r="I35" s="3">
-        <v>107400</v>
+        <v>35000</v>
       </c>
       <c r="J35" s="3">
+        <v>100200</v>
+      </c>
+      <c r="K35" s="3">
         <v>87000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>91100</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,66 +1619,73 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4902200</v>
+        <v>4600500</v>
       </c>
       <c r="E41" s="3">
-        <v>4749800</v>
+        <v>4575000</v>
       </c>
       <c r="F41" s="3">
-        <v>4432600</v>
+        <v>4432800</v>
       </c>
       <c r="G41" s="3">
-        <v>3749700</v>
+        <v>4136700</v>
       </c>
       <c r="H41" s="3">
-        <v>2635900</v>
+        <v>3499400</v>
       </c>
       <c r="I41" s="3">
-        <v>2580100</v>
+        <v>2460000</v>
       </c>
       <c r="J41" s="3">
+        <v>2407900</v>
+      </c>
+      <c r="K41" s="3">
         <v>2668300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2403000</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>315100</v>
+        <v>5544900</v>
       </c>
       <c r="E42" s="3">
-        <v>5923400</v>
+        <v>5645100</v>
       </c>
       <c r="F42" s="3">
-        <v>5537800</v>
+        <v>5528100</v>
       </c>
       <c r="G42" s="3">
-        <v>5158900</v>
+        <v>5168100</v>
       </c>
       <c r="H42" s="3">
-        <v>4578800</v>
+        <v>4814600</v>
       </c>
       <c r="I42" s="3">
-        <v>4690900</v>
+        <v>4273200</v>
       </c>
       <c r="J42" s="3">
+        <v>4377800</v>
+      </c>
+      <c r="K42" s="3">
         <v>4497700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>4501200</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1620,8 +1713,11 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1649,8 +1745,11 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1678,8 +1777,11 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1707,8 +1809,11 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1736,66 +1841,75 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>213300</v>
+        <v>192600</v>
       </c>
       <c r="E48" s="3">
-        <v>221000</v>
+        <v>199000</v>
       </c>
       <c r="F48" s="3">
-        <v>229000</v>
+        <v>206300</v>
       </c>
       <c r="G48" s="3">
-        <v>235400</v>
+        <v>213700</v>
       </c>
       <c r="H48" s="3">
-        <v>244900</v>
+        <v>219700</v>
       </c>
       <c r="I48" s="3">
-        <v>248900</v>
+        <v>228500</v>
       </c>
       <c r="J48" s="3">
+        <v>232300</v>
+      </c>
+      <c r="K48" s="3">
         <v>230300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>235600</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>269800</v>
+        <v>250100</v>
       </c>
       <c r="E49" s="3">
-        <v>272900</v>
+        <v>251800</v>
       </c>
       <c r="F49" s="3">
-        <v>269700</v>
+        <v>254700</v>
       </c>
       <c r="G49" s="3">
-        <v>269000</v>
+        <v>251700</v>
       </c>
       <c r="H49" s="3">
-        <v>264700</v>
+        <v>251100</v>
       </c>
       <c r="I49" s="3">
-        <v>256300</v>
+        <v>247000</v>
       </c>
       <c r="J49" s="3">
+        <v>239200</v>
+      </c>
+      <c r="K49" s="3">
         <v>249500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>250200</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,37 +1969,43 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>73300</v>
+        <v>62400</v>
       </c>
       <c r="E52" s="3">
-        <v>92500</v>
+        <v>68400</v>
       </c>
       <c r="F52" s="3">
-        <v>62200</v>
+        <v>86400</v>
       </c>
       <c r="G52" s="3">
-        <v>76900</v>
+        <v>58000</v>
       </c>
       <c r="H52" s="3">
-        <v>22300</v>
+        <v>71700</v>
       </c>
       <c r="I52" s="3">
-        <v>11800</v>
+        <v>20800</v>
       </c>
       <c r="J52" s="3">
+        <v>11000</v>
+      </c>
+      <c r="K52" s="3">
         <v>13800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,37 +2033,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>23566800</v>
+        <v>22115200</v>
       </c>
       <c r="E54" s="3">
-        <v>23094000</v>
+        <v>21993700</v>
       </c>
       <c r="F54" s="3">
-        <v>22512000</v>
+        <v>21552500</v>
       </c>
       <c r="G54" s="3">
-        <v>21404200</v>
+        <v>21009400</v>
       </c>
       <c r="H54" s="3">
-        <v>18795200</v>
+        <v>19975500</v>
       </c>
       <c r="I54" s="3">
-        <v>18730000</v>
+        <v>17540700</v>
       </c>
       <c r="J54" s="3">
+        <v>17479800</v>
+      </c>
+      <c r="K54" s="3">
         <v>18688800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>17581000</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,37 +2095,41 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>5</v>
+      <c r="D57" s="3">
+        <v>8800</v>
       </c>
       <c r="E57" s="3">
-        <v>11200</v>
+        <v>8800</v>
       </c>
       <c r="F57" s="3">
-        <v>8800</v>
+        <v>10400</v>
       </c>
       <c r="G57" s="3">
-        <v>8900</v>
+        <v>8200</v>
       </c>
       <c r="H57" s="3">
-        <v>12900</v>
+        <v>8300</v>
       </c>
       <c r="I57" s="3">
-        <v>11700</v>
+        <v>12100</v>
       </c>
       <c r="J57" s="3">
+        <v>11000</v>
+      </c>
+      <c r="K57" s="3">
         <v>14500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2023,8 +2157,11 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2052,8 +2189,11 @@
       <c r="K59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2081,66 +2221,75 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2099200</v>
+        <v>2015400</v>
       </c>
       <c r="E61" s="3">
-        <v>2035900</v>
+        <v>1959100</v>
       </c>
       <c r="F61" s="3">
-        <v>2014300</v>
+        <v>1900000</v>
       </c>
       <c r="G61" s="3">
-        <v>1961800</v>
+        <v>1879800</v>
       </c>
       <c r="H61" s="3">
-        <v>1825100</v>
+        <v>1830800</v>
       </c>
       <c r="I61" s="3">
-        <v>1803400</v>
+        <v>1703300</v>
       </c>
       <c r="J61" s="3">
+        <v>1683000</v>
+      </c>
+      <c r="K61" s="3">
         <v>2182600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1729000</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>200</v>
+      </c>
+      <c r="E62" s="3">
         <v>100</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
       <c r="F62" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G62" s="3">
         <v>300</v>
       </c>
       <c r="H62" s="3">
+        <v>300</v>
+      </c>
+      <c r="I62" s="3">
         <v>200</v>
       </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
       <c r="J62" s="3">
         <v>0</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,37 +2381,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>21243900</v>
+        <v>19850600</v>
       </c>
       <c r="E66" s="3">
-        <v>20762500</v>
+        <v>19825900</v>
       </c>
       <c r="F66" s="3">
-        <v>20341800</v>
+        <v>19376600</v>
       </c>
       <c r="G66" s="3">
-        <v>19364000</v>
+        <v>18984100</v>
       </c>
       <c r="H66" s="3">
-        <v>16570700</v>
+        <v>18071500</v>
       </c>
       <c r="I66" s="3">
-        <v>16411900</v>
+        <v>15464600</v>
       </c>
       <c r="J66" s="3">
+        <v>15316400</v>
+      </c>
+      <c r="K66" s="3">
         <v>16480800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>15643900</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,37 +2555,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1772200</v>
+        <v>1766600</v>
       </c>
       <c r="E72" s="3">
-        <v>1702100</v>
+        <v>1653900</v>
       </c>
       <c r="F72" s="3">
-        <v>1601400</v>
+        <v>1588500</v>
       </c>
       <c r="G72" s="3">
-        <v>1516600</v>
+        <v>1494500</v>
       </c>
       <c r="H72" s="3">
-        <v>1818700</v>
+        <v>1415300</v>
       </c>
       <c r="I72" s="3">
-        <v>1791700</v>
+        <v>1697300</v>
       </c>
       <c r="J72" s="3">
+        <v>1672100</v>
+      </c>
+      <c r="K72" s="3">
         <v>1687600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1560800</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,37 +2683,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2322800</v>
+        <v>2264600</v>
       </c>
       <c r="E76" s="3">
-        <v>2331500</v>
+        <v>2167800</v>
       </c>
       <c r="F76" s="3">
-        <v>2170200</v>
+        <v>2175900</v>
       </c>
       <c r="G76" s="3">
-        <v>2040200</v>
+        <v>2025300</v>
       </c>
       <c r="H76" s="3">
-        <v>2224600</v>
+        <v>1904000</v>
       </c>
       <c r="I76" s="3">
-        <v>2318100</v>
+        <v>2076100</v>
       </c>
       <c r="J76" s="3">
+        <v>2163400</v>
+      </c>
+      <c r="K76" s="3">
         <v>2208000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1937100</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2747,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>137700</v>
+        <v>110800</v>
       </c>
       <c r="E81" s="3">
-        <v>98400</v>
+        <v>128500</v>
       </c>
       <c r="F81" s="3">
-        <v>83100</v>
+        <v>91800</v>
       </c>
       <c r="G81" s="3">
-        <v>-118700</v>
+        <v>77500</v>
       </c>
       <c r="H81" s="3">
-        <v>37500</v>
+        <v>-110800</v>
       </c>
       <c r="I81" s="3">
-        <v>107400</v>
+        <v>35000</v>
       </c>
       <c r="J81" s="3">
+        <v>100200</v>
+      </c>
+      <c r="K81" s="3">
         <v>87000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>91100</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,37 +2832,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>17700</v>
+        <v>16300</v>
       </c>
       <c r="E83" s="3">
-        <v>19100</v>
+        <v>16500</v>
       </c>
       <c r="F83" s="3">
-        <v>16800</v>
+        <v>17800</v>
       </c>
       <c r="G83" s="3">
+        <v>15700</v>
+      </c>
+      <c r="H83" s="3">
+        <v>15900</v>
+      </c>
+      <c r="I83" s="3">
+        <v>16200</v>
+      </c>
+      <c r="J83" s="3">
+        <v>15400</v>
+      </c>
+      <c r="K83" s="3">
+        <v>18500</v>
+      </c>
+      <c r="L83" s="3">
         <v>17100</v>
       </c>
-      <c r="H83" s="3">
-        <v>17400</v>
-      </c>
-      <c r="I83" s="3">
-        <v>16500</v>
-      </c>
-      <c r="J83" s="3">
-        <v>18500</v>
-      </c>
-      <c r="K83" s="3">
-        <v>17100</v>
-      </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,37 +3022,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>538800</v>
+        <v>41100</v>
       </c>
       <c r="E89" s="3">
-        <v>620800</v>
+        <v>502800</v>
       </c>
       <c r="F89" s="3">
-        <v>823100</v>
+        <v>579400</v>
       </c>
       <c r="G89" s="3">
-        <v>1639000</v>
+        <v>768100</v>
       </c>
       <c r="H89" s="3">
-        <v>317900</v>
+        <v>1529600</v>
       </c>
       <c r="I89" s="3">
-        <v>359600</v>
+        <v>296700</v>
       </c>
       <c r="J89" s="3">
+        <v>335600</v>
+      </c>
+      <c r="K89" s="3">
         <v>-347500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>223600</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,37 +3070,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2500</v>
+        <v>-2300</v>
       </c>
       <c r="E91" s="3">
-        <v>-2500</v>
+        <v>-2300</v>
       </c>
       <c r="F91" s="3">
-        <v>-2600</v>
+        <v>-2300</v>
       </c>
       <c r="G91" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-3600</v>
       </c>
-      <c r="H91" s="3">
-        <v>-5100</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-7300</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-3600</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3200</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,37 +3164,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-386100</v>
+        <v>66800</v>
       </c>
       <c r="E94" s="3">
-        <v>-91300</v>
+        <v>-360400</v>
       </c>
       <c r="F94" s="3">
-        <v>-335300</v>
+        <v>-85200</v>
       </c>
       <c r="G94" s="3">
-        <v>-330500</v>
+        <v>-312900</v>
       </c>
       <c r="H94" s="3">
-        <v>-302200</v>
+        <v>-308500</v>
       </c>
       <c r="I94" s="3">
-        <v>-207800</v>
+        <v>-282000</v>
       </c>
       <c r="J94" s="3">
+        <v>-193900</v>
+      </c>
+      <c r="K94" s="3">
         <v>52000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>101200</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,91 +3338,103 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-9000</v>
+        <v>-89600</v>
       </c>
       <c r="E100" s="3">
-        <v>-198400</v>
+        <v>-8400</v>
       </c>
       <c r="F100" s="3">
-        <v>205600</v>
+        <v>-185200</v>
       </c>
       <c r="G100" s="3">
-        <v>-195100</v>
+        <v>191900</v>
       </c>
       <c r="H100" s="3">
-        <v>43200</v>
+        <v>-182100</v>
       </c>
       <c r="I100" s="3">
-        <v>-246000</v>
+        <v>40300</v>
       </c>
       <c r="J100" s="3">
+        <v>-229500</v>
+      </c>
+      <c r="K100" s="3">
         <v>566800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-244300</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>8700</v>
+        <v>7200</v>
       </c>
       <c r="E101" s="3">
-        <v>-13100</v>
+        <v>8100</v>
       </c>
       <c r="F101" s="3">
-        <v>-10200</v>
+        <v>-12200</v>
       </c>
       <c r="G101" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
-        <v>-2800</v>
-      </c>
       <c r="I101" s="3">
-        <v>6100</v>
+        <v>-2600</v>
       </c>
       <c r="J101" s="3">
+        <v>5700</v>
+      </c>
+      <c r="K101" s="3">
         <v>-5700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>152400</v>
+        <v>25600</v>
       </c>
       <c r="E102" s="3">
-        <v>318000</v>
+        <v>142200</v>
       </c>
       <c r="F102" s="3">
-        <v>683100</v>
+        <v>296800</v>
       </c>
       <c r="G102" s="3">
-        <v>1113500</v>
+        <v>637500</v>
       </c>
       <c r="H102" s="3">
-        <v>56100</v>
+        <v>1039200</v>
       </c>
       <c r="I102" s="3">
-        <v>-88100</v>
+        <v>52400</v>
       </c>
       <c r="J102" s="3">
+        <v>-82200</v>
+      </c>
+      <c r="K102" s="3">
         <v>265500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>96700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IFS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IFS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>IFS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,91 +665,98 @@
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>271700</v>
+        <v>288800</v>
       </c>
       <c r="E8" s="3">
-        <v>265200</v>
+        <v>274400</v>
       </c>
       <c r="F8" s="3">
-        <v>253100</v>
+        <v>267900</v>
       </c>
       <c r="G8" s="3">
-        <v>293300</v>
+        <v>255600</v>
       </c>
       <c r="H8" s="3">
-        <v>288300</v>
+        <v>296200</v>
       </c>
       <c r="I8" s="3">
-        <v>304900</v>
+        <v>291100</v>
       </c>
       <c r="J8" s="3">
+        <v>307900</v>
+      </c>
+      <c r="K8" s="3">
         <v>305300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>321600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>314500</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -780,8 +787,11 @@
       <c r="L9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +822,11 @@
       <c r="L10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,8 +839,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -858,8 +872,11 @@
       <c r="L12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,8 +907,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -922,40 +942,46 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-16300</v>
+        <v>-17300</v>
       </c>
       <c r="E15" s="3">
-        <v>-16500</v>
+        <v>-16400</v>
       </c>
       <c r="F15" s="3">
-        <v>-17800</v>
+        <v>-16700</v>
       </c>
       <c r="G15" s="3">
-        <v>-15700</v>
+        <v>-18000</v>
       </c>
       <c r="H15" s="3">
-        <v>-15900</v>
+        <v>-15800</v>
       </c>
       <c r="I15" s="3">
-        <v>-16200</v>
+        <v>-16100</v>
       </c>
       <c r="J15" s="3">
+        <v>-16400</v>
+      </c>
+      <c r="K15" s="3">
         <v>-15400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-18500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-17100</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,72 +991,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>103200</v>
+        <v>94400</v>
       </c>
       <c r="E17" s="3">
-        <v>107700</v>
+        <v>104300</v>
       </c>
       <c r="F17" s="3">
-        <v>145700</v>
+        <v>108800</v>
       </c>
       <c r="G17" s="3">
-        <v>181200</v>
+        <v>147200</v>
       </c>
       <c r="H17" s="3">
-        <v>389700</v>
+        <v>183000</v>
       </c>
       <c r="I17" s="3">
-        <v>158900</v>
+        <v>393700</v>
       </c>
       <c r="J17" s="3">
+        <v>160500</v>
+      </c>
+      <c r="K17" s="3">
         <v>132200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>149400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>139700</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>168400</v>
+        <v>194400</v>
       </c>
       <c r="E18" s="3">
-        <v>157500</v>
+        <v>170100</v>
       </c>
       <c r="F18" s="3">
-        <v>107400</v>
+        <v>159100</v>
       </c>
       <c r="G18" s="3">
-        <v>112000</v>
+        <v>108400</v>
       </c>
       <c r="H18" s="3">
-        <v>-101500</v>
+        <v>113200</v>
       </c>
       <c r="I18" s="3">
-        <v>145900</v>
+        <v>-102500</v>
       </c>
       <c r="J18" s="3">
+        <v>147400</v>
+      </c>
+      <c r="K18" s="3">
         <v>173100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>172300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>174800</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,72 +1076,79 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-32100</v>
+        <v>-30100</v>
       </c>
       <c r="E20" s="3">
+        <v>-32400</v>
+      </c>
+      <c r="F20" s="3">
         <v>-6000</v>
       </c>
-      <c r="F20" s="3">
-        <v>3400</v>
-      </c>
       <c r="G20" s="3">
-        <v>-24000</v>
+        <v>3500</v>
       </c>
       <c r="H20" s="3">
-        <v>-75400</v>
+        <v>-24200</v>
       </c>
       <c r="I20" s="3">
-        <v>-92000</v>
+        <v>-76200</v>
       </c>
       <c r="J20" s="3">
+        <v>-92900</v>
+      </c>
+      <c r="K20" s="3">
         <v>-36200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-53500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-52600</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>152600</v>
+        <v>181600</v>
       </c>
       <c r="E21" s="3">
-        <v>168100</v>
+        <v>154200</v>
       </c>
       <c r="F21" s="3">
-        <v>128600</v>
+        <v>169800</v>
       </c>
       <c r="G21" s="3">
-        <v>103800</v>
+        <v>129900</v>
       </c>
       <c r="H21" s="3">
-        <v>-161000</v>
+        <v>104800</v>
       </c>
       <c r="I21" s="3">
-        <v>70100</v>
+        <v>-162600</v>
       </c>
       <c r="J21" s="3">
+        <v>70800</v>
+      </c>
+      <c r="K21" s="3">
         <v>152300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>137200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>139300</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1139,72 +1179,81 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>136400</v>
+        <v>164200</v>
       </c>
       <c r="E23" s="3">
-        <v>151600</v>
+        <v>137800</v>
       </c>
       <c r="F23" s="3">
-        <v>110800</v>
+        <v>153100</v>
       </c>
       <c r="G23" s="3">
-        <v>88100</v>
+        <v>111900</v>
       </c>
       <c r="H23" s="3">
-        <v>-176900</v>
+        <v>89000</v>
       </c>
       <c r="I23" s="3">
-        <v>53900</v>
+        <v>-178700</v>
       </c>
       <c r="J23" s="3">
+        <v>54500</v>
+      </c>
+      <c r="K23" s="3">
         <v>136800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>118700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>122200</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>25100</v>
+        <v>28200</v>
       </c>
       <c r="E24" s="3">
-        <v>22400</v>
+        <v>25400</v>
       </c>
       <c r="F24" s="3">
-        <v>18600</v>
+        <v>22600</v>
       </c>
       <c r="G24" s="3">
-        <v>10300</v>
+        <v>18800</v>
       </c>
       <c r="H24" s="3">
-        <v>-65200</v>
+        <v>10400</v>
       </c>
       <c r="I24" s="3">
-        <v>18500</v>
+        <v>-65900</v>
       </c>
       <c r="J24" s="3">
+        <v>18700</v>
+      </c>
+      <c r="K24" s="3">
         <v>36000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>31200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>30600</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,72 +1284,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>111300</v>
+        <v>136100</v>
       </c>
       <c r="E26" s="3">
-        <v>129200</v>
+        <v>112400</v>
       </c>
       <c r="F26" s="3">
-        <v>92200</v>
+        <v>130400</v>
       </c>
       <c r="G26" s="3">
-        <v>77800</v>
+        <v>93100</v>
       </c>
       <c r="H26" s="3">
-        <v>-111700</v>
+        <v>78600</v>
       </c>
       <c r="I26" s="3">
-        <v>35400</v>
+        <v>-112800</v>
       </c>
       <c r="J26" s="3">
+        <v>35700</v>
+      </c>
+      <c r="K26" s="3">
         <v>100800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>87500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>91600</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>110800</v>
+        <v>135500</v>
       </c>
       <c r="E27" s="3">
-        <v>128500</v>
+        <v>111900</v>
       </c>
       <c r="F27" s="3">
-        <v>91800</v>
+        <v>129800</v>
       </c>
       <c r="G27" s="3">
-        <v>77500</v>
+        <v>92800</v>
       </c>
       <c r="H27" s="3">
-        <v>-110800</v>
+        <v>78300</v>
       </c>
       <c r="I27" s="3">
-        <v>35000</v>
+        <v>-111900</v>
       </c>
       <c r="J27" s="3">
+        <v>35400</v>
+      </c>
+      <c r="K27" s="3">
         <v>100200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>87000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>91100</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1389,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1424,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1459,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,72 +1494,81 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>32100</v>
+        <v>30100</v>
       </c>
       <c r="E32" s="3">
+        <v>32400</v>
+      </c>
+      <c r="F32" s="3">
         <v>6000</v>
       </c>
-      <c r="F32" s="3">
-        <v>-3400</v>
-      </c>
       <c r="G32" s="3">
-        <v>24000</v>
+        <v>-3500</v>
       </c>
       <c r="H32" s="3">
-        <v>75400</v>
+        <v>24200</v>
       </c>
       <c r="I32" s="3">
-        <v>92000</v>
+        <v>76200</v>
       </c>
       <c r="J32" s="3">
+        <v>92900</v>
+      </c>
+      <c r="K32" s="3">
         <v>36200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>53500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>52600</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>110800</v>
+        <v>135500</v>
       </c>
       <c r="E33" s="3">
-        <v>128500</v>
+        <v>111900</v>
       </c>
       <c r="F33" s="3">
-        <v>91800</v>
+        <v>129800</v>
       </c>
       <c r="G33" s="3">
-        <v>77500</v>
+        <v>92800</v>
       </c>
       <c r="H33" s="3">
-        <v>-110800</v>
+        <v>78300</v>
       </c>
       <c r="I33" s="3">
-        <v>35000</v>
+        <v>-111900</v>
       </c>
       <c r="J33" s="3">
+        <v>35400</v>
+      </c>
+      <c r="K33" s="3">
         <v>100200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>87000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>91100</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,77 +1599,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>110800</v>
+        <v>135500</v>
       </c>
       <c r="E35" s="3">
-        <v>128500</v>
+        <v>111900</v>
       </c>
       <c r="F35" s="3">
-        <v>91800</v>
+        <v>129800</v>
       </c>
       <c r="G35" s="3">
-        <v>77500</v>
+        <v>92800</v>
       </c>
       <c r="H35" s="3">
-        <v>-110800</v>
+        <v>78300</v>
       </c>
       <c r="I35" s="3">
-        <v>35000</v>
+        <v>-111900</v>
       </c>
       <c r="J35" s="3">
+        <v>35400</v>
+      </c>
+      <c r="K35" s="3">
         <v>100200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>87000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>91100</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1691,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,72 +1706,79 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4600500</v>
+        <v>4850000</v>
       </c>
       <c r="E41" s="3">
-        <v>4575000</v>
+        <v>4646700</v>
       </c>
       <c r="F41" s="3">
-        <v>4432800</v>
+        <v>4620900</v>
       </c>
       <c r="G41" s="3">
-        <v>4136700</v>
+        <v>4477200</v>
       </c>
       <c r="H41" s="3">
-        <v>3499400</v>
+        <v>4178200</v>
       </c>
       <c r="I41" s="3">
-        <v>2460000</v>
+        <v>3534500</v>
       </c>
       <c r="J41" s="3">
+        <v>2484600</v>
+      </c>
+      <c r="K41" s="3">
         <v>2407900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2668300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2403000</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>5544900</v>
+        <v>5582700</v>
       </c>
       <c r="E42" s="3">
-        <v>5645100</v>
+        <v>5600500</v>
       </c>
       <c r="F42" s="3">
-        <v>5528100</v>
+        <v>5701700</v>
       </c>
       <c r="G42" s="3">
-        <v>5168100</v>
+        <v>5583500</v>
       </c>
       <c r="H42" s="3">
-        <v>4814600</v>
+        <v>5220000</v>
       </c>
       <c r="I42" s="3">
-        <v>4273200</v>
+        <v>4862900</v>
       </c>
       <c r="J42" s="3">
+        <v>4316000</v>
+      </c>
+      <c r="K42" s="3">
         <v>4377800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>4497700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>4501200</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1716,8 +1809,11 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1748,8 +1844,11 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1780,8 +1879,11 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1812,8 +1914,11 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1844,72 +1949,81 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>192600</v>
+        <v>196100</v>
       </c>
       <c r="E48" s="3">
-        <v>199000</v>
+        <v>194600</v>
       </c>
       <c r="F48" s="3">
-        <v>206300</v>
+        <v>201000</v>
       </c>
       <c r="G48" s="3">
-        <v>213700</v>
+        <v>208300</v>
       </c>
       <c r="H48" s="3">
-        <v>219700</v>
+        <v>215900</v>
       </c>
       <c r="I48" s="3">
-        <v>228500</v>
+        <v>221900</v>
       </c>
       <c r="J48" s="3">
+        <v>230800</v>
+      </c>
+      <c r="K48" s="3">
         <v>232300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>230300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>235600</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>250100</v>
+        <v>254600</v>
       </c>
       <c r="E49" s="3">
-        <v>251800</v>
+        <v>252600</v>
       </c>
       <c r="F49" s="3">
-        <v>254700</v>
+        <v>254300</v>
       </c>
       <c r="G49" s="3">
-        <v>251700</v>
+        <v>257200</v>
       </c>
       <c r="H49" s="3">
-        <v>251100</v>
+        <v>254200</v>
       </c>
       <c r="I49" s="3">
-        <v>247000</v>
+        <v>253600</v>
       </c>
       <c r="J49" s="3">
+        <v>249500</v>
+      </c>
+      <c r="K49" s="3">
         <v>239200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>249500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>250200</v>
       </c>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2054,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,40 +2089,46 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>62400</v>
+        <v>64500</v>
       </c>
       <c r="E52" s="3">
-        <v>68400</v>
+        <v>63000</v>
       </c>
       <c r="F52" s="3">
-        <v>86400</v>
+        <v>69100</v>
       </c>
       <c r="G52" s="3">
-        <v>58000</v>
+        <v>87200</v>
       </c>
       <c r="H52" s="3">
-        <v>71700</v>
+        <v>58600</v>
       </c>
       <c r="I52" s="3">
-        <v>20800</v>
+        <v>72500</v>
       </c>
       <c r="J52" s="3">
+        <v>21000</v>
+      </c>
+      <c r="K52" s="3">
         <v>11000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>13800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,40 +2159,46 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>22115200</v>
+        <v>22792700</v>
       </c>
       <c r="E54" s="3">
-        <v>21993700</v>
+        <v>22337100</v>
       </c>
       <c r="F54" s="3">
-        <v>21552500</v>
+        <v>22214300</v>
       </c>
       <c r="G54" s="3">
-        <v>21009400</v>
+        <v>21768700</v>
       </c>
       <c r="H54" s="3">
-        <v>19975500</v>
+        <v>21220100</v>
       </c>
       <c r="I54" s="3">
-        <v>17540700</v>
+        <v>20175900</v>
       </c>
       <c r="J54" s="3">
+        <v>17716600</v>
+      </c>
+      <c r="K54" s="3">
         <v>17479800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>18688800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>17581000</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2211,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,40 +2226,44 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>8800</v>
+        <v>8900</v>
       </c>
       <c r="E57" s="3">
-        <v>8800</v>
+        <v>8900</v>
       </c>
       <c r="F57" s="3">
-        <v>10400</v>
+        <v>8900</v>
       </c>
       <c r="G57" s="3">
-        <v>8200</v>
+        <v>10600</v>
       </c>
       <c r="H57" s="3">
         <v>8300</v>
       </c>
       <c r="I57" s="3">
+        <v>8300</v>
+      </c>
+      <c r="J57" s="3">
+        <v>12200</v>
+      </c>
+      <c r="K57" s="3">
+        <v>11000</v>
+      </c>
+      <c r="L57" s="3">
+        <v>14500</v>
+      </c>
+      <c r="M57" s="3">
         <v>12100</v>
       </c>
-      <c r="J57" s="3">
-        <v>11000</v>
-      </c>
-      <c r="K57" s="3">
-        <v>14500</v>
-      </c>
-      <c r="L57" s="3">
-        <v>12100</v>
-      </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2160,8 +2294,11 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2192,8 +2329,11 @@
       <c r="L59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2224,72 +2364,81 @@
       <c r="L60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2015400</v>
+        <v>2131600</v>
       </c>
       <c r="E61" s="3">
-        <v>1959100</v>
+        <v>2035600</v>
       </c>
       <c r="F61" s="3">
-        <v>1900000</v>
+        <v>1978700</v>
       </c>
       <c r="G61" s="3">
-        <v>1879800</v>
+        <v>1919100</v>
       </c>
       <c r="H61" s="3">
-        <v>1830800</v>
+        <v>1898700</v>
       </c>
       <c r="I61" s="3">
-        <v>1703300</v>
+        <v>1849200</v>
       </c>
       <c r="J61" s="3">
+        <v>1720400</v>
+      </c>
+      <c r="K61" s="3">
         <v>1683000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2182600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1729000</v>
       </c>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>400</v>
+      </c>
+      <c r="E62" s="3">
         <v>200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>100</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
       <c r="G62" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H62" s="3">
         <v>300</v>
       </c>
       <c r="I62" s="3">
+        <v>300</v>
+      </c>
+      <c r="J62" s="3">
         <v>200</v>
       </c>
-      <c r="J62" s="3">
-        <v>0</v>
-      </c>
       <c r="K62" s="3">
         <v>0</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2469,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2504,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,40 +2539,46 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>19850600</v>
+        <v>20387300</v>
       </c>
       <c r="E66" s="3">
-        <v>19825900</v>
+        <v>20049700</v>
       </c>
       <c r="F66" s="3">
-        <v>19376600</v>
+        <v>20024800</v>
       </c>
       <c r="G66" s="3">
-        <v>18984100</v>
+        <v>19571000</v>
       </c>
       <c r="H66" s="3">
-        <v>18071500</v>
+        <v>19174500</v>
       </c>
       <c r="I66" s="3">
-        <v>15464600</v>
+        <v>18252800</v>
       </c>
       <c r="J66" s="3">
+        <v>15619700</v>
+      </c>
+      <c r="K66" s="3">
         <v>15316400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>16480800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>15643900</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2591,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2624,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2659,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2694,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,40 +2729,46 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1766600</v>
+        <v>1941700</v>
       </c>
       <c r="E72" s="3">
-        <v>1653900</v>
+        <v>1784300</v>
       </c>
       <c r="F72" s="3">
-        <v>1588500</v>
+        <v>1670500</v>
       </c>
       <c r="G72" s="3">
-        <v>1494500</v>
+        <v>1604400</v>
       </c>
       <c r="H72" s="3">
-        <v>1415300</v>
+        <v>1509500</v>
       </c>
       <c r="I72" s="3">
-        <v>1697300</v>
+        <v>1429500</v>
       </c>
       <c r="J72" s="3">
+        <v>1714400</v>
+      </c>
+      <c r="K72" s="3">
         <v>1672100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1687600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1560800</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2799,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +2834,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,40 +2869,46 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2264600</v>
+        <v>2405400</v>
       </c>
       <c r="E76" s="3">
-        <v>2167800</v>
+        <v>2287400</v>
       </c>
       <c r="F76" s="3">
-        <v>2175900</v>
+        <v>2189500</v>
       </c>
       <c r="G76" s="3">
-        <v>2025300</v>
+        <v>2197700</v>
       </c>
       <c r="H76" s="3">
-        <v>1904000</v>
+        <v>2045600</v>
       </c>
       <c r="I76" s="3">
-        <v>2076100</v>
+        <v>1923100</v>
       </c>
       <c r="J76" s="3">
+        <v>2096900</v>
+      </c>
+      <c r="K76" s="3">
         <v>2163400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2208000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1937100</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,77 +2939,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>110800</v>
+        <v>135500</v>
       </c>
       <c r="E81" s="3">
-        <v>128500</v>
+        <v>111900</v>
       </c>
       <c r="F81" s="3">
-        <v>91800</v>
+        <v>129800</v>
       </c>
       <c r="G81" s="3">
-        <v>77500</v>
+        <v>92800</v>
       </c>
       <c r="H81" s="3">
-        <v>-110800</v>
+        <v>78300</v>
       </c>
       <c r="I81" s="3">
-        <v>35000</v>
+        <v>-111900</v>
       </c>
       <c r="J81" s="3">
+        <v>35400</v>
+      </c>
+      <c r="K81" s="3">
         <v>100200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>87000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>91100</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,40 +3031,44 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>16300</v>
+        <v>17300</v>
       </c>
       <c r="E83" s="3">
-        <v>16500</v>
+        <v>16400</v>
       </c>
       <c r="F83" s="3">
-        <v>17800</v>
+        <v>16700</v>
       </c>
       <c r="G83" s="3">
-        <v>15700</v>
+        <v>18000</v>
       </c>
       <c r="H83" s="3">
-        <v>15900</v>
+        <v>15800</v>
       </c>
       <c r="I83" s="3">
-        <v>16200</v>
+        <v>16100</v>
       </c>
       <c r="J83" s="3">
+        <v>16400</v>
+      </c>
+      <c r="K83" s="3">
         <v>15400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>18500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>17100</v>
       </c>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3099,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3134,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3169,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3204,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,40 +3239,46 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>41100</v>
+        <v>337300</v>
       </c>
       <c r="E89" s="3">
-        <v>502800</v>
+        <v>41500</v>
       </c>
       <c r="F89" s="3">
-        <v>579400</v>
+        <v>507900</v>
       </c>
       <c r="G89" s="3">
-        <v>768100</v>
+        <v>585200</v>
       </c>
       <c r="H89" s="3">
-        <v>1529600</v>
+        <v>775800</v>
       </c>
       <c r="I89" s="3">
-        <v>296700</v>
+        <v>1544900</v>
       </c>
       <c r="J89" s="3">
+        <v>299700</v>
+      </c>
+      <c r="K89" s="3">
         <v>335600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-347500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>223600</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,40 +3291,44 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2300</v>
+        <v>-4300</v>
       </c>
       <c r="E91" s="3">
         <v>-2300</v>
       </c>
       <c r="F91" s="3">
-        <v>-2300</v>
+        <v>-2400</v>
       </c>
       <c r="G91" s="3">
         <v>-2400</v>
       </c>
       <c r="H91" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="I91" s="3">
         <v>-3300</v>
       </c>
-      <c r="I91" s="3">
-        <v>-4700</v>
-      </c>
       <c r="J91" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-6800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3200</v>
       </c>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3359,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,40 +3394,46 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>66800</v>
+        <v>-170000</v>
       </c>
       <c r="E94" s="3">
-        <v>-360400</v>
+        <v>67400</v>
       </c>
       <c r="F94" s="3">
-        <v>-85200</v>
+        <v>-364000</v>
       </c>
       <c r="G94" s="3">
-        <v>-312900</v>
+        <v>-86100</v>
       </c>
       <c r="H94" s="3">
-        <v>-308500</v>
+        <v>-316100</v>
       </c>
       <c r="I94" s="3">
-        <v>-282000</v>
+        <v>-311600</v>
       </c>
       <c r="J94" s="3">
+        <v>-284800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-193900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>52000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>101200</v>
       </c>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3446,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3479,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3514,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3549,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,100 +3584,112 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-89600</v>
+        <v>-3800</v>
       </c>
       <c r="E100" s="3">
-        <v>-8400</v>
+        <v>-90500</v>
       </c>
       <c r="F100" s="3">
-        <v>-185200</v>
+        <v>-8500</v>
       </c>
       <c r="G100" s="3">
-        <v>191900</v>
+        <v>-187000</v>
       </c>
       <c r="H100" s="3">
-        <v>-182100</v>
+        <v>193800</v>
       </c>
       <c r="I100" s="3">
-        <v>40300</v>
+        <v>-183900</v>
       </c>
       <c r="J100" s="3">
+        <v>40700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-229500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>566800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-244300</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>7200</v>
+        <v>39600</v>
       </c>
       <c r="E101" s="3">
-        <v>8100</v>
+        <v>7300</v>
       </c>
       <c r="F101" s="3">
-        <v>-12200</v>
+        <v>8200</v>
       </c>
       <c r="G101" s="3">
-        <v>-9500</v>
+        <v>-12300</v>
       </c>
       <c r="H101" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-2600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>5700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-5700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>25600</v>
+        <v>203100</v>
       </c>
       <c r="E102" s="3">
-        <v>142200</v>
+        <v>25800</v>
       </c>
       <c r="F102" s="3">
-        <v>296800</v>
+        <v>143600</v>
       </c>
       <c r="G102" s="3">
-        <v>637500</v>
+        <v>299800</v>
       </c>
       <c r="H102" s="3">
-        <v>1039200</v>
+        <v>643900</v>
       </c>
       <c r="I102" s="3">
-        <v>52400</v>
+        <v>1049600</v>
       </c>
       <c r="J102" s="3">
+        <v>52900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-82200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>265500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>96700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IFS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IFS_QTR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>288800</v>
+        <v>316400</v>
       </c>
       <c r="E8" s="3">
-        <v>274400</v>
+        <v>300700</v>
       </c>
       <c r="F8" s="3">
-        <v>267900</v>
+        <v>293500</v>
       </c>
       <c r="G8" s="3">
-        <v>255600</v>
+        <v>280100</v>
       </c>
       <c r="H8" s="3">
-        <v>296200</v>
+        <v>324600</v>
       </c>
       <c r="I8" s="3">
-        <v>291100</v>
+        <v>319000</v>
       </c>
       <c r="J8" s="3">
-        <v>307900</v>
+        <v>337400</v>
       </c>
       <c r="K8" s="3">
         <v>305300</v>
@@ -951,25 +951,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-17300</v>
+        <v>-19000</v>
       </c>
       <c r="E15" s="3">
-        <v>-16400</v>
+        <v>-18000</v>
       </c>
       <c r="F15" s="3">
-        <v>-16700</v>
+        <v>-18300</v>
       </c>
       <c r="G15" s="3">
-        <v>-18000</v>
+        <v>-19700</v>
       </c>
       <c r="H15" s="3">
-        <v>-15800</v>
+        <v>-17400</v>
       </c>
       <c r="I15" s="3">
-        <v>-16100</v>
+        <v>-17600</v>
       </c>
       <c r="J15" s="3">
-        <v>-16400</v>
+        <v>-17900</v>
       </c>
       <c r="K15" s="3">
         <v>-15400</v>
@@ -998,25 +998,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>94400</v>
+        <v>103400</v>
       </c>
       <c r="E17" s="3">
-        <v>104300</v>
+        <v>114300</v>
       </c>
       <c r="F17" s="3">
-        <v>108800</v>
+        <v>119200</v>
       </c>
       <c r="G17" s="3">
-        <v>147200</v>
+        <v>161300</v>
       </c>
       <c r="H17" s="3">
-        <v>183000</v>
+        <v>200600</v>
       </c>
       <c r="I17" s="3">
-        <v>393700</v>
+        <v>431400</v>
       </c>
       <c r="J17" s="3">
-        <v>160500</v>
+        <v>175900</v>
       </c>
       <c r="K17" s="3">
         <v>132200</v>
@@ -1033,25 +1033,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>194400</v>
+        <v>213000</v>
       </c>
       <c r="E18" s="3">
-        <v>170100</v>
+        <v>186400</v>
       </c>
       <c r="F18" s="3">
-        <v>159100</v>
+        <v>174300</v>
       </c>
       <c r="G18" s="3">
-        <v>108400</v>
+        <v>118800</v>
       </c>
       <c r="H18" s="3">
-        <v>113200</v>
+        <v>124000</v>
       </c>
       <c r="I18" s="3">
-        <v>-102500</v>
+        <v>-112300</v>
       </c>
       <c r="J18" s="3">
-        <v>147400</v>
+        <v>161500</v>
       </c>
       <c r="K18" s="3">
         <v>173100</v>
@@ -1083,25 +1083,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-30100</v>
+        <v>-33000</v>
       </c>
       <c r="E20" s="3">
-        <v>-32400</v>
+        <v>-35500</v>
       </c>
       <c r="F20" s="3">
-        <v>-6000</v>
+        <v>-6600</v>
       </c>
       <c r="G20" s="3">
-        <v>3500</v>
+        <v>3800</v>
       </c>
       <c r="H20" s="3">
-        <v>-24200</v>
+        <v>-26500</v>
       </c>
       <c r="I20" s="3">
-        <v>-76200</v>
+        <v>-83500</v>
       </c>
       <c r="J20" s="3">
-        <v>-92900</v>
+        <v>-101800</v>
       </c>
       <c r="K20" s="3">
         <v>-36200</v>
@@ -1118,25 +1118,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>181600</v>
+        <v>199000</v>
       </c>
       <c r="E21" s="3">
-        <v>154200</v>
+        <v>168900</v>
       </c>
       <c r="F21" s="3">
-        <v>169800</v>
+        <v>186000</v>
       </c>
       <c r="G21" s="3">
-        <v>129900</v>
+        <v>142300</v>
       </c>
       <c r="H21" s="3">
-        <v>104800</v>
+        <v>114800</v>
       </c>
       <c r="I21" s="3">
-        <v>-162600</v>
+        <v>-178100</v>
       </c>
       <c r="J21" s="3">
-        <v>70800</v>
+        <v>77600</v>
       </c>
       <c r="K21" s="3">
         <v>152300</v>
@@ -1188,25 +1188,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>164200</v>
+        <v>180000</v>
       </c>
       <c r="E23" s="3">
-        <v>137800</v>
+        <v>150900</v>
       </c>
       <c r="F23" s="3">
-        <v>153100</v>
+        <v>167700</v>
       </c>
       <c r="G23" s="3">
-        <v>111900</v>
+        <v>122600</v>
       </c>
       <c r="H23" s="3">
-        <v>89000</v>
+        <v>97500</v>
       </c>
       <c r="I23" s="3">
-        <v>-178700</v>
+        <v>-195800</v>
       </c>
       <c r="J23" s="3">
-        <v>54500</v>
+        <v>59700</v>
       </c>
       <c r="K23" s="3">
         <v>136800</v>
@@ -1223,25 +1223,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>28200</v>
+        <v>30900</v>
       </c>
       <c r="E24" s="3">
-        <v>25400</v>
+        <v>27800</v>
       </c>
       <c r="F24" s="3">
-        <v>22600</v>
+        <v>24800</v>
       </c>
       <c r="G24" s="3">
-        <v>18800</v>
+        <v>20600</v>
       </c>
       <c r="H24" s="3">
-        <v>10400</v>
+        <v>11400</v>
       </c>
       <c r="I24" s="3">
-        <v>-65900</v>
+        <v>-72200</v>
       </c>
       <c r="J24" s="3">
-        <v>18700</v>
+        <v>20500</v>
       </c>
       <c r="K24" s="3">
         <v>36000</v>
@@ -1293,25 +1293,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>136100</v>
+        <v>149100</v>
       </c>
       <c r="E26" s="3">
-        <v>112400</v>
+        <v>123200</v>
       </c>
       <c r="F26" s="3">
-        <v>130400</v>
+        <v>142900</v>
       </c>
       <c r="G26" s="3">
-        <v>93100</v>
+        <v>102000</v>
       </c>
       <c r="H26" s="3">
-        <v>78600</v>
+        <v>86100</v>
       </c>
       <c r="I26" s="3">
-        <v>-112800</v>
+        <v>-123600</v>
       </c>
       <c r="J26" s="3">
-        <v>35700</v>
+        <v>39200</v>
       </c>
       <c r="K26" s="3">
         <v>100800</v>
@@ -1328,25 +1328,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>135500</v>
+        <v>148500</v>
       </c>
       <c r="E27" s="3">
-        <v>111900</v>
+        <v>122600</v>
       </c>
       <c r="F27" s="3">
-        <v>129800</v>
+        <v>142300</v>
       </c>
       <c r="G27" s="3">
-        <v>92800</v>
+        <v>101600</v>
       </c>
       <c r="H27" s="3">
-        <v>78300</v>
+        <v>85800</v>
       </c>
       <c r="I27" s="3">
-        <v>-111900</v>
+        <v>-122600</v>
       </c>
       <c r="J27" s="3">
-        <v>35400</v>
+        <v>38800</v>
       </c>
       <c r="K27" s="3">
         <v>100200</v>
@@ -1503,25 +1503,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>30100</v>
+        <v>33000</v>
       </c>
       <c r="E32" s="3">
-        <v>32400</v>
+        <v>35500</v>
       </c>
       <c r="F32" s="3">
-        <v>6000</v>
+        <v>6600</v>
       </c>
       <c r="G32" s="3">
-        <v>-3500</v>
+        <v>-3800</v>
       </c>
       <c r="H32" s="3">
-        <v>24200</v>
+        <v>26500</v>
       </c>
       <c r="I32" s="3">
-        <v>76200</v>
+        <v>83500</v>
       </c>
       <c r="J32" s="3">
-        <v>92900</v>
+        <v>101800</v>
       </c>
       <c r="K32" s="3">
         <v>36200</v>
@@ -1538,25 +1538,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>135500</v>
+        <v>148500</v>
       </c>
       <c r="E33" s="3">
-        <v>111900</v>
+        <v>122600</v>
       </c>
       <c r="F33" s="3">
-        <v>129800</v>
+        <v>142300</v>
       </c>
       <c r="G33" s="3">
-        <v>92800</v>
+        <v>101600</v>
       </c>
       <c r="H33" s="3">
-        <v>78300</v>
+        <v>85800</v>
       </c>
       <c r="I33" s="3">
-        <v>-111900</v>
+        <v>-122600</v>
       </c>
       <c r="J33" s="3">
-        <v>35400</v>
+        <v>38800</v>
       </c>
       <c r="K33" s="3">
         <v>100200</v>
@@ -1608,25 +1608,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>135500</v>
+        <v>148500</v>
       </c>
       <c r="E35" s="3">
-        <v>111900</v>
+        <v>122600</v>
       </c>
       <c r="F35" s="3">
-        <v>129800</v>
+        <v>142300</v>
       </c>
       <c r="G35" s="3">
-        <v>92800</v>
+        <v>101600</v>
       </c>
       <c r="H35" s="3">
-        <v>78300</v>
+        <v>85800</v>
       </c>
       <c r="I35" s="3">
-        <v>-111900</v>
+        <v>-122600</v>
       </c>
       <c r="J35" s="3">
-        <v>35400</v>
+        <v>38800</v>
       </c>
       <c r="K35" s="3">
         <v>100200</v>
@@ -1713,25 +1713,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4850000</v>
+        <v>5314500</v>
       </c>
       <c r="E41" s="3">
-        <v>4646700</v>
+        <v>5091700</v>
       </c>
       <c r="F41" s="3">
-        <v>4620900</v>
+        <v>5063500</v>
       </c>
       <c r="G41" s="3">
-        <v>4477200</v>
+        <v>4906100</v>
       </c>
       <c r="H41" s="3">
-        <v>4178200</v>
+        <v>4578400</v>
       </c>
       <c r="I41" s="3">
-        <v>3534500</v>
+        <v>3873100</v>
       </c>
       <c r="J41" s="3">
-        <v>2484600</v>
+        <v>2722600</v>
       </c>
       <c r="K41" s="3">
         <v>2407900</v>
@@ -1748,25 +1748,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>5582700</v>
+        <v>6117500</v>
       </c>
       <c r="E42" s="3">
-        <v>5600500</v>
+        <v>6136900</v>
       </c>
       <c r="F42" s="3">
-        <v>5701700</v>
+        <v>6247900</v>
       </c>
       <c r="G42" s="3">
-        <v>5583500</v>
+        <v>6118300</v>
       </c>
       <c r="H42" s="3">
-        <v>5220000</v>
+        <v>5719900</v>
       </c>
       <c r="I42" s="3">
-        <v>4862900</v>
+        <v>5328600</v>
       </c>
       <c r="J42" s="3">
-        <v>4316000</v>
+        <v>4729400</v>
       </c>
       <c r="K42" s="3">
         <v>4377800</v>
@@ -1958,25 +1958,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>196100</v>
+        <v>214900</v>
       </c>
       <c r="E48" s="3">
-        <v>194600</v>
+        <v>213200</v>
       </c>
       <c r="F48" s="3">
-        <v>201000</v>
+        <v>220300</v>
       </c>
       <c r="G48" s="3">
-        <v>208300</v>
+        <v>228300</v>
       </c>
       <c r="H48" s="3">
-        <v>215900</v>
+        <v>236500</v>
       </c>
       <c r="I48" s="3">
-        <v>221900</v>
+        <v>243100</v>
       </c>
       <c r="J48" s="3">
-        <v>230800</v>
+        <v>252900</v>
       </c>
       <c r="K48" s="3">
         <v>232300</v>
@@ -1993,25 +1993,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>254600</v>
+        <v>278900</v>
       </c>
       <c r="E49" s="3">
-        <v>252600</v>
+        <v>276800</v>
       </c>
       <c r="F49" s="3">
-        <v>254300</v>
+        <v>278700</v>
       </c>
       <c r="G49" s="3">
-        <v>257200</v>
+        <v>281900</v>
       </c>
       <c r="H49" s="3">
-        <v>254200</v>
+        <v>278600</v>
       </c>
       <c r="I49" s="3">
-        <v>253600</v>
+        <v>277900</v>
       </c>
       <c r="J49" s="3">
-        <v>249500</v>
+        <v>273400</v>
       </c>
       <c r="K49" s="3">
         <v>239200</v>
@@ -2098,25 +2098,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>64500</v>
+        <v>70700</v>
       </c>
       <c r="E52" s="3">
-        <v>63000</v>
+        <v>69100</v>
       </c>
       <c r="F52" s="3">
-        <v>69100</v>
+        <v>75700</v>
       </c>
       <c r="G52" s="3">
-        <v>87200</v>
+        <v>95600</v>
       </c>
       <c r="H52" s="3">
-        <v>58600</v>
+        <v>64200</v>
       </c>
       <c r="I52" s="3">
-        <v>72500</v>
+        <v>79400</v>
       </c>
       <c r="J52" s="3">
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="K52" s="3">
         <v>11000</v>
@@ -2168,25 +2168,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>22792700</v>
+        <v>24975800</v>
       </c>
       <c r="E54" s="3">
-        <v>22337100</v>
+        <v>24476500</v>
       </c>
       <c r="F54" s="3">
-        <v>22214300</v>
+        <v>24342000</v>
       </c>
       <c r="G54" s="3">
-        <v>21768700</v>
+        <v>23853700</v>
       </c>
       <c r="H54" s="3">
-        <v>21220100</v>
+        <v>23252600</v>
       </c>
       <c r="I54" s="3">
-        <v>20175900</v>
+        <v>22108300</v>
       </c>
       <c r="J54" s="3">
-        <v>17716600</v>
+        <v>19413500</v>
       </c>
       <c r="K54" s="3">
         <v>17479800</v>
@@ -2233,25 +2233,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>8900</v>
+        <v>9800</v>
       </c>
       <c r="E57" s="3">
-        <v>8900</v>
+        <v>9800</v>
       </c>
       <c r="F57" s="3">
-        <v>8900</v>
+        <v>9700</v>
       </c>
       <c r="G57" s="3">
-        <v>10600</v>
+        <v>11600</v>
       </c>
       <c r="H57" s="3">
-        <v>8300</v>
+        <v>9100</v>
       </c>
       <c r="I57" s="3">
-        <v>8300</v>
+        <v>9100</v>
       </c>
       <c r="J57" s="3">
-        <v>12200</v>
+        <v>13300</v>
       </c>
       <c r="K57" s="3">
         <v>11000</v>
@@ -2373,25 +2373,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2131600</v>
+        <v>2335800</v>
       </c>
       <c r="E61" s="3">
-        <v>2035600</v>
+        <v>2230600</v>
       </c>
       <c r="F61" s="3">
-        <v>1978700</v>
+        <v>2168200</v>
       </c>
       <c r="G61" s="3">
-        <v>1919100</v>
+        <v>2102900</v>
       </c>
       <c r="H61" s="3">
-        <v>1898700</v>
+        <v>2080600</v>
       </c>
       <c r="I61" s="3">
-        <v>1849200</v>
+        <v>2026300</v>
       </c>
       <c r="J61" s="3">
-        <v>1720400</v>
+        <v>1885200</v>
       </c>
       <c r="K61" s="3">
         <v>1683000</v>
@@ -2420,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="H62" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I62" s="3">
         <v>300</v>
@@ -2548,25 +2548,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>20387300</v>
+        <v>22340000</v>
       </c>
       <c r="E66" s="3">
-        <v>20049700</v>
+        <v>21970100</v>
       </c>
       <c r="F66" s="3">
-        <v>20024800</v>
+        <v>21942800</v>
       </c>
       <c r="G66" s="3">
-        <v>19571000</v>
+        <v>21445500</v>
       </c>
       <c r="H66" s="3">
-        <v>19174500</v>
+        <v>21011000</v>
       </c>
       <c r="I66" s="3">
-        <v>18252800</v>
+        <v>20001100</v>
       </c>
       <c r="J66" s="3">
-        <v>15619700</v>
+        <v>17115800</v>
       </c>
       <c r="K66" s="3">
         <v>15316400</v>
@@ -2738,25 +2738,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1941700</v>
+        <v>2127600</v>
       </c>
       <c r="E72" s="3">
-        <v>1784300</v>
+        <v>1955200</v>
       </c>
       <c r="F72" s="3">
-        <v>1670500</v>
+        <v>1830500</v>
       </c>
       <c r="G72" s="3">
-        <v>1604400</v>
+        <v>1758100</v>
       </c>
       <c r="H72" s="3">
-        <v>1509500</v>
+        <v>1654100</v>
       </c>
       <c r="I72" s="3">
-        <v>1429500</v>
+        <v>1566500</v>
       </c>
       <c r="J72" s="3">
-        <v>1714400</v>
+        <v>1878600</v>
       </c>
       <c r="K72" s="3">
         <v>1672100</v>
@@ -2878,25 +2878,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2405400</v>
+        <v>2635800</v>
       </c>
       <c r="E76" s="3">
-        <v>2287400</v>
+        <v>2506400</v>
       </c>
       <c r="F76" s="3">
-        <v>2189500</v>
+        <v>2399200</v>
       </c>
       <c r="G76" s="3">
-        <v>2197700</v>
+        <v>2408200</v>
       </c>
       <c r="H76" s="3">
-        <v>2045600</v>
+        <v>2241600</v>
       </c>
       <c r="I76" s="3">
-        <v>1923100</v>
+        <v>2107300</v>
       </c>
       <c r="J76" s="3">
-        <v>2096900</v>
+        <v>2297800</v>
       </c>
       <c r="K76" s="3">
         <v>2163400</v>
@@ -2988,25 +2988,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>135500</v>
+        <v>148500</v>
       </c>
       <c r="E81" s="3">
-        <v>111900</v>
+        <v>122600</v>
       </c>
       <c r="F81" s="3">
-        <v>129800</v>
+        <v>142300</v>
       </c>
       <c r="G81" s="3">
-        <v>92800</v>
+        <v>101600</v>
       </c>
       <c r="H81" s="3">
-        <v>78300</v>
+        <v>85800</v>
       </c>
       <c r="I81" s="3">
-        <v>-111900</v>
+        <v>-122600</v>
       </c>
       <c r="J81" s="3">
-        <v>35400</v>
+        <v>38800</v>
       </c>
       <c r="K81" s="3">
         <v>100200</v>
@@ -3038,25 +3038,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>17300</v>
+        <v>19000</v>
       </c>
       <c r="E83" s="3">
-        <v>16400</v>
+        <v>18000</v>
       </c>
       <c r="F83" s="3">
-        <v>16700</v>
+        <v>18300</v>
       </c>
       <c r="G83" s="3">
-        <v>18000</v>
+        <v>19700</v>
       </c>
       <c r="H83" s="3">
-        <v>15800</v>
+        <v>17400</v>
       </c>
       <c r="I83" s="3">
-        <v>16100</v>
+        <v>17600</v>
       </c>
       <c r="J83" s="3">
-        <v>16400</v>
+        <v>17900</v>
       </c>
       <c r="K83" s="3">
         <v>15400</v>
@@ -3248,25 +3248,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>337300</v>
+        <v>369600</v>
       </c>
       <c r="E89" s="3">
-        <v>41500</v>
+        <v>45500</v>
       </c>
       <c r="F89" s="3">
-        <v>507900</v>
+        <v>556500</v>
       </c>
       <c r="G89" s="3">
-        <v>585200</v>
+        <v>641300</v>
       </c>
       <c r="H89" s="3">
-        <v>775800</v>
+        <v>850100</v>
       </c>
       <c r="I89" s="3">
-        <v>1544900</v>
+        <v>1692900</v>
       </c>
       <c r="J89" s="3">
-        <v>299700</v>
+        <v>328400</v>
       </c>
       <c r="K89" s="3">
         <v>335600</v>
@@ -3298,25 +3298,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-4300</v>
+        <v>-4700</v>
       </c>
       <c r="E91" s="3">
-        <v>-2300</v>
+        <v>-2600</v>
       </c>
       <c r="F91" s="3">
-        <v>-2400</v>
+        <v>-2600</v>
       </c>
       <c r="G91" s="3">
-        <v>-2400</v>
+        <v>-2600</v>
       </c>
       <c r="H91" s="3">
-        <v>-2400</v>
+        <v>-2700</v>
       </c>
       <c r="I91" s="3">
-        <v>-3300</v>
+        <v>-3700</v>
       </c>
       <c r="J91" s="3">
-        <v>-4800</v>
+        <v>-5200</v>
       </c>
       <c r="K91" s="3">
         <v>-6800</v>
@@ -3403,25 +3403,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-170000</v>
+        <v>-186200</v>
       </c>
       <c r="E94" s="3">
-        <v>67400</v>
+        <v>73900</v>
       </c>
       <c r="F94" s="3">
-        <v>-364000</v>
+        <v>-398800</v>
       </c>
       <c r="G94" s="3">
-        <v>-86100</v>
+        <v>-94300</v>
       </c>
       <c r="H94" s="3">
-        <v>-316100</v>
+        <v>-346300</v>
       </c>
       <c r="I94" s="3">
-        <v>-311600</v>
+        <v>-341400</v>
       </c>
       <c r="J94" s="3">
-        <v>-284800</v>
+        <v>-312100</v>
       </c>
       <c r="K94" s="3">
         <v>-193900</v>
@@ -3593,25 +3593,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3800</v>
+        <v>-4200</v>
       </c>
       <c r="E100" s="3">
-        <v>-90500</v>
+        <v>-99100</v>
       </c>
       <c r="F100" s="3">
-        <v>-8500</v>
+        <v>-9300</v>
       </c>
       <c r="G100" s="3">
-        <v>-187000</v>
+        <v>-204900</v>
       </c>
       <c r="H100" s="3">
-        <v>193800</v>
+        <v>212400</v>
       </c>
       <c r="I100" s="3">
-        <v>-183900</v>
+        <v>-201500</v>
       </c>
       <c r="J100" s="3">
-        <v>40700</v>
+        <v>44600</v>
       </c>
       <c r="K100" s="3">
         <v>-229500</v>
@@ -3628,25 +3628,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>39600</v>
+        <v>43400</v>
       </c>
       <c r="E101" s="3">
-        <v>7300</v>
+        <v>8000</v>
       </c>
       <c r="F101" s="3">
-        <v>8200</v>
+        <v>9000</v>
       </c>
       <c r="G101" s="3">
-        <v>-12300</v>
+        <v>-13500</v>
       </c>
       <c r="H101" s="3">
-        <v>-9600</v>
+        <v>-10600</v>
       </c>
       <c r="I101" s="3">
         <v>100</v>
       </c>
       <c r="J101" s="3">
-        <v>-2600</v>
+        <v>-2900</v>
       </c>
       <c r="K101" s="3">
         <v>5700</v>
@@ -3663,25 +3663,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>203100</v>
+        <v>222600</v>
       </c>
       <c r="E102" s="3">
-        <v>25800</v>
+        <v>28300</v>
       </c>
       <c r="F102" s="3">
-        <v>143600</v>
+        <v>157400</v>
       </c>
       <c r="G102" s="3">
-        <v>299800</v>
+        <v>328500</v>
       </c>
       <c r="H102" s="3">
-        <v>643900</v>
+        <v>705600</v>
       </c>
       <c r="I102" s="3">
-        <v>1049600</v>
+        <v>1150200</v>
       </c>
       <c r="J102" s="3">
-        <v>52900</v>
+        <v>58000</v>
       </c>
       <c r="K102" s="3">
         <v>-82200</v>

--- a/AAII_Financials/Quarterly/IFS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IFS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>IFS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,98 +665,104 @@
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>316400</v>
+        <v>329000</v>
       </c>
       <c r="E8" s="3">
-        <v>300700</v>
+        <v>311300</v>
       </c>
       <c r="F8" s="3">
-        <v>293500</v>
+        <v>295800</v>
       </c>
       <c r="G8" s="3">
-        <v>280100</v>
+        <v>288800</v>
       </c>
       <c r="H8" s="3">
-        <v>324600</v>
+        <v>275600</v>
       </c>
       <c r="I8" s="3">
-        <v>319000</v>
+        <v>319300</v>
       </c>
       <c r="J8" s="3">
+        <v>313900</v>
+      </c>
+      <c r="K8" s="3">
         <v>337400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>305300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>321600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>314500</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -790,8 +796,11 @@
       <c r="M9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +834,11 @@
       <c r="M10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,8 +852,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -875,8 +888,11 @@
       <c r="M12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,8 +926,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -945,43 +964,49 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-19000</v>
+        <v>-20000</v>
       </c>
       <c r="E15" s="3">
+        <v>-18700</v>
+      </c>
+      <c r="F15" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="G15" s="3">
         <v>-18000</v>
       </c>
-      <c r="F15" s="3">
-        <v>-18300</v>
-      </c>
-      <c r="G15" s="3">
-        <v>-19700</v>
-      </c>
       <c r="H15" s="3">
+        <v>-19400</v>
+      </c>
+      <c r="I15" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="J15" s="3">
         <v>-17400</v>
       </c>
-      <c r="I15" s="3">
-        <v>-17600</v>
-      </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>-17900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-15400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-18500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-17100</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,78 +1017,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>103400</v>
+        <v>51400</v>
       </c>
       <c r="E17" s="3">
-        <v>114300</v>
+        <v>101800</v>
       </c>
       <c r="F17" s="3">
-        <v>119200</v>
+        <v>112400</v>
       </c>
       <c r="G17" s="3">
-        <v>161300</v>
+        <v>117200</v>
       </c>
       <c r="H17" s="3">
-        <v>200600</v>
+        <v>158700</v>
       </c>
       <c r="I17" s="3">
-        <v>431400</v>
+        <v>197300</v>
       </c>
       <c r="J17" s="3">
+        <v>424400</v>
+      </c>
+      <c r="K17" s="3">
         <v>175900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>132200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>149400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>139700</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>213000</v>
+        <v>277600</v>
       </c>
       <c r="E18" s="3">
-        <v>186400</v>
+        <v>209500</v>
       </c>
       <c r="F18" s="3">
-        <v>174300</v>
+        <v>183400</v>
       </c>
       <c r="G18" s="3">
-        <v>118800</v>
+        <v>171500</v>
       </c>
       <c r="H18" s="3">
-        <v>124000</v>
+        <v>116900</v>
       </c>
       <c r="I18" s="3">
-        <v>-112300</v>
+        <v>122000</v>
       </c>
       <c r="J18" s="3">
+        <v>-110500</v>
+      </c>
+      <c r="K18" s="3">
         <v>161500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>173100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>172300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>174800</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,78 +1109,85 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-33000</v>
+        <v>-155800</v>
       </c>
       <c r="E20" s="3">
-        <v>-35500</v>
+        <v>-32500</v>
       </c>
       <c r="F20" s="3">
-        <v>-6600</v>
+        <v>-34900</v>
       </c>
       <c r="G20" s="3">
-        <v>3800</v>
+        <v>-6500</v>
       </c>
       <c r="H20" s="3">
-        <v>-26500</v>
+        <v>3700</v>
       </c>
       <c r="I20" s="3">
-        <v>-83500</v>
+        <v>-26100</v>
       </c>
       <c r="J20" s="3">
+        <v>-82100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-101800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-36200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-53500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-52600</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>199000</v>
+        <v>141800</v>
       </c>
       <c r="E21" s="3">
-        <v>168900</v>
+        <v>195700</v>
       </c>
       <c r="F21" s="3">
-        <v>186000</v>
+        <v>166200</v>
       </c>
       <c r="G21" s="3">
-        <v>142300</v>
+        <v>183000</v>
       </c>
       <c r="H21" s="3">
-        <v>114800</v>
+        <v>140000</v>
       </c>
       <c r="I21" s="3">
-        <v>-178100</v>
+        <v>113000</v>
       </c>
       <c r="J21" s="3">
+        <v>-175300</v>
+      </c>
+      <c r="K21" s="3">
         <v>77600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>152300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>137200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>139300</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1182,78 +1221,87 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>180000</v>
+        <v>121800</v>
       </c>
       <c r="E23" s="3">
-        <v>150900</v>
+        <v>177000</v>
       </c>
       <c r="F23" s="3">
-        <v>167700</v>
+        <v>148500</v>
       </c>
       <c r="G23" s="3">
-        <v>122600</v>
+        <v>165000</v>
       </c>
       <c r="H23" s="3">
-        <v>97500</v>
+        <v>120600</v>
       </c>
       <c r="I23" s="3">
-        <v>-195800</v>
+        <v>95900</v>
       </c>
       <c r="J23" s="3">
+        <v>-192600</v>
+      </c>
+      <c r="K23" s="3">
         <v>59700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>136800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>118700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>122200</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>30900</v>
+        <v>51400</v>
       </c>
       <c r="E24" s="3">
-        <v>27800</v>
+        <v>30400</v>
       </c>
       <c r="F24" s="3">
-        <v>24800</v>
+        <v>27300</v>
       </c>
       <c r="G24" s="3">
-        <v>20600</v>
+        <v>24400</v>
       </c>
       <c r="H24" s="3">
-        <v>11400</v>
+        <v>20200</v>
       </c>
       <c r="I24" s="3">
-        <v>-72200</v>
+        <v>11200</v>
       </c>
       <c r="J24" s="3">
+        <v>-71000</v>
+      </c>
+      <c r="K24" s="3">
         <v>20500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>36000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>31200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>30600</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1335,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>149100</v>
+        <v>70300</v>
       </c>
       <c r="E26" s="3">
-        <v>123200</v>
+        <v>146700</v>
       </c>
       <c r="F26" s="3">
-        <v>142900</v>
+        <v>121200</v>
       </c>
       <c r="G26" s="3">
-        <v>102000</v>
+        <v>140600</v>
       </c>
       <c r="H26" s="3">
-        <v>86100</v>
+        <v>100400</v>
       </c>
       <c r="I26" s="3">
-        <v>-123600</v>
+        <v>84700</v>
       </c>
       <c r="J26" s="3">
+        <v>-121600</v>
+      </c>
+      <c r="K26" s="3">
         <v>39200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>100800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>87500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>91600</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>148500</v>
+        <v>69400</v>
       </c>
       <c r="E27" s="3">
-        <v>122600</v>
+        <v>146100</v>
       </c>
       <c r="F27" s="3">
-        <v>142300</v>
+        <v>120600</v>
       </c>
       <c r="G27" s="3">
-        <v>101600</v>
+        <v>140000</v>
       </c>
       <c r="H27" s="3">
-        <v>85800</v>
+        <v>100000</v>
       </c>
       <c r="I27" s="3">
-        <v>-122600</v>
+        <v>84400</v>
       </c>
       <c r="J27" s="3">
+        <v>-120600</v>
+      </c>
+      <c r="K27" s="3">
         <v>38800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>100200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>87000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>91100</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1449,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1487,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1525,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,78 +1563,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>33000</v>
+        <v>155800</v>
       </c>
       <c r="E32" s="3">
-        <v>35500</v>
+        <v>32500</v>
       </c>
       <c r="F32" s="3">
-        <v>6600</v>
+        <v>34900</v>
       </c>
       <c r="G32" s="3">
-        <v>-3800</v>
+        <v>6500</v>
       </c>
       <c r="H32" s="3">
-        <v>26500</v>
+        <v>-3700</v>
       </c>
       <c r="I32" s="3">
-        <v>83500</v>
+        <v>26100</v>
       </c>
       <c r="J32" s="3">
+        <v>82100</v>
+      </c>
+      <c r="K32" s="3">
         <v>101800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>36200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>53500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>52600</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>148500</v>
+        <v>69400</v>
       </c>
       <c r="E33" s="3">
-        <v>122600</v>
+        <v>146100</v>
       </c>
       <c r="F33" s="3">
-        <v>142300</v>
+        <v>120600</v>
       </c>
       <c r="G33" s="3">
-        <v>101600</v>
+        <v>140000</v>
       </c>
       <c r="H33" s="3">
-        <v>85800</v>
+        <v>100000</v>
       </c>
       <c r="I33" s="3">
-        <v>-122600</v>
+        <v>84400</v>
       </c>
       <c r="J33" s="3">
+        <v>-120600</v>
+      </c>
+      <c r="K33" s="3">
         <v>38800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>100200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>87000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>91100</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1677,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>148500</v>
+        <v>69400</v>
       </c>
       <c r="E35" s="3">
-        <v>122600</v>
+        <v>146100</v>
       </c>
       <c r="F35" s="3">
-        <v>142300</v>
+        <v>120600</v>
       </c>
       <c r="G35" s="3">
-        <v>101600</v>
+        <v>140000</v>
       </c>
       <c r="H35" s="3">
-        <v>85800</v>
+        <v>100000</v>
       </c>
       <c r="I35" s="3">
-        <v>-122600</v>
+        <v>84400</v>
       </c>
       <c r="J35" s="3">
+        <v>-120600</v>
+      </c>
+      <c r="K35" s="3">
         <v>38800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>100200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>87000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>91100</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1776,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,78 +1792,85 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5314500</v>
+        <v>4367000</v>
       </c>
       <c r="E41" s="3">
-        <v>5091700</v>
+        <v>5228400</v>
       </c>
       <c r="F41" s="3">
-        <v>5063500</v>
+        <v>5009200</v>
       </c>
       <c r="G41" s="3">
-        <v>4906100</v>
+        <v>4981400</v>
       </c>
       <c r="H41" s="3">
-        <v>4578400</v>
+        <v>4826600</v>
       </c>
       <c r="I41" s="3">
-        <v>3873100</v>
+        <v>4504200</v>
       </c>
       <c r="J41" s="3">
+        <v>3810300</v>
+      </c>
+      <c r="K41" s="3">
         <v>2722600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2407900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2668300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2403000</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>6117500</v>
+        <v>5985600</v>
       </c>
       <c r="E42" s="3">
-        <v>6136900</v>
+        <v>6018400</v>
       </c>
       <c r="F42" s="3">
-        <v>6247900</v>
+        <v>6037500</v>
       </c>
       <c r="G42" s="3">
-        <v>6118300</v>
+        <v>6146600</v>
       </c>
       <c r="H42" s="3">
-        <v>5719900</v>
+        <v>6019200</v>
       </c>
       <c r="I42" s="3">
-        <v>5328600</v>
+        <v>5627300</v>
       </c>
       <c r="J42" s="3">
+        <v>5242300</v>
+      </c>
+      <c r="K42" s="3">
         <v>4729400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>4377800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>4497700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>4501200</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1812,8 +1904,11 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1847,8 +1942,11 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1882,8 +1980,11 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1917,8 +2018,11 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1952,78 +2056,87 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>214900</v>
+        <v>216800</v>
       </c>
       <c r="E48" s="3">
-        <v>213200</v>
+        <v>211400</v>
       </c>
       <c r="F48" s="3">
-        <v>220300</v>
+        <v>209700</v>
       </c>
       <c r="G48" s="3">
-        <v>228300</v>
+        <v>216700</v>
       </c>
       <c r="H48" s="3">
-        <v>236500</v>
+        <v>224600</v>
       </c>
       <c r="I48" s="3">
-        <v>243100</v>
+        <v>232700</v>
       </c>
       <c r="J48" s="3">
+        <v>239200</v>
+      </c>
+      <c r="K48" s="3">
         <v>252900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>232300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>230300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>235600</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>278900</v>
+        <v>277900</v>
       </c>
       <c r="E49" s="3">
-        <v>276800</v>
+        <v>274400</v>
       </c>
       <c r="F49" s="3">
-        <v>278700</v>
+        <v>272300</v>
       </c>
       <c r="G49" s="3">
-        <v>281900</v>
+        <v>274200</v>
       </c>
       <c r="H49" s="3">
-        <v>278600</v>
+        <v>277300</v>
       </c>
       <c r="I49" s="3">
-        <v>277900</v>
+        <v>274100</v>
       </c>
       <c r="J49" s="3">
         <v>273400</v>
       </c>
       <c r="K49" s="3">
+        <v>273400</v>
+      </c>
+      <c r="L49" s="3">
         <v>239200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>249500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>250200</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2170,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,43 +2208,49 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>70700</v>
+        <v>37900</v>
       </c>
       <c r="E52" s="3">
-        <v>69100</v>
+        <v>69600</v>
       </c>
       <c r="F52" s="3">
-        <v>75700</v>
+        <v>67900</v>
       </c>
       <c r="G52" s="3">
-        <v>95600</v>
+        <v>74500</v>
       </c>
       <c r="H52" s="3">
-        <v>64200</v>
+        <v>94000</v>
       </c>
       <c r="I52" s="3">
-        <v>79400</v>
+        <v>63200</v>
       </c>
       <c r="J52" s="3">
+        <v>78100</v>
+      </c>
+      <c r="K52" s="3">
         <v>23000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>11000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>13800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,43 +2284,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>24975800</v>
+        <v>23924100</v>
       </c>
       <c r="E54" s="3">
-        <v>24476500</v>
+        <v>24571100</v>
       </c>
       <c r="F54" s="3">
-        <v>24342000</v>
+        <v>24079900</v>
       </c>
       <c r="G54" s="3">
-        <v>23853700</v>
+        <v>23947600</v>
       </c>
       <c r="H54" s="3">
-        <v>23252600</v>
+        <v>23467300</v>
       </c>
       <c r="I54" s="3">
-        <v>22108300</v>
+        <v>22875900</v>
       </c>
       <c r="J54" s="3">
+        <v>21750200</v>
+      </c>
+      <c r="K54" s="3">
         <v>19413500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>17479800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>18688800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>17581000</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2340,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,43 +2356,47 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>9800</v>
+        <v>12000</v>
       </c>
       <c r="E57" s="3">
-        <v>9800</v>
+        <v>9600</v>
       </c>
       <c r="F57" s="3">
-        <v>9700</v>
+        <v>9600</v>
       </c>
       <c r="G57" s="3">
-        <v>11600</v>
+        <v>9600</v>
       </c>
       <c r="H57" s="3">
-        <v>9100</v>
+        <v>11400</v>
       </c>
       <c r="I57" s="3">
-        <v>9100</v>
+        <v>9000</v>
       </c>
       <c r="J57" s="3">
+        <v>9000</v>
+      </c>
+      <c r="K57" s="3">
         <v>13300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>11000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>14500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2297,8 +2430,11 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2332,8 +2468,11 @@
       <c r="M59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2367,78 +2506,87 @@
       <c r="M60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2335800</v>
+        <v>2231300</v>
       </c>
       <c r="E61" s="3">
-        <v>2230600</v>
+        <v>2298000</v>
       </c>
       <c r="F61" s="3">
-        <v>2168200</v>
+        <v>2194400</v>
       </c>
       <c r="G61" s="3">
-        <v>2102900</v>
+        <v>2133100</v>
       </c>
       <c r="H61" s="3">
-        <v>2080600</v>
+        <v>2068800</v>
       </c>
       <c r="I61" s="3">
-        <v>2026300</v>
+        <v>2046900</v>
       </c>
       <c r="J61" s="3">
+        <v>1993500</v>
+      </c>
+      <c r="K61" s="3">
         <v>1885200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1683000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2182600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1729000</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
         <v>400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>100</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
       <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
         <v>400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>200</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
       <c r="L62" s="3">
         <v>0</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2620,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2658,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,43 +2696,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>22340000</v>
+        <v>21396400</v>
       </c>
       <c r="E66" s="3">
-        <v>21970100</v>
+        <v>21978000</v>
       </c>
       <c r="F66" s="3">
-        <v>21942800</v>
+        <v>21614100</v>
       </c>
       <c r="G66" s="3">
-        <v>21445500</v>
+        <v>21587300</v>
       </c>
       <c r="H66" s="3">
-        <v>21011000</v>
+        <v>21098100</v>
       </c>
       <c r="I66" s="3">
-        <v>20001100</v>
+        <v>20670600</v>
       </c>
       <c r="J66" s="3">
+        <v>19677000</v>
+      </c>
+      <c r="K66" s="3">
         <v>17115800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>15316400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>16480800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>15643900</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2752,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2788,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2826,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +2864,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,43 +2902,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2127600</v>
+        <v>2155600</v>
       </c>
       <c r="E72" s="3">
-        <v>1955200</v>
+        <v>2093200</v>
       </c>
       <c r="F72" s="3">
-        <v>1830500</v>
+        <v>1923500</v>
       </c>
       <c r="G72" s="3">
-        <v>1758100</v>
+        <v>1800800</v>
       </c>
       <c r="H72" s="3">
-        <v>1654100</v>
+        <v>1729600</v>
       </c>
       <c r="I72" s="3">
-        <v>1566500</v>
+        <v>1627300</v>
       </c>
       <c r="J72" s="3">
+        <v>1541100</v>
+      </c>
+      <c r="K72" s="3">
         <v>1878600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1672100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1687600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1560800</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2978,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3016,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,43 +3054,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2635800</v>
+        <v>2527700</v>
       </c>
       <c r="E76" s="3">
-        <v>2506400</v>
+        <v>2593100</v>
       </c>
       <c r="F76" s="3">
-        <v>2399200</v>
+        <v>2465800</v>
       </c>
       <c r="G76" s="3">
-        <v>2408200</v>
+        <v>2360400</v>
       </c>
       <c r="H76" s="3">
-        <v>2241600</v>
+        <v>2369200</v>
       </c>
       <c r="I76" s="3">
-        <v>2107300</v>
+        <v>2205300</v>
       </c>
       <c r="J76" s="3">
+        <v>2073200</v>
+      </c>
+      <c r="K76" s="3">
         <v>2297800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2163400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2208000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1937100</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3130,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>148500</v>
+        <v>69400</v>
       </c>
       <c r="E81" s="3">
-        <v>122600</v>
+        <v>146100</v>
       </c>
       <c r="F81" s="3">
-        <v>142300</v>
+        <v>120600</v>
       </c>
       <c r="G81" s="3">
-        <v>101600</v>
+        <v>140000</v>
       </c>
       <c r="H81" s="3">
-        <v>85800</v>
+        <v>100000</v>
       </c>
       <c r="I81" s="3">
-        <v>-122600</v>
+        <v>84400</v>
       </c>
       <c r="J81" s="3">
+        <v>-120600</v>
+      </c>
+      <c r="K81" s="3">
         <v>38800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>100200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>87000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>91100</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,43 +3229,47 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="E83" s="3">
+        <v>18700</v>
+      </c>
+      <c r="F83" s="3">
+        <v>17700</v>
+      </c>
+      <c r="G83" s="3">
         <v>18000</v>
       </c>
-      <c r="F83" s="3">
-        <v>18300</v>
-      </c>
-      <c r="G83" s="3">
-        <v>19700</v>
-      </c>
       <c r="H83" s="3">
+        <v>19400</v>
+      </c>
+      <c r="I83" s="3">
+        <v>17100</v>
+      </c>
+      <c r="J83" s="3">
         <v>17400</v>
       </c>
-      <c r="I83" s="3">
-        <v>17600</v>
-      </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>17900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>15400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>18500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>17100</v>
       </c>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3303,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3341,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3379,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3417,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,43 +3455,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>369600</v>
+        <v>-598000</v>
       </c>
       <c r="E89" s="3">
-        <v>45500</v>
+        <v>363600</v>
       </c>
       <c r="F89" s="3">
-        <v>556500</v>
+        <v>44800</v>
       </c>
       <c r="G89" s="3">
-        <v>641300</v>
+        <v>547500</v>
       </c>
       <c r="H89" s="3">
-        <v>850100</v>
+        <v>630900</v>
       </c>
       <c r="I89" s="3">
-        <v>1692900</v>
+        <v>836400</v>
       </c>
       <c r="J89" s="3">
+        <v>1665500</v>
+      </c>
+      <c r="K89" s="3">
         <v>328400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>335600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-347500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>223600</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,43 +3511,47 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-4700</v>
+        <v>-13500</v>
       </c>
       <c r="E91" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="H91" s="3">
         <v>-2600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="I91" s="3">
         <v>-2600</v>
       </c>
-      <c r="G91" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-3700</v>
-      </c>
       <c r="J91" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-5200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-6800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3200</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3585,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,43 +3623,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-186200</v>
+        <v>-115800</v>
       </c>
       <c r="E94" s="3">
-        <v>73900</v>
+        <v>-183200</v>
       </c>
       <c r="F94" s="3">
-        <v>-398800</v>
+        <v>72700</v>
       </c>
       <c r="G94" s="3">
-        <v>-94300</v>
+        <v>-392400</v>
       </c>
       <c r="H94" s="3">
-        <v>-346300</v>
+        <v>-92800</v>
       </c>
       <c r="I94" s="3">
-        <v>-341400</v>
+        <v>-340700</v>
       </c>
       <c r="J94" s="3">
+        <v>-335900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-312100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-193900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>52000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>101200</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,13 +3679,14 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-80300</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -3482,8 +3715,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3753,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3791,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,109 +3829,121 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-4200</v>
+        <v>-118400</v>
       </c>
       <c r="E100" s="3">
-        <v>-99100</v>
+        <v>-4100</v>
       </c>
       <c r="F100" s="3">
-        <v>-9300</v>
+        <v>-97500</v>
       </c>
       <c r="G100" s="3">
-        <v>-204900</v>
+        <v>-9100</v>
       </c>
       <c r="H100" s="3">
-        <v>212400</v>
+        <v>-201600</v>
       </c>
       <c r="I100" s="3">
-        <v>-201500</v>
+        <v>208900</v>
       </c>
       <c r="J100" s="3">
+        <v>-198200</v>
+      </c>
+      <c r="K100" s="3">
         <v>44600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-229500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>566800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-244300</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>43400</v>
+        <v>-29400</v>
       </c>
       <c r="E101" s="3">
-        <v>8000</v>
+        <v>42700</v>
       </c>
       <c r="F101" s="3">
-        <v>9000</v>
+        <v>7900</v>
       </c>
       <c r="G101" s="3">
-        <v>-13500</v>
+        <v>8800</v>
       </c>
       <c r="H101" s="3">
-        <v>-10600</v>
+        <v>-13300</v>
       </c>
       <c r="I101" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-2900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>5700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-5700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>222600</v>
+        <v>-861700</v>
       </c>
       <c r="E102" s="3">
-        <v>28300</v>
+        <v>219000</v>
       </c>
       <c r="F102" s="3">
-        <v>157400</v>
+        <v>27800</v>
       </c>
       <c r="G102" s="3">
-        <v>328500</v>
+        <v>154800</v>
       </c>
       <c r="H102" s="3">
-        <v>705600</v>
+        <v>323200</v>
       </c>
       <c r="I102" s="3">
-        <v>1150200</v>
+        <v>694200</v>
       </c>
       <c r="J102" s="3">
+        <v>1131500</v>
+      </c>
+      <c r="K102" s="3">
         <v>58000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-82200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>265500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>96700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IFS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IFS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>IFS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,118 @@
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>329000</v>
+        <v>362700</v>
       </c>
       <c r="E8" s="3">
-        <v>311300</v>
+        <v>325200</v>
       </c>
       <c r="F8" s="3">
-        <v>295800</v>
+        <v>322400</v>
       </c>
       <c r="G8" s="3">
-        <v>288800</v>
+        <v>305000</v>
       </c>
       <c r="H8" s="3">
-        <v>275600</v>
+        <v>289800</v>
       </c>
       <c r="I8" s="3">
+        <v>282900</v>
+      </c>
+      <c r="J8" s="3">
+        <v>270000</v>
+      </c>
+      <c r="K8" s="3">
         <v>319300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>313900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>337400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>305300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>321600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>314500</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -799,8 +813,14 @@
       <c r="N9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -837,8 +857,14 @@
       <c r="N10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -853,8 +879,10 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -891,8 +919,14 @@
       <c r="N12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,8 +963,14 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -967,46 +1007,58 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-20000</v>
+        <v>-21700</v>
       </c>
       <c r="E15" s="3">
-        <v>-18700</v>
+        <v>-18100</v>
       </c>
       <c r="F15" s="3">
-        <v>-17700</v>
+        <v>-19600</v>
       </c>
       <c r="G15" s="3">
-        <v>-18000</v>
+        <v>-18300</v>
       </c>
       <c r="H15" s="3">
-        <v>-19400</v>
+        <v>-17300</v>
       </c>
       <c r="I15" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="J15" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="K15" s="3">
         <v>-17100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>-17400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>-17900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>-15400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>-18500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>-17100</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,84 +1070,98 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>51400</v>
+        <v>144300</v>
       </c>
       <c r="E17" s="3">
-        <v>101800</v>
+        <v>118000</v>
       </c>
       <c r="F17" s="3">
-        <v>112400</v>
+        <v>50400</v>
       </c>
       <c r="G17" s="3">
-        <v>117200</v>
+        <v>99700</v>
       </c>
       <c r="H17" s="3">
-        <v>158700</v>
+        <v>110100</v>
       </c>
       <c r="I17" s="3">
+        <v>114900</v>
+      </c>
+      <c r="J17" s="3">
+        <v>155500</v>
+      </c>
+      <c r="K17" s="3">
         <v>197300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>424400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>175900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>132200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>149400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>139700</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>277600</v>
+        <v>218500</v>
       </c>
       <c r="E18" s="3">
-        <v>209500</v>
+        <v>207200</v>
       </c>
       <c r="F18" s="3">
-        <v>183400</v>
+        <v>272000</v>
       </c>
       <c r="G18" s="3">
-        <v>171500</v>
+        <v>205300</v>
       </c>
       <c r="H18" s="3">
-        <v>116900</v>
+        <v>179700</v>
       </c>
       <c r="I18" s="3">
+        <v>168000</v>
+      </c>
+      <c r="J18" s="3">
+        <v>114500</v>
+      </c>
+      <c r="K18" s="3">
         <v>122000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-110500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>161500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>173100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>172300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>174800</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,84 +1176,98 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-155800</v>
+        <v>-121300</v>
       </c>
       <c r="E20" s="3">
-        <v>-32500</v>
+        <v>-77300</v>
       </c>
       <c r="F20" s="3">
-        <v>-34900</v>
+        <v>-152700</v>
       </c>
       <c r="G20" s="3">
-        <v>-6500</v>
+        <v>-31800</v>
       </c>
       <c r="H20" s="3">
+        <v>-34200</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="J20" s="3">
         <v>3700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-26100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-82100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-101800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-36200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-53500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-52600</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>141800</v>
+        <v>118800</v>
       </c>
       <c r="E21" s="3">
-        <v>195700</v>
+        <v>148000</v>
       </c>
       <c r="F21" s="3">
-        <v>166200</v>
+        <v>138900</v>
       </c>
       <c r="G21" s="3">
-        <v>183000</v>
+        <v>191800</v>
       </c>
       <c r="H21" s="3">
-        <v>140000</v>
+        <v>162800</v>
       </c>
       <c r="I21" s="3">
+        <v>179300</v>
+      </c>
+      <c r="J21" s="3">
+        <v>137200</v>
+      </c>
+      <c r="K21" s="3">
         <v>113000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-175300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>77600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>152300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>137200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>139300</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1224,84 +1304,102 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>121800</v>
+        <v>97200</v>
       </c>
       <c r="E23" s="3">
-        <v>177000</v>
+        <v>129900</v>
       </c>
       <c r="F23" s="3">
-        <v>148500</v>
+        <v>119300</v>
       </c>
       <c r="G23" s="3">
-        <v>165000</v>
+        <v>173500</v>
       </c>
       <c r="H23" s="3">
-        <v>120600</v>
+        <v>145500</v>
       </c>
       <c r="I23" s="3">
+        <v>161700</v>
+      </c>
+      <c r="J23" s="3">
+        <v>118200</v>
+      </c>
+      <c r="K23" s="3">
         <v>95900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-192600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>59700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>136800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>118700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>122200</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>51400</v>
+        <v>31700</v>
       </c>
       <c r="E24" s="3">
-        <v>30400</v>
+        <v>24800</v>
       </c>
       <c r="F24" s="3">
-        <v>27300</v>
+        <v>50400</v>
       </c>
       <c r="G24" s="3">
-        <v>24400</v>
+        <v>29700</v>
       </c>
       <c r="H24" s="3">
-        <v>20200</v>
+        <v>26800</v>
       </c>
       <c r="I24" s="3">
+        <v>23900</v>
+      </c>
+      <c r="J24" s="3">
+        <v>19800</v>
+      </c>
+      <c r="K24" s="3">
         <v>11200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-71000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>20500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>36000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>31200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>30600</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,84 +1436,102 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>70300</v>
+        <v>65500</v>
       </c>
       <c r="E26" s="3">
-        <v>146700</v>
+        <v>105100</v>
       </c>
       <c r="F26" s="3">
-        <v>121200</v>
+        <v>68900</v>
       </c>
       <c r="G26" s="3">
-        <v>140600</v>
+        <v>143700</v>
       </c>
       <c r="H26" s="3">
-        <v>100400</v>
+        <v>118700</v>
       </c>
       <c r="I26" s="3">
+        <v>137800</v>
+      </c>
+      <c r="J26" s="3">
+        <v>98300</v>
+      </c>
+      <c r="K26" s="3">
         <v>84700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-121600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>39200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>100800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>87500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>91600</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>69400</v>
+        <v>64900</v>
       </c>
       <c r="E27" s="3">
-        <v>146100</v>
+        <v>104500</v>
       </c>
       <c r="F27" s="3">
-        <v>120600</v>
+        <v>68000</v>
       </c>
       <c r="G27" s="3">
-        <v>140000</v>
+        <v>143200</v>
       </c>
       <c r="H27" s="3">
-        <v>100000</v>
+        <v>118200</v>
       </c>
       <c r="I27" s="3">
+        <v>137100</v>
+      </c>
+      <c r="J27" s="3">
+        <v>98000</v>
+      </c>
+      <c r="K27" s="3">
         <v>84400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-120600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>38800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>100200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>87000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>91100</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1568,14 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1490,8 +1612,14 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1656,14 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,84 +1700,102 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>155800</v>
+        <v>121300</v>
       </c>
       <c r="E32" s="3">
-        <v>32500</v>
+        <v>77300</v>
       </c>
       <c r="F32" s="3">
-        <v>34900</v>
+        <v>152700</v>
       </c>
       <c r="G32" s="3">
-        <v>6500</v>
+        <v>31800</v>
       </c>
       <c r="H32" s="3">
+        <v>34200</v>
+      </c>
+      <c r="I32" s="3">
+        <v>6400</v>
+      </c>
+      <c r="J32" s="3">
         <v>-3700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>26100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>82100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>101800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>36200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>53500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>52600</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>69400</v>
+        <v>64900</v>
       </c>
       <c r="E33" s="3">
-        <v>146100</v>
+        <v>104500</v>
       </c>
       <c r="F33" s="3">
-        <v>120600</v>
+        <v>68000</v>
       </c>
       <c r="G33" s="3">
-        <v>140000</v>
+        <v>143200</v>
       </c>
       <c r="H33" s="3">
-        <v>100000</v>
+        <v>118200</v>
       </c>
       <c r="I33" s="3">
+        <v>137100</v>
+      </c>
+      <c r="J33" s="3">
+        <v>98000</v>
+      </c>
+      <c r="K33" s="3">
         <v>84400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-120600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>38800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>100200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>87000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>91100</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,89 +1832,107 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>69400</v>
+        <v>64900</v>
       </c>
       <c r="E35" s="3">
-        <v>146100</v>
+        <v>104500</v>
       </c>
       <c r="F35" s="3">
-        <v>120600</v>
+        <v>68000</v>
       </c>
       <c r="G35" s="3">
-        <v>140000</v>
+        <v>143200</v>
       </c>
       <c r="H35" s="3">
-        <v>100000</v>
+        <v>118200</v>
       </c>
       <c r="I35" s="3">
+        <v>137100</v>
+      </c>
+      <c r="J35" s="3">
+        <v>98000</v>
+      </c>
+      <c r="K35" s="3">
         <v>84400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-120600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>38800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>100200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>87000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>91100</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1947,10 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,84 +1965,98 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4367000</v>
+        <v>3149500</v>
       </c>
       <c r="E41" s="3">
-        <v>5228400</v>
+        <v>3462900</v>
       </c>
       <c r="F41" s="3">
-        <v>5009200</v>
+        <v>4278500</v>
       </c>
       <c r="G41" s="3">
-        <v>4981400</v>
+        <v>5122400</v>
       </c>
       <c r="H41" s="3">
-        <v>4826600</v>
+        <v>4907700</v>
       </c>
       <c r="I41" s="3">
+        <v>4880500</v>
+      </c>
+      <c r="J41" s="3">
+        <v>4728800</v>
+      </c>
+      <c r="K41" s="3">
         <v>4504200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>3810300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>2722600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>2407900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>2668300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>2403000</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>5985600</v>
+        <v>6433100</v>
       </c>
       <c r="E42" s="3">
-        <v>6018400</v>
+        <v>5857800</v>
       </c>
       <c r="F42" s="3">
-        <v>6037500</v>
+        <v>5864300</v>
       </c>
       <c r="G42" s="3">
-        <v>6146600</v>
+        <v>5896400</v>
       </c>
       <c r="H42" s="3">
-        <v>6019200</v>
+        <v>5915100</v>
       </c>
       <c r="I42" s="3">
+        <v>6022100</v>
+      </c>
+      <c r="J42" s="3">
+        <v>5897200</v>
+      </c>
+      <c r="K42" s="3">
         <v>5627300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>5242300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>4729400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>4377800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>4497700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>4501200</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1907,8 +2093,14 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1945,8 +2137,14 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1983,8 +2181,14 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2021,8 +2225,14 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2059,84 +2269,102 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>216800</v>
+        <v>219800</v>
       </c>
       <c r="E48" s="3">
-        <v>211400</v>
+        <v>210500</v>
       </c>
       <c r="F48" s="3">
-        <v>209700</v>
+        <v>212400</v>
       </c>
       <c r="G48" s="3">
-        <v>216700</v>
+        <v>207200</v>
       </c>
       <c r="H48" s="3">
-        <v>224600</v>
+        <v>205500</v>
       </c>
       <c r="I48" s="3">
+        <v>212300</v>
+      </c>
+      <c r="J48" s="3">
+        <v>220000</v>
+      </c>
+      <c r="K48" s="3">
         <v>232700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>239200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>252900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>232300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>230300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>235600</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>277900</v>
+        <v>337000</v>
       </c>
       <c r="E49" s="3">
-        <v>274400</v>
+        <v>270100</v>
       </c>
       <c r="F49" s="3">
-        <v>272300</v>
+        <v>272200</v>
       </c>
       <c r="G49" s="3">
-        <v>274200</v>
+        <v>268900</v>
       </c>
       <c r="H49" s="3">
-        <v>277300</v>
+        <v>266800</v>
       </c>
       <c r="I49" s="3">
+        <v>268600</v>
+      </c>
+      <c r="J49" s="3">
+        <v>271700</v>
+      </c>
+      <c r="K49" s="3">
         <v>274100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>273400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>273400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>239200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>249500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>250200</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2401,14 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,46 +2445,58 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>37900</v>
+        <v>59600</v>
       </c>
       <c r="E52" s="3">
-        <v>69600</v>
+        <v>53300</v>
       </c>
       <c r="F52" s="3">
-        <v>67900</v>
+        <v>37100</v>
       </c>
       <c r="G52" s="3">
-        <v>74500</v>
+        <v>68200</v>
       </c>
       <c r="H52" s="3">
-        <v>94000</v>
+        <v>66600</v>
       </c>
       <c r="I52" s="3">
+        <v>73000</v>
+      </c>
+      <c r="J52" s="3">
+        <v>92100</v>
+      </c>
+      <c r="K52" s="3">
         <v>63200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>78100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>23000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>11000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>13800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,46 +2533,58 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>23924100</v>
+        <v>22331500</v>
       </c>
       <c r="E54" s="3">
-        <v>24571100</v>
+        <v>22248500</v>
       </c>
       <c r="F54" s="3">
-        <v>24079900</v>
+        <v>23439300</v>
       </c>
       <c r="G54" s="3">
-        <v>23947600</v>
+        <v>24073200</v>
       </c>
       <c r="H54" s="3">
-        <v>23467300</v>
+        <v>23591900</v>
       </c>
       <c r="I54" s="3">
+        <v>23462300</v>
+      </c>
+      <c r="J54" s="3">
+        <v>22991700</v>
+      </c>
+      <c r="K54" s="3">
         <v>22875900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>21750200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>19413500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>17479800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>18688800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>17581000</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2599,10 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,46 +2617,54 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>12000</v>
+        <v>10700</v>
       </c>
       <c r="E57" s="3">
-        <v>9600</v>
+        <v>7600</v>
       </c>
       <c r="F57" s="3">
-        <v>9600</v>
+        <v>11800</v>
       </c>
       <c r="G57" s="3">
-        <v>9600</v>
+        <v>9500</v>
       </c>
       <c r="H57" s="3">
-        <v>11400</v>
+        <v>9400</v>
       </c>
       <c r="I57" s="3">
+        <v>9400</v>
+      </c>
+      <c r="J57" s="3">
+        <v>11100</v>
+      </c>
+      <c r="K57" s="3">
         <v>9000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>9000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>13300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>11000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>14500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2433,8 +2701,14 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2471,8 +2745,14 @@
       <c r="N59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2509,84 +2789,102 @@
       <c r="N60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2231300</v>
+        <v>2059900</v>
       </c>
       <c r="E61" s="3">
-        <v>2298000</v>
+        <v>2038100</v>
       </c>
       <c r="F61" s="3">
-        <v>2194400</v>
+        <v>2186100</v>
       </c>
       <c r="G61" s="3">
-        <v>2133100</v>
+        <v>2251400</v>
       </c>
       <c r="H61" s="3">
-        <v>2068800</v>
+        <v>2149900</v>
       </c>
       <c r="I61" s="3">
+        <v>2089900</v>
+      </c>
+      <c r="J61" s="3">
+        <v>2026900</v>
+      </c>
+      <c r="K61" s="3">
         <v>2046900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1993500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1885200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>1683000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>2182600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>1729000</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E62" s="3">
+        <v>300</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
         <v>400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>100</v>
       </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3">
         <v>400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>200</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2921,14 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2965,14 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,46 +3009,58 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>21396400</v>
+        <v>19995300</v>
       </c>
       <c r="E66" s="3">
-        <v>21978000</v>
+        <v>19910300</v>
       </c>
       <c r="F66" s="3">
-        <v>21614100</v>
+        <v>20962800</v>
       </c>
       <c r="G66" s="3">
-        <v>21587300</v>
+        <v>21532600</v>
       </c>
       <c r="H66" s="3">
-        <v>21098100</v>
+        <v>21176100</v>
       </c>
       <c r="I66" s="3">
+        <v>21149800</v>
+      </c>
+      <c r="J66" s="3">
+        <v>20670500</v>
+      </c>
+      <c r="K66" s="3">
         <v>20670600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>19677000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>17115800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>15316400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>16480800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>15643900</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +3075,10 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +3115,14 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +3159,14 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2867,8 +3203,14 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,46 +3247,58 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2155600</v>
+        <v>2088900</v>
       </c>
       <c r="E72" s="3">
-        <v>2093200</v>
+        <v>2023300</v>
       </c>
       <c r="F72" s="3">
-        <v>1923500</v>
+        <v>2111900</v>
       </c>
       <c r="G72" s="3">
-        <v>1800800</v>
+        <v>2050700</v>
       </c>
       <c r="H72" s="3">
-        <v>1729600</v>
+        <v>1884500</v>
       </c>
       <c r="I72" s="3">
+        <v>1764300</v>
+      </c>
+      <c r="J72" s="3">
+        <v>1694600</v>
+      </c>
+      <c r="K72" s="3">
         <v>1627300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>1541100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>1878600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>1672100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>1687600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>1560800</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3335,14 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3379,14 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,46 +3423,58 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2527700</v>
+        <v>2336200</v>
       </c>
       <c r="E76" s="3">
-        <v>2593100</v>
+        <v>2338200</v>
       </c>
       <c r="F76" s="3">
-        <v>2465800</v>
+        <v>2476500</v>
       </c>
       <c r="G76" s="3">
-        <v>2360400</v>
+        <v>2540600</v>
       </c>
       <c r="H76" s="3">
-        <v>2369200</v>
+        <v>2415900</v>
       </c>
       <c r="I76" s="3">
+        <v>2312500</v>
+      </c>
+      <c r="J76" s="3">
+        <v>2321200</v>
+      </c>
+      <c r="K76" s="3">
         <v>2205300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>2073200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>2297800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>2163400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>2208000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1937100</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,89 +3511,107 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>69400</v>
+        <v>64900</v>
       </c>
       <c r="E81" s="3">
-        <v>146100</v>
+        <v>104500</v>
       </c>
       <c r="F81" s="3">
-        <v>120600</v>
+        <v>68000</v>
       </c>
       <c r="G81" s="3">
-        <v>140000</v>
+        <v>143200</v>
       </c>
       <c r="H81" s="3">
-        <v>100000</v>
+        <v>118200</v>
       </c>
       <c r="I81" s="3">
+        <v>137100</v>
+      </c>
+      <c r="J81" s="3">
+        <v>98000</v>
+      </c>
+      <c r="K81" s="3">
         <v>84400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-120600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>38800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>100200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>87000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>91100</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,46 +3626,54 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>20000</v>
+        <v>21700</v>
       </c>
       <c r="E83" s="3">
-        <v>18700</v>
+        <v>18100</v>
       </c>
       <c r="F83" s="3">
-        <v>17700</v>
+        <v>19600</v>
       </c>
       <c r="G83" s="3">
-        <v>18000</v>
+        <v>18300</v>
       </c>
       <c r="H83" s="3">
-        <v>19400</v>
+        <v>17300</v>
       </c>
       <c r="I83" s="3">
+        <v>17600</v>
+      </c>
+      <c r="J83" s="3">
+        <v>19000</v>
+      </c>
+      <c r="K83" s="3">
         <v>17100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>17400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>17900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>15400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>18500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>17100</v>
       </c>
     </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3710,14 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3754,14 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3798,14 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3842,14 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,46 +3886,58 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-598000</v>
+        <v>45600</v>
       </c>
       <c r="E89" s="3">
-        <v>363600</v>
+        <v>-484400</v>
       </c>
       <c r="F89" s="3">
-        <v>44800</v>
+        <v>-585900</v>
       </c>
       <c r="G89" s="3">
-        <v>547500</v>
+        <v>356200</v>
       </c>
       <c r="H89" s="3">
-        <v>630900</v>
+        <v>43900</v>
       </c>
       <c r="I89" s="3">
+        <v>536400</v>
+      </c>
+      <c r="J89" s="3">
+        <v>618100</v>
+      </c>
+      <c r="K89" s="3">
         <v>836400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>1665500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>328400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>335600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-347500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>223600</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,46 +3952,54 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-13500</v>
+        <v>-2200</v>
       </c>
       <c r="E91" s="3">
-        <v>-4600</v>
+        <v>-6900</v>
       </c>
       <c r="F91" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="H91" s="3">
         <v>-2500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-2500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2600</v>
       </c>
-      <c r="I91" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-3600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-5200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-6800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-3600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-3200</v>
       </c>
     </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +4036,14 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,46 +4080,58 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-115800</v>
+        <v>-113600</v>
       </c>
       <c r="E94" s="3">
-        <v>-183200</v>
+        <v>-276300</v>
       </c>
       <c r="F94" s="3">
-        <v>72700</v>
+        <v>-113500</v>
       </c>
       <c r="G94" s="3">
-        <v>-392400</v>
+        <v>-179500</v>
       </c>
       <c r="H94" s="3">
-        <v>-92800</v>
+        <v>71200</v>
       </c>
       <c r="I94" s="3">
+        <v>-384400</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-90900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-340700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-335900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-312100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-193900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>52000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>101200</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,19 +4146,21 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-80300</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-78600</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -3718,8 +4186,14 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +4230,14 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4274,14 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,118 +4318,142 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-118400</v>
+        <v>-233900</v>
       </c>
       <c r="E100" s="3">
-        <v>-4100</v>
+        <v>-63000</v>
       </c>
       <c r="F100" s="3">
-        <v>-97500</v>
+        <v>-116000</v>
       </c>
       <c r="G100" s="3">
-        <v>-9100</v>
+        <v>-4000</v>
       </c>
       <c r="H100" s="3">
-        <v>-201600</v>
+        <v>-95500</v>
       </c>
       <c r="I100" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-197500</v>
+      </c>
+      <c r="K100" s="3">
         <v>208900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-198200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>44600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-229500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>566800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-244300</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-29400</v>
+        <v>-12200</v>
       </c>
       <c r="E101" s="3">
-        <v>42700</v>
+        <v>8000</v>
       </c>
       <c r="F101" s="3">
-        <v>7900</v>
+        <v>-28800</v>
       </c>
       <c r="G101" s="3">
-        <v>8800</v>
+        <v>41800</v>
       </c>
       <c r="H101" s="3">
-        <v>-13300</v>
+        <v>7700</v>
       </c>
       <c r="I101" s="3">
+        <v>8600</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="K101" s="3">
         <v>-10400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-2900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>5700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-5700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-861700</v>
+        <v>-314200</v>
       </c>
       <c r="E102" s="3">
-        <v>219000</v>
+        <v>-815600</v>
       </c>
       <c r="F102" s="3">
-        <v>27800</v>
+        <v>-844200</v>
       </c>
       <c r="G102" s="3">
-        <v>154800</v>
+        <v>214600</v>
       </c>
       <c r="H102" s="3">
-        <v>323200</v>
+        <v>27300</v>
       </c>
       <c r="I102" s="3">
+        <v>151700</v>
+      </c>
+      <c r="J102" s="3">
+        <v>316600</v>
+      </c>
+      <c r="K102" s="3">
         <v>694200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>1131500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>58000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-82200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>265500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>96700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IFS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IFS_QTR_FIN.xlsx
@@ -737,25 +737,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>362700</v>
+        <v>362600</v>
       </c>
       <c r="E8" s="3">
-        <v>325200</v>
+        <v>325100</v>
       </c>
       <c r="F8" s="3">
-        <v>322400</v>
+        <v>322200</v>
       </c>
       <c r="G8" s="3">
-        <v>305000</v>
+        <v>304900</v>
       </c>
       <c r="H8" s="3">
-        <v>289800</v>
+        <v>289700</v>
       </c>
       <c r="I8" s="3">
-        <v>282900</v>
+        <v>282800</v>
       </c>
       <c r="J8" s="3">
-        <v>270000</v>
+        <v>269900</v>
       </c>
       <c r="K8" s="3">
         <v>319300</v>
@@ -1019,7 +1019,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-21700</v>
+        <v>-21600</v>
       </c>
       <c r="E15" s="3">
         <v>-18100</v>
@@ -1078,7 +1078,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>144300</v>
+        <v>144200</v>
       </c>
       <c r="E17" s="3">
         <v>118000</v>
@@ -1093,10 +1093,10 @@
         <v>110100</v>
       </c>
       <c r="I17" s="3">
-        <v>114900</v>
+        <v>114800</v>
       </c>
       <c r="J17" s="3">
-        <v>155500</v>
+        <v>155400</v>
       </c>
       <c r="K17" s="3">
         <v>197300</v>
@@ -1122,19 +1122,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>218500</v>
+        <v>218400</v>
       </c>
       <c r="E18" s="3">
-        <v>207200</v>
+        <v>207100</v>
       </c>
       <c r="F18" s="3">
-        <v>272000</v>
+        <v>271900</v>
       </c>
       <c r="G18" s="3">
-        <v>205300</v>
+        <v>205200</v>
       </c>
       <c r="H18" s="3">
-        <v>179700</v>
+        <v>179600</v>
       </c>
       <c r="I18" s="3">
         <v>168000</v>
@@ -1190,7 +1190,7 @@
         <v>-77300</v>
       </c>
       <c r="F20" s="3">
-        <v>-152700</v>
+        <v>-152600</v>
       </c>
       <c r="G20" s="3">
         <v>-31800</v>
@@ -1231,22 +1231,22 @@
         <v>118800</v>
       </c>
       <c r="E21" s="3">
-        <v>148000</v>
+        <v>147900</v>
       </c>
       <c r="F21" s="3">
-        <v>138900</v>
+        <v>138800</v>
       </c>
       <c r="G21" s="3">
-        <v>191800</v>
+        <v>191700</v>
       </c>
       <c r="H21" s="3">
         <v>162800</v>
       </c>
       <c r="I21" s="3">
-        <v>179300</v>
+        <v>179200</v>
       </c>
       <c r="J21" s="3">
-        <v>137200</v>
+        <v>137100</v>
       </c>
       <c r="K21" s="3">
         <v>113000</v>
@@ -1316,25 +1316,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>97200</v>
+        <v>97100</v>
       </c>
       <c r="E23" s="3">
-        <v>129900</v>
+        <v>129800</v>
       </c>
       <c r="F23" s="3">
-        <v>119300</v>
+        <v>119200</v>
       </c>
       <c r="G23" s="3">
-        <v>173500</v>
+        <v>173400</v>
       </c>
       <c r="H23" s="3">
-        <v>145500</v>
+        <v>145400</v>
       </c>
       <c r="I23" s="3">
-        <v>161700</v>
+        <v>161600</v>
       </c>
       <c r="J23" s="3">
-        <v>118200</v>
+        <v>118100</v>
       </c>
       <c r="K23" s="3">
         <v>95900</v>
@@ -1451,7 +1451,7 @@
         <v>65500</v>
       </c>
       <c r="E26" s="3">
-        <v>105100</v>
+        <v>105000</v>
       </c>
       <c r="F26" s="3">
         <v>68900</v>
@@ -1463,7 +1463,7 @@
         <v>118700</v>
       </c>
       <c r="I26" s="3">
-        <v>137800</v>
+        <v>137700</v>
       </c>
       <c r="J26" s="3">
         <v>98300</v>
@@ -1492,25 +1492,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>64900</v>
+        <v>64800</v>
       </c>
       <c r="E27" s="3">
-        <v>104500</v>
+        <v>104400</v>
       </c>
       <c r="F27" s="3">
         <v>68000</v>
       </c>
       <c r="G27" s="3">
-        <v>143200</v>
+        <v>143100</v>
       </c>
       <c r="H27" s="3">
-        <v>118200</v>
+        <v>118100</v>
       </c>
       <c r="I27" s="3">
         <v>137100</v>
       </c>
       <c r="J27" s="3">
-        <v>98000</v>
+        <v>97900</v>
       </c>
       <c r="K27" s="3">
         <v>84400</v>
@@ -1718,7 +1718,7 @@
         <v>77300</v>
       </c>
       <c r="F32" s="3">
-        <v>152700</v>
+        <v>152600</v>
       </c>
       <c r="G32" s="3">
         <v>31800</v>
@@ -1756,25 +1756,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>64900</v>
+        <v>64800</v>
       </c>
       <c r="E33" s="3">
-        <v>104500</v>
+        <v>104400</v>
       </c>
       <c r="F33" s="3">
         <v>68000</v>
       </c>
       <c r="G33" s="3">
-        <v>143200</v>
+        <v>143100</v>
       </c>
       <c r="H33" s="3">
-        <v>118200</v>
+        <v>118100</v>
       </c>
       <c r="I33" s="3">
         <v>137100</v>
       </c>
       <c r="J33" s="3">
-        <v>98000</v>
+        <v>97900</v>
       </c>
       <c r="K33" s="3">
         <v>84400</v>
@@ -1844,25 +1844,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>64900</v>
+        <v>64800</v>
       </c>
       <c r="E35" s="3">
-        <v>104500</v>
+        <v>104400</v>
       </c>
       <c r="F35" s="3">
         <v>68000</v>
       </c>
       <c r="G35" s="3">
-        <v>143200</v>
+        <v>143100</v>
       </c>
       <c r="H35" s="3">
-        <v>118200</v>
+        <v>118100</v>
       </c>
       <c r="I35" s="3">
         <v>137100</v>
       </c>
       <c r="J35" s="3">
-        <v>98000</v>
+        <v>97900</v>
       </c>
       <c r="K35" s="3">
         <v>84400</v>
@@ -1973,25 +1973,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3149500</v>
+        <v>3148300</v>
       </c>
       <c r="E41" s="3">
-        <v>3462900</v>
+        <v>3461600</v>
       </c>
       <c r="F41" s="3">
-        <v>4278500</v>
+        <v>4276800</v>
       </c>
       <c r="G41" s="3">
-        <v>5122400</v>
+        <v>5120500</v>
       </c>
       <c r="H41" s="3">
-        <v>4907700</v>
+        <v>4905800</v>
       </c>
       <c r="I41" s="3">
-        <v>4880500</v>
+        <v>4878600</v>
       </c>
       <c r="J41" s="3">
-        <v>4728800</v>
+        <v>4727000</v>
       </c>
       <c r="K41" s="3">
         <v>4504200</v>
@@ -2017,25 +2017,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>6433100</v>
+        <v>6430600</v>
       </c>
       <c r="E42" s="3">
-        <v>5857800</v>
+        <v>5855500</v>
       </c>
       <c r="F42" s="3">
-        <v>5864300</v>
+        <v>5862100</v>
       </c>
       <c r="G42" s="3">
-        <v>5896400</v>
+        <v>5894100</v>
       </c>
       <c r="H42" s="3">
-        <v>5915100</v>
+        <v>5912900</v>
       </c>
       <c r="I42" s="3">
-        <v>6022100</v>
+        <v>6019800</v>
       </c>
       <c r="J42" s="3">
-        <v>5897200</v>
+        <v>5894900</v>
       </c>
       <c r="K42" s="3">
         <v>5627300</v>
@@ -2281,25 +2281,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>219800</v>
+        <v>219700</v>
       </c>
       <c r="E48" s="3">
-        <v>210500</v>
+        <v>210400</v>
       </c>
       <c r="F48" s="3">
-        <v>212400</v>
+        <v>212300</v>
       </c>
       <c r="G48" s="3">
-        <v>207200</v>
+        <v>207100</v>
       </c>
       <c r="H48" s="3">
-        <v>205500</v>
+        <v>205400</v>
       </c>
       <c r="I48" s="3">
-        <v>212300</v>
+        <v>212200</v>
       </c>
       <c r="J48" s="3">
-        <v>220000</v>
+        <v>219900</v>
       </c>
       <c r="K48" s="3">
         <v>232700</v>
@@ -2325,25 +2325,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>337000</v>
+        <v>336900</v>
       </c>
       <c r="E49" s="3">
-        <v>270100</v>
+        <v>270000</v>
       </c>
       <c r="F49" s="3">
-        <v>272200</v>
+        <v>272100</v>
       </c>
       <c r="G49" s="3">
-        <v>268900</v>
+        <v>268800</v>
       </c>
       <c r="H49" s="3">
-        <v>266800</v>
+        <v>266700</v>
       </c>
       <c r="I49" s="3">
-        <v>268600</v>
+        <v>268500</v>
       </c>
       <c r="J49" s="3">
-        <v>271700</v>
+        <v>271600</v>
       </c>
       <c r="K49" s="3">
         <v>274100</v>
@@ -2466,10 +2466,10 @@
         <v>37100</v>
       </c>
       <c r="G52" s="3">
-        <v>68200</v>
+        <v>68100</v>
       </c>
       <c r="H52" s="3">
-        <v>66600</v>
+        <v>66500</v>
       </c>
       <c r="I52" s="3">
         <v>73000</v>
@@ -2545,25 +2545,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>22331500</v>
+        <v>22322900</v>
       </c>
       <c r="E54" s="3">
-        <v>22248500</v>
+        <v>22239900</v>
       </c>
       <c r="F54" s="3">
-        <v>23439300</v>
+        <v>23430300</v>
       </c>
       <c r="G54" s="3">
-        <v>24073200</v>
+        <v>24063900</v>
       </c>
       <c r="H54" s="3">
-        <v>23591900</v>
+        <v>23582900</v>
       </c>
       <c r="I54" s="3">
-        <v>23462300</v>
+        <v>23453300</v>
       </c>
       <c r="J54" s="3">
-        <v>22991700</v>
+        <v>22982800</v>
       </c>
       <c r="K54" s="3">
         <v>22875900</v>
@@ -2634,7 +2634,7 @@
         <v>11800</v>
       </c>
       <c r="G57" s="3">
-        <v>9500</v>
+        <v>9400</v>
       </c>
       <c r="H57" s="3">
         <v>9400</v>
@@ -2801,25 +2801,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2059900</v>
+        <v>2059100</v>
       </c>
       <c r="E61" s="3">
-        <v>2038100</v>
+        <v>2037300</v>
       </c>
       <c r="F61" s="3">
-        <v>2186100</v>
+        <v>2185300</v>
       </c>
       <c r="G61" s="3">
-        <v>2251400</v>
+        <v>2250500</v>
       </c>
       <c r="H61" s="3">
-        <v>2149900</v>
+        <v>2149100</v>
       </c>
       <c r="I61" s="3">
-        <v>2089900</v>
+        <v>2089100</v>
       </c>
       <c r="J61" s="3">
-        <v>2026900</v>
+        <v>2026100</v>
       </c>
       <c r="K61" s="3">
         <v>2046900</v>
@@ -3021,25 +3021,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>19995300</v>
+        <v>19987600</v>
       </c>
       <c r="E66" s="3">
-        <v>19910300</v>
+        <v>19902700</v>
       </c>
       <c r="F66" s="3">
-        <v>20962800</v>
+        <v>20954800</v>
       </c>
       <c r="G66" s="3">
-        <v>21532600</v>
+        <v>21524400</v>
       </c>
       <c r="H66" s="3">
-        <v>21176100</v>
+        <v>21167900</v>
       </c>
       <c r="I66" s="3">
-        <v>21149800</v>
+        <v>21141700</v>
       </c>
       <c r="J66" s="3">
-        <v>20670500</v>
+        <v>20662500</v>
       </c>
       <c r="K66" s="3">
         <v>20670600</v>
@@ -3259,25 +3259,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2088900</v>
+        <v>2088100</v>
       </c>
       <c r="E72" s="3">
-        <v>2023300</v>
+        <v>2022500</v>
       </c>
       <c r="F72" s="3">
-        <v>2111900</v>
+        <v>2111100</v>
       </c>
       <c r="G72" s="3">
-        <v>2050700</v>
+        <v>2050000</v>
       </c>
       <c r="H72" s="3">
-        <v>1884500</v>
+        <v>1883800</v>
       </c>
       <c r="I72" s="3">
-        <v>1764300</v>
+        <v>1763600</v>
       </c>
       <c r="J72" s="3">
-        <v>1694600</v>
+        <v>1693900</v>
       </c>
       <c r="K72" s="3">
         <v>1627300</v>
@@ -3435,25 +3435,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2336200</v>
+        <v>2335300</v>
       </c>
       <c r="E76" s="3">
-        <v>2338200</v>
+        <v>2337300</v>
       </c>
       <c r="F76" s="3">
-        <v>2476500</v>
+        <v>2475500</v>
       </c>
       <c r="G76" s="3">
-        <v>2540600</v>
+        <v>2539600</v>
       </c>
       <c r="H76" s="3">
-        <v>2415900</v>
+        <v>2414900</v>
       </c>
       <c r="I76" s="3">
-        <v>2312500</v>
+        <v>2311600</v>
       </c>
       <c r="J76" s="3">
-        <v>2321200</v>
+        <v>2320300</v>
       </c>
       <c r="K76" s="3">
         <v>2205300</v>
@@ -3572,25 +3572,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>64900</v>
+        <v>64800</v>
       </c>
       <c r="E81" s="3">
-        <v>104500</v>
+        <v>104400</v>
       </c>
       <c r="F81" s="3">
         <v>68000</v>
       </c>
       <c r="G81" s="3">
-        <v>143200</v>
+        <v>143100</v>
       </c>
       <c r="H81" s="3">
-        <v>118200</v>
+        <v>118100</v>
       </c>
       <c r="I81" s="3">
         <v>137100</v>
       </c>
       <c r="J81" s="3">
-        <v>98000</v>
+        <v>97900</v>
       </c>
       <c r="K81" s="3">
         <v>84400</v>
@@ -3634,7 +3634,7 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>21700</v>
+        <v>21600</v>
       </c>
       <c r="E83" s="3">
         <v>18100</v>
@@ -3901,22 +3901,22 @@
         <v>45600</v>
       </c>
       <c r="E89" s="3">
-        <v>-484400</v>
+        <v>-484200</v>
       </c>
       <c r="F89" s="3">
-        <v>-585900</v>
+        <v>-585600</v>
       </c>
       <c r="G89" s="3">
-        <v>356200</v>
+        <v>356100</v>
       </c>
       <c r="H89" s="3">
         <v>43900</v>
       </c>
       <c r="I89" s="3">
-        <v>536400</v>
+        <v>536200</v>
       </c>
       <c r="J89" s="3">
-        <v>618100</v>
+        <v>617900</v>
       </c>
       <c r="K89" s="3">
         <v>836400</v>
@@ -4095,19 +4095,19 @@
         <v>-113600</v>
       </c>
       <c r="E94" s="3">
-        <v>-276300</v>
+        <v>-276200</v>
       </c>
       <c r="F94" s="3">
         <v>-113500</v>
       </c>
       <c r="G94" s="3">
-        <v>-179500</v>
+        <v>-179400</v>
       </c>
       <c r="H94" s="3">
         <v>71200</v>
       </c>
       <c r="I94" s="3">
-        <v>-384400</v>
+        <v>-384300</v>
       </c>
       <c r="J94" s="3">
         <v>-90900</v>
@@ -4330,10 +4330,10 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-233900</v>
+        <v>-233800</v>
       </c>
       <c r="E100" s="3">
-        <v>-63000</v>
+        <v>-62900</v>
       </c>
       <c r="F100" s="3">
         <v>-116000</v>
@@ -4418,25 +4418,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-314200</v>
+        <v>-314100</v>
       </c>
       <c r="E102" s="3">
-        <v>-815600</v>
+        <v>-815300</v>
       </c>
       <c r="F102" s="3">
-        <v>-844200</v>
+        <v>-843900</v>
       </c>
       <c r="G102" s="3">
-        <v>214600</v>
+        <v>214500</v>
       </c>
       <c r="H102" s="3">
         <v>27300</v>
       </c>
       <c r="I102" s="3">
-        <v>151700</v>
+        <v>151600</v>
       </c>
       <c r="J102" s="3">
-        <v>316600</v>
+        <v>316500</v>
       </c>
       <c r="K102" s="3">
         <v>694200</v>

--- a/AAII_Financials/Quarterly/IFS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IFS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>IFS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,118 +665,125 @@
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>362600</v>
+        <v>410700</v>
       </c>
       <c r="E8" s="3">
-        <v>325100</v>
+        <v>369500</v>
       </c>
       <c r="F8" s="3">
-        <v>322200</v>
+        <v>331300</v>
       </c>
       <c r="G8" s="3">
-        <v>304900</v>
+        <v>328400</v>
       </c>
       <c r="H8" s="3">
-        <v>289700</v>
+        <v>310700</v>
       </c>
       <c r="I8" s="3">
-        <v>282800</v>
+        <v>295200</v>
       </c>
       <c r="J8" s="3">
+        <v>288200</v>
+      </c>
+      <c r="K8" s="3">
         <v>269900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>319300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>313900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>337400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>305300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>321600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>314500</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -819,8 +826,11 @@
       <c r="P9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +873,11 @@
       <c r="P10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +986,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,52 +1033,58 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-21600</v>
+        <v>-24200</v>
       </c>
       <c r="E15" s="3">
-        <v>-18100</v>
+        <v>-22100</v>
       </c>
       <c r="F15" s="3">
-        <v>-19600</v>
+        <v>-18400</v>
       </c>
       <c r="G15" s="3">
-        <v>-18300</v>
+        <v>-20000</v>
       </c>
       <c r="H15" s="3">
-        <v>-17300</v>
+        <v>-18700</v>
       </c>
       <c r="I15" s="3">
-        <v>-17600</v>
+        <v>-17700</v>
       </c>
       <c r="J15" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="K15" s="3">
         <v>-19000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-17100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-17400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-17900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-15400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>-18500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>-17100</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>144200</v>
+        <v>178500</v>
       </c>
       <c r="E17" s="3">
-        <v>118000</v>
+        <v>147000</v>
       </c>
       <c r="F17" s="3">
-        <v>50400</v>
+        <v>120300</v>
       </c>
       <c r="G17" s="3">
-        <v>99700</v>
+        <v>51300</v>
       </c>
       <c r="H17" s="3">
-        <v>110100</v>
+        <v>101600</v>
       </c>
       <c r="I17" s="3">
-        <v>114800</v>
+        <v>112200</v>
       </c>
       <c r="J17" s="3">
+        <v>117000</v>
+      </c>
+      <c r="K17" s="3">
         <v>155400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>197300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>424400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>175900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>132200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>149400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>139700</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>218400</v>
+        <v>232100</v>
       </c>
       <c r="E18" s="3">
-        <v>207100</v>
+        <v>222600</v>
       </c>
       <c r="F18" s="3">
-        <v>271900</v>
+        <v>211000</v>
       </c>
       <c r="G18" s="3">
-        <v>205200</v>
+        <v>277100</v>
       </c>
       <c r="H18" s="3">
-        <v>179600</v>
+        <v>209100</v>
       </c>
       <c r="I18" s="3">
-        <v>168000</v>
+        <v>183000</v>
       </c>
       <c r="J18" s="3">
+        <v>171200</v>
+      </c>
+      <c r="K18" s="3">
         <v>114500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>122000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-110500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>161500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>173100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>172300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>174800</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,96 +1211,103 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-121300</v>
+        <v>-32200</v>
       </c>
       <c r="E20" s="3">
-        <v>-77300</v>
+        <v>-123600</v>
       </c>
       <c r="F20" s="3">
-        <v>-152600</v>
+        <v>-78700</v>
       </c>
       <c r="G20" s="3">
-        <v>-31800</v>
+        <v>-155500</v>
       </c>
       <c r="H20" s="3">
-        <v>-34200</v>
+        <v>-32400</v>
       </c>
       <c r="I20" s="3">
-        <v>-6400</v>
+        <v>-34800</v>
       </c>
       <c r="J20" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="K20" s="3">
         <v>3700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-26100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-82100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-101800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-36200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-53500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-52600</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>118800</v>
+        <v>224200</v>
       </c>
       <c r="E21" s="3">
-        <v>147900</v>
+        <v>121000</v>
       </c>
       <c r="F21" s="3">
-        <v>138800</v>
+        <v>150700</v>
       </c>
       <c r="G21" s="3">
-        <v>191700</v>
+        <v>141500</v>
       </c>
       <c r="H21" s="3">
-        <v>162800</v>
+        <v>195300</v>
       </c>
       <c r="I21" s="3">
-        <v>179200</v>
+        <v>165900</v>
       </c>
       <c r="J21" s="3">
+        <v>182700</v>
+      </c>
+      <c r="K21" s="3">
         <v>137100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>113000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-175300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>77600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>152300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>137200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>139300</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,96 +1350,105 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>97100</v>
+        <v>200000</v>
       </c>
       <c r="E23" s="3">
-        <v>129800</v>
+        <v>99000</v>
       </c>
       <c r="F23" s="3">
-        <v>119200</v>
+        <v>132300</v>
       </c>
       <c r="G23" s="3">
-        <v>173400</v>
+        <v>121500</v>
       </c>
       <c r="H23" s="3">
-        <v>145400</v>
+        <v>176700</v>
       </c>
       <c r="I23" s="3">
-        <v>161600</v>
+        <v>148200</v>
       </c>
       <c r="J23" s="3">
+        <v>164700</v>
+      </c>
+      <c r="K23" s="3">
         <v>118100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>95900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-192600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>59700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>136800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>118700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>122200</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>31700</v>
+        <v>37200</v>
       </c>
       <c r="E24" s="3">
-        <v>24800</v>
+        <v>32300</v>
       </c>
       <c r="F24" s="3">
-        <v>50400</v>
+        <v>25300</v>
       </c>
       <c r="G24" s="3">
-        <v>29700</v>
+        <v>51300</v>
       </c>
       <c r="H24" s="3">
-        <v>26800</v>
+        <v>30300</v>
       </c>
       <c r="I24" s="3">
-        <v>23900</v>
+        <v>27300</v>
       </c>
       <c r="J24" s="3">
+        <v>24300</v>
+      </c>
+      <c r="K24" s="3">
         <v>19800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>11200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-71000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>20500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>36000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>31200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>30600</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>65500</v>
+        <v>162800</v>
       </c>
       <c r="E26" s="3">
-        <v>105000</v>
+        <v>66700</v>
       </c>
       <c r="F26" s="3">
-        <v>68900</v>
+        <v>107100</v>
       </c>
       <c r="G26" s="3">
-        <v>143700</v>
+        <v>70200</v>
       </c>
       <c r="H26" s="3">
-        <v>118700</v>
+        <v>146400</v>
       </c>
       <c r="I26" s="3">
-        <v>137700</v>
+        <v>120900</v>
       </c>
       <c r="J26" s="3">
+        <v>140400</v>
+      </c>
+      <c r="K26" s="3">
         <v>98300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>84700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-121600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>39200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>100800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>87500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>91600</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>64800</v>
+        <v>162100</v>
       </c>
       <c r="E27" s="3">
-        <v>104400</v>
+        <v>66100</v>
       </c>
       <c r="F27" s="3">
-        <v>68000</v>
+        <v>106400</v>
       </c>
       <c r="G27" s="3">
-        <v>143100</v>
+        <v>69300</v>
       </c>
       <c r="H27" s="3">
-        <v>118100</v>
+        <v>145800</v>
       </c>
       <c r="I27" s="3">
-        <v>137100</v>
+        <v>120400</v>
       </c>
       <c r="J27" s="3">
+        <v>139700</v>
+      </c>
+      <c r="K27" s="3">
         <v>97900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>84400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-120600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>38800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>100200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>87000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>91100</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1773,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>121300</v>
+        <v>32200</v>
       </c>
       <c r="E32" s="3">
-        <v>77300</v>
+        <v>123600</v>
       </c>
       <c r="F32" s="3">
-        <v>152600</v>
+        <v>78700</v>
       </c>
       <c r="G32" s="3">
-        <v>31800</v>
+        <v>155500</v>
       </c>
       <c r="H32" s="3">
-        <v>34200</v>
+        <v>32400</v>
       </c>
       <c r="I32" s="3">
-        <v>6400</v>
+        <v>34800</v>
       </c>
       <c r="J32" s="3">
+        <v>6500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-3700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>26100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>82100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>101800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>36200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>53500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>52600</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>64800</v>
+        <v>162100</v>
       </c>
       <c r="E33" s="3">
-        <v>104400</v>
+        <v>66100</v>
       </c>
       <c r="F33" s="3">
-        <v>68000</v>
+        <v>106400</v>
       </c>
       <c r="G33" s="3">
-        <v>143100</v>
+        <v>69300</v>
       </c>
       <c r="H33" s="3">
-        <v>118100</v>
+        <v>145800</v>
       </c>
       <c r="I33" s="3">
-        <v>137100</v>
+        <v>120400</v>
       </c>
       <c r="J33" s="3">
+        <v>139700</v>
+      </c>
+      <c r="K33" s="3">
         <v>97900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>84400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-120600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>38800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>100200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>87000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>91100</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>64800</v>
+        <v>162100</v>
       </c>
       <c r="E35" s="3">
-        <v>104400</v>
+        <v>66100</v>
       </c>
       <c r="F35" s="3">
-        <v>68000</v>
+        <v>106400</v>
       </c>
       <c r="G35" s="3">
-        <v>143100</v>
+        <v>69300</v>
       </c>
       <c r="H35" s="3">
-        <v>118100</v>
+        <v>145800</v>
       </c>
       <c r="I35" s="3">
-        <v>137100</v>
+        <v>120400</v>
       </c>
       <c r="J35" s="3">
+        <v>139700</v>
+      </c>
+      <c r="K35" s="3">
         <v>97900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>84400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-120600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>38800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>100200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>87000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>91100</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,96 +2053,103 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3148300</v>
+        <v>3345700</v>
       </c>
       <c r="E41" s="3">
-        <v>3461600</v>
+        <v>3208300</v>
       </c>
       <c r="F41" s="3">
-        <v>4276800</v>
+        <v>3527600</v>
       </c>
       <c r="G41" s="3">
-        <v>5120500</v>
+        <v>4358400</v>
       </c>
       <c r="H41" s="3">
-        <v>4905800</v>
+        <v>5218200</v>
       </c>
       <c r="I41" s="3">
-        <v>4878600</v>
+        <v>4999400</v>
       </c>
       <c r="J41" s="3">
+        <v>4971700</v>
+      </c>
+      <c r="K41" s="3">
         <v>4727000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4504200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3810300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2722600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2407900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2668300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2403000</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>6430600</v>
+        <v>6084600</v>
       </c>
       <c r="E42" s="3">
-        <v>5855500</v>
+        <v>6553300</v>
       </c>
       <c r="F42" s="3">
-        <v>5862100</v>
+        <v>5967200</v>
       </c>
       <c r="G42" s="3">
-        <v>5894100</v>
+        <v>5973900</v>
       </c>
       <c r="H42" s="3">
-        <v>5912900</v>
+        <v>6006600</v>
       </c>
       <c r="I42" s="3">
-        <v>6019800</v>
+        <v>6025700</v>
       </c>
       <c r="J42" s="3">
+        <v>6134600</v>
+      </c>
+      <c r="K42" s="3">
         <v>5894900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>5627300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>5242300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>4729400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>4377800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>4497700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>4501200</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2099,8 +2192,11 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2239,11 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2187,8 +2286,11 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2231,8 +2333,11 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,96 +2380,105 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>219700</v>
+        <v>209100</v>
       </c>
       <c r="E48" s="3">
-        <v>210400</v>
+        <v>223900</v>
       </c>
       <c r="F48" s="3">
-        <v>212300</v>
+        <v>214400</v>
       </c>
       <c r="G48" s="3">
-        <v>207100</v>
+        <v>216400</v>
       </c>
       <c r="H48" s="3">
-        <v>205400</v>
+        <v>211000</v>
       </c>
       <c r="I48" s="3">
-        <v>212200</v>
+        <v>209300</v>
       </c>
       <c r="J48" s="3">
+        <v>216300</v>
+      </c>
+      <c r="K48" s="3">
         <v>219900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>232700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>239200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>252900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>232300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>230300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>235600</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>336900</v>
+        <v>426200</v>
       </c>
       <c r="E49" s="3">
-        <v>270000</v>
+        <v>343300</v>
       </c>
       <c r="F49" s="3">
-        <v>272100</v>
+        <v>275200</v>
       </c>
       <c r="G49" s="3">
-        <v>268800</v>
+        <v>277300</v>
       </c>
       <c r="H49" s="3">
-        <v>266700</v>
+        <v>273900</v>
       </c>
       <c r="I49" s="3">
-        <v>268500</v>
+        <v>271800</v>
       </c>
       <c r="J49" s="3">
+        <v>273600</v>
+      </c>
+      <c r="K49" s="3">
         <v>271600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>274100</v>
-      </c>
-      <c r="L49" s="3">
-        <v>273400</v>
       </c>
       <c r="M49" s="3">
         <v>273400</v>
       </c>
       <c r="N49" s="3">
+        <v>273400</v>
+      </c>
+      <c r="O49" s="3">
         <v>239200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>249500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>250200</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2568,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>59600</v>
+        <v>57300</v>
       </c>
       <c r="E52" s="3">
-        <v>53300</v>
+        <v>60700</v>
       </c>
       <c r="F52" s="3">
-        <v>37100</v>
+        <v>54300</v>
       </c>
       <c r="G52" s="3">
-        <v>68100</v>
+        <v>37800</v>
       </c>
       <c r="H52" s="3">
-        <v>66500</v>
+        <v>69400</v>
       </c>
       <c r="I52" s="3">
-        <v>73000</v>
+        <v>67800</v>
       </c>
       <c r="J52" s="3">
+        <v>74400</v>
+      </c>
+      <c r="K52" s="3">
         <v>92100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>63200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>78100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>23000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>11000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>13800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2662,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>22322900</v>
+        <v>23546500</v>
       </c>
       <c r="E54" s="3">
-        <v>22239900</v>
+        <v>22748900</v>
       </c>
       <c r="F54" s="3">
-        <v>23430300</v>
+        <v>22664300</v>
       </c>
       <c r="G54" s="3">
-        <v>24063900</v>
+        <v>23877400</v>
       </c>
       <c r="H54" s="3">
-        <v>23582900</v>
+        <v>24523100</v>
       </c>
       <c r="I54" s="3">
-        <v>23453300</v>
+        <v>24032900</v>
       </c>
       <c r="J54" s="3">
+        <v>23900800</v>
+      </c>
+      <c r="K54" s="3">
         <v>22982800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>22875900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>21750200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>19413500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>17479800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>18688800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>17581000</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,52 +2749,56 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>10700</v>
+        <v>14200</v>
       </c>
       <c r="E57" s="3">
-        <v>7600</v>
+        <v>10900</v>
       </c>
       <c r="F57" s="3">
-        <v>11800</v>
+        <v>7800</v>
       </c>
       <c r="G57" s="3">
-        <v>9400</v>
+        <v>12000</v>
       </c>
       <c r="H57" s="3">
-        <v>9400</v>
+        <v>9600</v>
       </c>
       <c r="I57" s="3">
-        <v>9400</v>
+        <v>9600</v>
       </c>
       <c r="J57" s="3">
+        <v>9600</v>
+      </c>
+      <c r="K57" s="3">
         <v>11100</v>
-      </c>
-      <c r="K57" s="3">
-        <v>9000</v>
       </c>
       <c r="L57" s="3">
         <v>9000</v>
       </c>
       <c r="M57" s="3">
+        <v>9000</v>
+      </c>
+      <c r="N57" s="3">
         <v>13300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>11000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>14500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,8 +2841,11 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2751,8 +2888,11 @@
       <c r="P59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2795,96 +2935,105 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2059100</v>
+        <v>2174700</v>
       </c>
       <c r="E61" s="3">
-        <v>2037300</v>
+        <v>2098400</v>
       </c>
       <c r="F61" s="3">
-        <v>2185300</v>
+        <v>2076200</v>
       </c>
       <c r="G61" s="3">
-        <v>2250500</v>
+        <v>2227000</v>
       </c>
       <c r="H61" s="3">
-        <v>2149100</v>
+        <v>2293500</v>
       </c>
       <c r="I61" s="3">
-        <v>2089100</v>
+        <v>2190100</v>
       </c>
       <c r="J61" s="3">
+        <v>2128900</v>
+      </c>
+      <c r="K61" s="3">
         <v>2026100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2046900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1993500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1885200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1683000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2182600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1729000</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>23300</v>
+      </c>
+      <c r="E62" s="3">
         <v>600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>300</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
       <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
         <v>400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>100</v>
       </c>
-      <c r="J62" s="3">
-        <v>0</v>
-      </c>
       <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
         <v>400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>200</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
-      </c>
       <c r="O62" s="3">
         <v>0</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3170,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>19987600</v>
+        <v>21034700</v>
       </c>
       <c r="E66" s="3">
-        <v>19902700</v>
+        <v>20369000</v>
       </c>
       <c r="F66" s="3">
-        <v>20954800</v>
+        <v>20282400</v>
       </c>
       <c r="G66" s="3">
-        <v>21524400</v>
+        <v>21354600</v>
       </c>
       <c r="H66" s="3">
-        <v>21167900</v>
+        <v>21935100</v>
       </c>
       <c r="I66" s="3">
-        <v>21141700</v>
+        <v>21571800</v>
       </c>
       <c r="J66" s="3">
+        <v>21545100</v>
+      </c>
+      <c r="K66" s="3">
         <v>20662500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>20670600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>19677000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>17115800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>15316400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>16480800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>15643900</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3424,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2088100</v>
+        <v>2290500</v>
       </c>
       <c r="E72" s="3">
-        <v>2022500</v>
+        <v>2128000</v>
       </c>
       <c r="F72" s="3">
-        <v>2111100</v>
+        <v>2061100</v>
       </c>
       <c r="G72" s="3">
-        <v>2050000</v>
+        <v>2151400</v>
       </c>
       <c r="H72" s="3">
-        <v>1883800</v>
+        <v>2089100</v>
       </c>
       <c r="I72" s="3">
-        <v>1763600</v>
+        <v>1919800</v>
       </c>
       <c r="J72" s="3">
+        <v>1797300</v>
+      </c>
+      <c r="K72" s="3">
         <v>1693900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1627300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1541100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1878600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1672100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1687600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1560800</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3612,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2335300</v>
+        <v>2511800</v>
       </c>
       <c r="E76" s="3">
-        <v>2337300</v>
+        <v>2379900</v>
       </c>
       <c r="F76" s="3">
-        <v>2475500</v>
+        <v>2381900</v>
       </c>
       <c r="G76" s="3">
-        <v>2539600</v>
+        <v>2522800</v>
       </c>
       <c r="H76" s="3">
-        <v>2414900</v>
+        <v>2588000</v>
       </c>
       <c r="I76" s="3">
-        <v>2311600</v>
+        <v>2461000</v>
       </c>
       <c r="J76" s="3">
+        <v>2355800</v>
+      </c>
+      <c r="K76" s="3">
         <v>2320300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2205300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2073200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2297800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2163400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2208000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1937100</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>64800</v>
+        <v>162100</v>
       </c>
       <c r="E81" s="3">
-        <v>104400</v>
+        <v>66100</v>
       </c>
       <c r="F81" s="3">
-        <v>68000</v>
+        <v>106400</v>
       </c>
       <c r="G81" s="3">
-        <v>143100</v>
+        <v>69300</v>
       </c>
       <c r="H81" s="3">
-        <v>118100</v>
+        <v>145800</v>
       </c>
       <c r="I81" s="3">
-        <v>137100</v>
+        <v>120400</v>
       </c>
       <c r="J81" s="3">
+        <v>139700</v>
+      </c>
+      <c r="K81" s="3">
         <v>97900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>84400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-120600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>38800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>100200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>87000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>91100</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +3826,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>21600</v>
+        <v>24200</v>
       </c>
       <c r="E83" s="3">
-        <v>18100</v>
+        <v>22100</v>
       </c>
       <c r="F83" s="3">
-        <v>19600</v>
+        <v>18400</v>
       </c>
       <c r="G83" s="3">
-        <v>18300</v>
+        <v>20000</v>
       </c>
       <c r="H83" s="3">
-        <v>17300</v>
+        <v>18700</v>
       </c>
       <c r="I83" s="3">
-        <v>17600</v>
+        <v>17700</v>
       </c>
       <c r="J83" s="3">
+        <v>18000</v>
+      </c>
+      <c r="K83" s="3">
         <v>19000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>17100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>17400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>17900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>15400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>18500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>17100</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>45600</v>
+        <v>643400</v>
       </c>
       <c r="E89" s="3">
-        <v>-484200</v>
+        <v>46400</v>
       </c>
       <c r="F89" s="3">
-        <v>-585600</v>
+        <v>-493500</v>
       </c>
       <c r="G89" s="3">
-        <v>356100</v>
+        <v>-596800</v>
       </c>
       <c r="H89" s="3">
-        <v>43900</v>
+        <v>362900</v>
       </c>
       <c r="I89" s="3">
-        <v>536200</v>
+        <v>44700</v>
       </c>
       <c r="J89" s="3">
+        <v>546400</v>
+      </c>
+      <c r="K89" s="3">
         <v>617900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>836400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1665500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>328400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>335600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-347500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>223600</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,25 +4174,26 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2200</v>
+        <v>-14700</v>
       </c>
       <c r="E91" s="3">
-        <v>-6900</v>
+        <v>-2300</v>
       </c>
       <c r="F91" s="3">
-        <v>-13300</v>
+        <v>-7100</v>
       </c>
       <c r="G91" s="3">
-        <v>-4500</v>
+        <v>-13500</v>
       </c>
       <c r="H91" s="3">
-        <v>-2500</v>
+        <v>-4600</v>
       </c>
       <c r="I91" s="3">
         <v>-2500</v>
@@ -3981,25 +4202,28 @@
         <v>-2500</v>
       </c>
       <c r="K91" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="L91" s="3">
         <v>-2600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-5200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-6800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3200</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4313,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-113600</v>
+        <v>-627400</v>
       </c>
       <c r="E94" s="3">
-        <v>-276200</v>
+        <v>-115800</v>
       </c>
       <c r="F94" s="3">
-        <v>-113500</v>
+        <v>-281400</v>
       </c>
       <c r="G94" s="3">
-        <v>-179400</v>
+        <v>-115600</v>
       </c>
       <c r="H94" s="3">
-        <v>71200</v>
+        <v>-182900</v>
       </c>
       <c r="I94" s="3">
-        <v>-384300</v>
+        <v>72500</v>
       </c>
       <c r="J94" s="3">
+        <v>-391600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-90900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-340700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-335900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-312100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-193900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>52000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>101200</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4160,10 +4394,10 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-78600</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-80100</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4567,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-233800</v>
+        <v>120300</v>
       </c>
       <c r="E100" s="3">
-        <v>-62900</v>
+        <v>-238300</v>
       </c>
       <c r="F100" s="3">
-        <v>-116000</v>
+        <v>-64100</v>
       </c>
       <c r="G100" s="3">
-        <v>-4000</v>
+        <v>-118200</v>
       </c>
       <c r="H100" s="3">
-        <v>-95500</v>
+        <v>-4100</v>
       </c>
       <c r="I100" s="3">
-        <v>-8900</v>
+        <v>-97300</v>
       </c>
       <c r="J100" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-197500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>208900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-198200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>44600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-229500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>566800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-244300</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-12200</v>
+        <v>-600</v>
       </c>
       <c r="E101" s="3">
-        <v>8000</v>
+        <v>-12400</v>
       </c>
       <c r="F101" s="3">
-        <v>-28800</v>
+        <v>8200</v>
       </c>
       <c r="G101" s="3">
-        <v>41800</v>
+        <v>-29400</v>
       </c>
       <c r="H101" s="3">
-        <v>7700</v>
+        <v>42600</v>
       </c>
       <c r="I101" s="3">
-        <v>8600</v>
+        <v>7900</v>
       </c>
       <c r="J101" s="3">
+        <v>8800</v>
+      </c>
+      <c r="K101" s="3">
         <v>-13000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-10400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-2900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>5700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-5700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-314100</v>
+        <v>135700</v>
       </c>
       <c r="E102" s="3">
-        <v>-815300</v>
+        <v>-320100</v>
       </c>
       <c r="F102" s="3">
-        <v>-843900</v>
+        <v>-830800</v>
       </c>
       <c r="G102" s="3">
-        <v>214500</v>
+        <v>-860000</v>
       </c>
       <c r="H102" s="3">
-        <v>27300</v>
+        <v>218600</v>
       </c>
       <c r="I102" s="3">
-        <v>151600</v>
+        <v>27800</v>
       </c>
       <c r="J102" s="3">
+        <v>154500</v>
+      </c>
+      <c r="K102" s="3">
         <v>316500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>694200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1131500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>58000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-82200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>265500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>96700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IFS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IFS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
   <si>
     <t>IFS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,125 +665,138 @@
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>410700</v>
+        <v>450300</v>
       </c>
       <c r="E8" s="3">
-        <v>369500</v>
+        <v>457400</v>
       </c>
       <c r="F8" s="3">
-        <v>331300</v>
+        <v>420200</v>
       </c>
       <c r="G8" s="3">
-        <v>328400</v>
+        <v>378100</v>
       </c>
       <c r="H8" s="3">
-        <v>310700</v>
+        <v>339000</v>
       </c>
       <c r="I8" s="3">
+        <v>336000</v>
+      </c>
+      <c r="J8" s="3">
+        <v>317900</v>
+      </c>
+      <c r="K8" s="3">
         <v>295200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>288200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>269900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>319300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>313900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>337400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>305300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>321600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>314500</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -829,8 +842,14 @@
       <c r="Q9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -876,8 +895,14 @@
       <c r="Q10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +920,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -942,8 +969,14 @@
       <c r="Q12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1022,14 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1036,55 +1075,67 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-24200</v>
+        <v>-24700</v>
       </c>
       <c r="E15" s="3">
-        <v>-22100</v>
+        <v>-25100</v>
       </c>
       <c r="F15" s="3">
-        <v>-18400</v>
+        <v>-24800</v>
       </c>
       <c r="G15" s="3">
-        <v>-20000</v>
+        <v>-22600</v>
       </c>
       <c r="H15" s="3">
-        <v>-18700</v>
+        <v>-18900</v>
       </c>
       <c r="I15" s="3">
+        <v>-20400</v>
+      </c>
+      <c r="J15" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="K15" s="3">
         <v>-17700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>-18000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>-19000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>-17100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>-17400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>-17900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>-15400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>-18500</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>-17100</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1150,116 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>178500</v>
+        <v>257400</v>
       </c>
       <c r="E17" s="3">
-        <v>147000</v>
+        <v>221000</v>
       </c>
       <c r="F17" s="3">
-        <v>120300</v>
+        <v>182700</v>
       </c>
       <c r="G17" s="3">
-        <v>51300</v>
+        <v>150400</v>
       </c>
       <c r="H17" s="3">
-        <v>101600</v>
+        <v>123000</v>
       </c>
       <c r="I17" s="3">
+        <v>52500</v>
+      </c>
+      <c r="J17" s="3">
+        <v>103900</v>
+      </c>
+      <c r="K17" s="3">
         <v>112200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>117000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>155400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>197300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>424400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>175900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>132200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>149400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>139700</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>232100</v>
+        <v>193000</v>
       </c>
       <c r="E18" s="3">
-        <v>222600</v>
+        <v>236500</v>
       </c>
       <c r="F18" s="3">
-        <v>211000</v>
+        <v>237500</v>
       </c>
       <c r="G18" s="3">
-        <v>277100</v>
+        <v>227700</v>
       </c>
       <c r="H18" s="3">
-        <v>209100</v>
+        <v>216000</v>
       </c>
       <c r="I18" s="3">
+        <v>283500</v>
+      </c>
+      <c r="J18" s="3">
+        <v>214000</v>
+      </c>
+      <c r="K18" s="3">
         <v>183000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>171200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>114500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>122000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-110500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>161500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>173100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>172300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>174800</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,102 +1277,116 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-32200</v>
+        <v>-92100</v>
       </c>
       <c r="E20" s="3">
-        <v>-123600</v>
+        <v>-98400</v>
       </c>
       <c r="F20" s="3">
-        <v>-78700</v>
+        <v>-32900</v>
       </c>
       <c r="G20" s="3">
-        <v>-155500</v>
+        <v>-126500</v>
       </c>
       <c r="H20" s="3">
-        <v>-32400</v>
+        <v>-60400</v>
       </c>
       <c r="I20" s="3">
+        <v>-159200</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-33200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-34800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-6500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>3700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-26100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-82100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-101800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-36200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-53500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-52600</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>224200</v>
+        <v>125600</v>
       </c>
       <c r="E21" s="3">
-        <v>121000</v>
+        <v>163200</v>
       </c>
       <c r="F21" s="3">
-        <v>150700</v>
+        <v>229400</v>
       </c>
       <c r="G21" s="3">
-        <v>141500</v>
+        <v>123900</v>
       </c>
       <c r="H21" s="3">
-        <v>195300</v>
+        <v>174500</v>
       </c>
       <c r="I21" s="3">
+        <v>144800</v>
+      </c>
+      <c r="J21" s="3">
+        <v>199900</v>
+      </c>
+      <c r="K21" s="3">
         <v>165900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>182700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>137100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>113000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-175300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>77600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>152300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>137200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>139300</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,102 +1432,120 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>200000</v>
+        <v>100900</v>
       </c>
       <c r="E23" s="3">
-        <v>99000</v>
+        <v>138100</v>
       </c>
       <c r="F23" s="3">
-        <v>132300</v>
+        <v>204600</v>
       </c>
       <c r="G23" s="3">
-        <v>121500</v>
+        <v>101300</v>
       </c>
       <c r="H23" s="3">
-        <v>176700</v>
+        <v>155600</v>
       </c>
       <c r="I23" s="3">
+        <v>124300</v>
+      </c>
+      <c r="J23" s="3">
+        <v>180800</v>
+      </c>
+      <c r="K23" s="3">
         <v>148200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>164700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>118100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>95900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-192600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>59700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>136800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>118700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>122200</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>37200</v>
+        <v>28400</v>
       </c>
       <c r="E24" s="3">
-        <v>32300</v>
+        <v>28700</v>
       </c>
       <c r="F24" s="3">
-        <v>25300</v>
+        <v>38000</v>
       </c>
       <c r="G24" s="3">
-        <v>51300</v>
+        <v>33000</v>
       </c>
       <c r="H24" s="3">
-        <v>30300</v>
+        <v>25800</v>
       </c>
       <c r="I24" s="3">
+        <v>52500</v>
+      </c>
+      <c r="J24" s="3">
+        <v>31000</v>
+      </c>
+      <c r="K24" s="3">
         <v>27300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>24300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>19800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>11200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-71000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>20500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>36000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>31200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>30600</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1591,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>162800</v>
+        <v>72500</v>
       </c>
       <c r="E26" s="3">
-        <v>66700</v>
+        <v>109400</v>
       </c>
       <c r="F26" s="3">
-        <v>107100</v>
+        <v>166600</v>
       </c>
       <c r="G26" s="3">
-        <v>70200</v>
+        <v>68300</v>
       </c>
       <c r="H26" s="3">
-        <v>146400</v>
+        <v>129800</v>
       </c>
       <c r="I26" s="3">
+        <v>71800</v>
+      </c>
+      <c r="J26" s="3">
+        <v>149800</v>
+      </c>
+      <c r="K26" s="3">
         <v>120900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>140400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>98300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>84700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-121600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>39200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>100800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>87500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>91600</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>162100</v>
+        <v>72000</v>
       </c>
       <c r="E27" s="3">
-        <v>66100</v>
+        <v>108700</v>
       </c>
       <c r="F27" s="3">
-        <v>106400</v>
+        <v>165900</v>
       </c>
       <c r="G27" s="3">
-        <v>69300</v>
+        <v>67600</v>
       </c>
       <c r="H27" s="3">
-        <v>145800</v>
+        <v>129100</v>
       </c>
       <c r="I27" s="3">
+        <v>70900</v>
+      </c>
+      <c r="J27" s="3">
+        <v>149200</v>
+      </c>
+      <c r="K27" s="3">
         <v>120400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>139700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>97900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>84400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-120600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>38800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>100200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>87000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>91100</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1803,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1909,120 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>32200</v>
+        <v>92100</v>
       </c>
       <c r="E32" s="3">
-        <v>123600</v>
+        <v>98400</v>
       </c>
       <c r="F32" s="3">
-        <v>78700</v>
+        <v>32900</v>
       </c>
       <c r="G32" s="3">
-        <v>155500</v>
+        <v>126500</v>
       </c>
       <c r="H32" s="3">
-        <v>32400</v>
+        <v>60400</v>
       </c>
       <c r="I32" s="3">
+        <v>159200</v>
+      </c>
+      <c r="J32" s="3">
+        <v>33200</v>
+      </c>
+      <c r="K32" s="3">
         <v>34800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>6500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-3700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>26100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>82100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>101800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>36200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>53500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>52600</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>162100</v>
+        <v>72000</v>
       </c>
       <c r="E33" s="3">
-        <v>66100</v>
+        <v>108700</v>
       </c>
       <c r="F33" s="3">
-        <v>106400</v>
+        <v>165900</v>
       </c>
       <c r="G33" s="3">
-        <v>69300</v>
+        <v>67600</v>
       </c>
       <c r="H33" s="3">
-        <v>145800</v>
+        <v>129100</v>
       </c>
       <c r="I33" s="3">
+        <v>70900</v>
+      </c>
+      <c r="J33" s="3">
+        <v>149200</v>
+      </c>
+      <c r="K33" s="3">
         <v>120400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>139700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>97900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>84400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-120600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>38800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>100200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>87000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>91100</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +2068,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>162100</v>
+        <v>72000</v>
       </c>
       <c r="E35" s="3">
-        <v>66100</v>
+        <v>108700</v>
       </c>
       <c r="F35" s="3">
-        <v>106400</v>
+        <v>165900</v>
       </c>
       <c r="G35" s="3">
-        <v>69300</v>
+        <v>67600</v>
       </c>
       <c r="H35" s="3">
-        <v>145800</v>
+        <v>129100</v>
       </c>
       <c r="I35" s="3">
+        <v>70900</v>
+      </c>
+      <c r="J35" s="3">
+        <v>149200</v>
+      </c>
+      <c r="K35" s="3">
         <v>120400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>139700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>97900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>84400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-120600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>38800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>100200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>87000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>91100</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,102 +2225,116 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3345700</v>
+        <v>3246100</v>
       </c>
       <c r="E41" s="3">
-        <v>3208300</v>
+        <v>3456400</v>
       </c>
       <c r="F41" s="3">
-        <v>3527600</v>
+        <v>3423600</v>
       </c>
       <c r="G41" s="3">
-        <v>4358400</v>
+        <v>3283000</v>
       </c>
       <c r="H41" s="3">
-        <v>5218200</v>
+        <v>3609800</v>
       </c>
       <c r="I41" s="3">
+        <v>4459900</v>
+      </c>
+      <c r="J41" s="3">
+        <v>5339700</v>
+      </c>
+      <c r="K41" s="3">
         <v>4999400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>4971700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>4727000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>4504200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>3810300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>2722600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>2407900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>2668300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>2403000</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>6084600</v>
+        <v>377300</v>
       </c>
       <c r="E42" s="3">
-        <v>6553300</v>
+        <v>430200</v>
       </c>
       <c r="F42" s="3">
-        <v>5967200</v>
+        <v>6226200</v>
       </c>
       <c r="G42" s="3">
-        <v>5973900</v>
+        <v>6705900</v>
       </c>
       <c r="H42" s="3">
-        <v>6006600</v>
+        <v>6106200</v>
       </c>
       <c r="I42" s="3">
+        <v>6113000</v>
+      </c>
+      <c r="J42" s="3">
+        <v>6146400</v>
+      </c>
+      <c r="K42" s="3">
         <v>6025700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>6134600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>5894900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>5627300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>5242300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>4729400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>4377800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>4497700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>4501200</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2195,8 +2380,14 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,8 +2433,14 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2289,8 +2486,14 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2336,8 +2539,14 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,102 +2592,120 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>209100</v>
+        <v>214700</v>
       </c>
       <c r="E48" s="3">
-        <v>223900</v>
+        <v>215000</v>
       </c>
       <c r="F48" s="3">
-        <v>214400</v>
+        <v>213900</v>
       </c>
       <c r="G48" s="3">
-        <v>216400</v>
+        <v>229200</v>
       </c>
       <c r="H48" s="3">
-        <v>211000</v>
+        <v>219400</v>
       </c>
       <c r="I48" s="3">
+        <v>221400</v>
+      </c>
+      <c r="J48" s="3">
+        <v>215900</v>
+      </c>
+      <c r="K48" s="3">
         <v>209300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>216300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>219900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>232700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>239200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>252900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>232300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>230300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>235600</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>426200</v>
+        <v>442000</v>
       </c>
       <c r="E49" s="3">
-        <v>343300</v>
+        <v>443600</v>
       </c>
       <c r="F49" s="3">
-        <v>275200</v>
+        <v>436200</v>
       </c>
       <c r="G49" s="3">
-        <v>277300</v>
+        <v>351300</v>
       </c>
       <c r="H49" s="3">
-        <v>273900</v>
+        <v>281600</v>
       </c>
       <c r="I49" s="3">
+        <v>283800</v>
+      </c>
+      <c r="J49" s="3">
+        <v>280300</v>
+      </c>
+      <c r="K49" s="3">
         <v>271800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>273600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>271600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>274100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>273400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>273400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>239200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>249500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>250200</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,55 +2804,67 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>57300</v>
+        <v>49600</v>
       </c>
       <c r="E52" s="3">
-        <v>60700</v>
+        <v>45000</v>
       </c>
       <c r="F52" s="3">
-        <v>54300</v>
+        <v>58600</v>
       </c>
       <c r="G52" s="3">
-        <v>37800</v>
+        <v>62100</v>
       </c>
       <c r="H52" s="3">
-        <v>69400</v>
+        <v>55500</v>
       </c>
       <c r="I52" s="3">
+        <v>38700</v>
+      </c>
+      <c r="J52" s="3">
+        <v>71000</v>
+      </c>
+      <c r="K52" s="3">
         <v>67800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>74400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>92100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>63200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>78100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>23000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>11000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>13800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2910,67 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>23546500</v>
+        <v>23907000</v>
       </c>
       <c r="E54" s="3">
-        <v>22748900</v>
+        <v>23760900</v>
       </c>
       <c r="F54" s="3">
-        <v>22664300</v>
+        <v>24094700</v>
       </c>
       <c r="G54" s="3">
-        <v>23877400</v>
+        <v>23278500</v>
       </c>
       <c r="H54" s="3">
-        <v>24523100</v>
+        <v>23192000</v>
       </c>
       <c r="I54" s="3">
+        <v>24433300</v>
+      </c>
+      <c r="J54" s="3">
+        <v>25094000</v>
+      </c>
+      <c r="K54" s="3">
         <v>24032900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>23900800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>22982800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>22875900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>21750200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>19413500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>17479800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>18688800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>17581000</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,55 +3009,63 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>14200</v>
+        <v>20500</v>
       </c>
       <c r="E57" s="3">
-        <v>10900</v>
+        <v>16000</v>
       </c>
       <c r="F57" s="3">
-        <v>7800</v>
+        <v>14500</v>
       </c>
       <c r="G57" s="3">
-        <v>12000</v>
+        <v>11100</v>
       </c>
       <c r="H57" s="3">
+        <v>8000</v>
+      </c>
+      <c r="I57" s="3">
+        <v>12300</v>
+      </c>
+      <c r="J57" s="3">
+        <v>9900</v>
+      </c>
+      <c r="K57" s="3">
         <v>9600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="L57" s="3">
         <v>9600</v>
       </c>
-      <c r="J57" s="3">
-        <v>9600</v>
-      </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>11100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>9000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>9000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>13300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>11000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>14500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2844,8 +3111,14 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2891,8 +3164,14 @@
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2938,102 +3217,120 @@
       <c r="Q60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2174700</v>
+        <v>1575900</v>
       </c>
       <c r="E61" s="3">
-        <v>2098400</v>
+        <v>2147500</v>
       </c>
       <c r="F61" s="3">
-        <v>2076200</v>
+        <v>2225400</v>
       </c>
       <c r="G61" s="3">
-        <v>2227000</v>
+        <v>2147300</v>
       </c>
       <c r="H61" s="3">
-        <v>2293500</v>
+        <v>2124600</v>
       </c>
       <c r="I61" s="3">
+        <v>2278800</v>
+      </c>
+      <c r="J61" s="3">
+        <v>2346900</v>
+      </c>
+      <c r="K61" s="3">
         <v>2190100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>2128900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>2026100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>2046900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1993500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>1885200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>1683000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>2182600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>1729000</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>23300</v>
+        <v>22300</v>
       </c>
       <c r="E62" s="3">
+        <v>22200</v>
+      </c>
+      <c r="F62" s="3">
+        <v>23900</v>
+      </c>
+      <c r="G62" s="3">
         <v>600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>300</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
         <v>400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>100</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
         <v>400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>200</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
-      <c r="P62" s="3">
-        <v>0</v>
-      </c>
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3482,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>21034700</v>
+        <v>21439400</v>
       </c>
       <c r="E66" s="3">
-        <v>20369000</v>
+        <v>21221700</v>
       </c>
       <c r="F66" s="3">
-        <v>20282400</v>
+        <v>21524400</v>
       </c>
       <c r="G66" s="3">
-        <v>21354600</v>
+        <v>20843200</v>
       </c>
       <c r="H66" s="3">
-        <v>21935100</v>
+        <v>20754600</v>
       </c>
       <c r="I66" s="3">
+        <v>21851800</v>
+      </c>
+      <c r="J66" s="3">
+        <v>22445800</v>
+      </c>
+      <c r="K66" s="3">
         <v>21571800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>21545100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>20662500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>20670600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>19677000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>17115800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>15316400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>16480800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>15643900</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3768,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2290500</v>
+        <v>2196000</v>
       </c>
       <c r="E72" s="3">
-        <v>2128000</v>
+        <v>2264100</v>
       </c>
       <c r="F72" s="3">
-        <v>2061100</v>
+        <v>2343800</v>
       </c>
       <c r="G72" s="3">
-        <v>2151400</v>
+        <v>2177500</v>
       </c>
       <c r="H72" s="3">
-        <v>2089100</v>
+        <v>2109100</v>
       </c>
       <c r="I72" s="3">
+        <v>2201500</v>
+      </c>
+      <c r="J72" s="3">
+        <v>2137700</v>
+      </c>
+      <c r="K72" s="3">
         <v>1919800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>1797300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>1693900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>1627300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>1541100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>1878600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>1672100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>1687600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>1560800</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3980,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2511800</v>
+        <v>2467600</v>
       </c>
       <c r="E76" s="3">
-        <v>2379900</v>
+        <v>2539200</v>
       </c>
       <c r="F76" s="3">
-        <v>2381900</v>
+        <v>2570200</v>
       </c>
       <c r="G76" s="3">
-        <v>2522800</v>
+        <v>2435300</v>
       </c>
       <c r="H76" s="3">
-        <v>2588000</v>
+        <v>2437300</v>
       </c>
       <c r="I76" s="3">
+        <v>2581500</v>
+      </c>
+      <c r="J76" s="3">
+        <v>2648300</v>
+      </c>
+      <c r="K76" s="3">
         <v>2461000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>2355800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>2320300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>2205300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>2073200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>2297800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>2163400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>2208000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>1937100</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +4086,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>162100</v>
+        <v>72000</v>
       </c>
       <c r="E81" s="3">
-        <v>66100</v>
+        <v>108700</v>
       </c>
       <c r="F81" s="3">
-        <v>106400</v>
+        <v>165900</v>
       </c>
       <c r="G81" s="3">
-        <v>69300</v>
+        <v>67600</v>
       </c>
       <c r="H81" s="3">
-        <v>145800</v>
+        <v>129100</v>
       </c>
       <c r="I81" s="3">
+        <v>70900</v>
+      </c>
+      <c r="J81" s="3">
+        <v>149200</v>
+      </c>
+      <c r="K81" s="3">
         <v>120400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>139700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>97900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>84400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-120600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>38800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>100200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>87000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>91100</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,55 +4222,63 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>24200</v>
+        <v>24700</v>
       </c>
       <c r="E83" s="3">
-        <v>22100</v>
+        <v>25100</v>
       </c>
       <c r="F83" s="3">
-        <v>18400</v>
+        <v>24800</v>
       </c>
       <c r="G83" s="3">
-        <v>20000</v>
+        <v>22600</v>
       </c>
       <c r="H83" s="3">
-        <v>18700</v>
+        <v>18900</v>
       </c>
       <c r="I83" s="3">
+        <v>20400</v>
+      </c>
+      <c r="J83" s="3">
+        <v>19100</v>
+      </c>
+      <c r="K83" s="3">
         <v>17700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>18000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>19000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>17100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>17400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>17900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>15400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>18500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>17100</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4536,67 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>643400</v>
+        <v>716300</v>
       </c>
       <c r="E89" s="3">
-        <v>46400</v>
+        <v>-475800</v>
       </c>
       <c r="F89" s="3">
-        <v>-493500</v>
+        <v>658300</v>
       </c>
       <c r="G89" s="3">
-        <v>-596800</v>
+        <v>47500</v>
       </c>
       <c r="H89" s="3">
-        <v>362900</v>
+        <v>-504900</v>
       </c>
       <c r="I89" s="3">
+        <v>-610700</v>
+      </c>
+      <c r="J89" s="3">
+        <v>371400</v>
+      </c>
+      <c r="K89" s="3">
         <v>44700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>546400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>617900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>836400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>1665500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>328400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>335600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-347500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>223600</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,55 +4614,63 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-14700</v>
+        <v>-96700</v>
       </c>
       <c r="E91" s="3">
-        <v>-2300</v>
+        <v>-141500</v>
       </c>
       <c r="F91" s="3">
-        <v>-7100</v>
+        <v>-115700</v>
       </c>
       <c r="G91" s="3">
-        <v>-13500</v>
+        <v>-43800</v>
       </c>
       <c r="H91" s="3">
-        <v>-4600</v>
+        <v>-61300</v>
       </c>
       <c r="I91" s="3">
-        <v>-2500</v>
+        <v>-117000</v>
       </c>
       <c r="J91" s="3">
-        <v>-2500</v>
+        <v>-65500</v>
       </c>
       <c r="K91" s="3">
         <v>-2500</v>
       </c>
       <c r="L91" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="N91" s="3">
         <v>-2600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-3600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-5200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-6800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-3200</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4769,67 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-627400</v>
+        <v>-502100</v>
       </c>
       <c r="E94" s="3">
-        <v>-115800</v>
+        <v>669900</v>
       </c>
       <c r="F94" s="3">
-        <v>-281400</v>
+        <v>-642000</v>
       </c>
       <c r="G94" s="3">
-        <v>-115600</v>
+        <v>-118400</v>
       </c>
       <c r="H94" s="3">
-        <v>-182900</v>
+        <v>-288000</v>
       </c>
       <c r="I94" s="3">
+        <v>-118300</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-187100</v>
+      </c>
+      <c r="K94" s="3">
         <v>72500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-391600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-90900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-340700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-335900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-312100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-193900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>52000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>101200</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4397,13 +4864,13 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-80100</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-82000</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -4429,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,145 +5055,169 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>120300</v>
+        <v>-426000</v>
       </c>
       <c r="E100" s="3">
-        <v>-238300</v>
+        <v>-160200</v>
       </c>
       <c r="F100" s="3">
-        <v>-64100</v>
+        <v>123100</v>
       </c>
       <c r="G100" s="3">
-        <v>-118200</v>
+        <v>-243800</v>
       </c>
       <c r="H100" s="3">
-        <v>-4100</v>
+        <v>-65600</v>
       </c>
       <c r="I100" s="3">
+        <v>-120900</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-97300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-9100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-197500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>208900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-198200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>44600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-229500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>566800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-244300</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>400</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F101" s="3">
         <v>-600</v>
       </c>
-      <c r="E101" s="3">
-        <v>-12400</v>
-      </c>
-      <c r="F101" s="3">
-        <v>8200</v>
-      </c>
       <c r="G101" s="3">
-        <v>-29400</v>
+        <v>-12700</v>
       </c>
       <c r="H101" s="3">
-        <v>42600</v>
+        <v>8400</v>
       </c>
       <c r="I101" s="3">
+        <v>-30000</v>
+      </c>
+      <c r="J101" s="3">
+        <v>43600</v>
+      </c>
+      <c r="K101" s="3">
         <v>7900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>8800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-13000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-10400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-2900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>5700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>135700</v>
+        <v>-211500</v>
       </c>
       <c r="E102" s="3">
-        <v>-320100</v>
+        <v>31600</v>
       </c>
       <c r="F102" s="3">
-        <v>-830800</v>
+        <v>138800</v>
       </c>
       <c r="G102" s="3">
-        <v>-860000</v>
+        <v>-327500</v>
       </c>
       <c r="H102" s="3">
-        <v>218600</v>
+        <v>-850200</v>
       </c>
       <c r="I102" s="3">
+        <v>-880000</v>
+      </c>
+      <c r="J102" s="3">
+        <v>223700</v>
+      </c>
+      <c r="K102" s="3">
         <v>27800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>154500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>316500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>694200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>1131500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>58000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-82200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>265500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>96700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IFS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IFS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
   <si>
     <t>IFS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,138 +665,145 @@
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>450300</v>
+        <v>492000</v>
       </c>
       <c r="E8" s="3">
-        <v>457400</v>
+        <v>451100</v>
       </c>
       <c r="F8" s="3">
-        <v>420200</v>
+        <v>458200</v>
       </c>
       <c r="G8" s="3">
-        <v>378100</v>
+        <v>420900</v>
       </c>
       <c r="H8" s="3">
-        <v>339000</v>
+        <v>378700</v>
       </c>
       <c r="I8" s="3">
-        <v>336000</v>
+        <v>339600</v>
       </c>
       <c r="J8" s="3">
+        <v>336600</v>
+      </c>
+      <c r="K8" s="3">
         <v>317900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>295200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>288200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>269900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>319300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>313900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>337400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>305300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>321600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>314500</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -848,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,61 +1101,67 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>-25200</v>
+      </c>
+      <c r="E15" s="3">
         <v>-24700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>-25100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>-24800</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>-22600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>-18900</v>
       </c>
-      <c r="I15" s="3">
-        <v>-20400</v>
-      </c>
       <c r="J15" s="3">
+        <v>-20500</v>
+      </c>
+      <c r="K15" s="3">
         <v>-19100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-17700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-18000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-19000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-17100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>-17400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>-17900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>-15400</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>-18500</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>-17100</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>257400</v>
+        <v>285500</v>
       </c>
       <c r="E17" s="3">
-        <v>221000</v>
+        <v>257800</v>
       </c>
       <c r="F17" s="3">
-        <v>182700</v>
+        <v>221300</v>
       </c>
       <c r="G17" s="3">
-        <v>150400</v>
+        <v>183000</v>
       </c>
       <c r="H17" s="3">
-        <v>123000</v>
+        <v>150600</v>
       </c>
       <c r="I17" s="3">
-        <v>52500</v>
+        <v>123200</v>
       </c>
       <c r="J17" s="3">
+        <v>52600</v>
+      </c>
+      <c r="K17" s="3">
         <v>103900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>112200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>117000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>155400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>197300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>424400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>175900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>132200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>149400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>139700</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>193000</v>
+        <v>206500</v>
       </c>
       <c r="E18" s="3">
-        <v>236500</v>
+        <v>193300</v>
       </c>
       <c r="F18" s="3">
-        <v>237500</v>
+        <v>236800</v>
       </c>
       <c r="G18" s="3">
-        <v>227700</v>
+        <v>237900</v>
       </c>
       <c r="H18" s="3">
-        <v>216000</v>
+        <v>228100</v>
       </c>
       <c r="I18" s="3">
-        <v>283500</v>
+        <v>216400</v>
       </c>
       <c r="J18" s="3">
+        <v>284000</v>
+      </c>
+      <c r="K18" s="3">
         <v>214000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>183000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>171200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>114500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>122000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-110500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>161500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>173100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>172300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>174800</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,114 +1312,121 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-92100</v>
+        <v>-88400</v>
       </c>
       <c r="E20" s="3">
-        <v>-98400</v>
+        <v>-92300</v>
       </c>
       <c r="F20" s="3">
-        <v>-32900</v>
+        <v>-98500</v>
       </c>
       <c r="G20" s="3">
-        <v>-126500</v>
+        <v>-33000</v>
       </c>
       <c r="H20" s="3">
-        <v>-60400</v>
+        <v>-126700</v>
       </c>
       <c r="I20" s="3">
-        <v>-159200</v>
+        <v>-60500</v>
       </c>
       <c r="J20" s="3">
+        <v>-159400</v>
+      </c>
+      <c r="K20" s="3">
         <v>-33200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-34800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-6500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>3700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-26100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-82100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-101800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-36200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-53500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-52600</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>125600</v>
+        <v>143300</v>
       </c>
       <c r="E21" s="3">
-        <v>163200</v>
+        <v>125800</v>
       </c>
       <c r="F21" s="3">
-        <v>229400</v>
+        <v>163500</v>
       </c>
       <c r="G21" s="3">
-        <v>123900</v>
+        <v>229800</v>
       </c>
       <c r="H21" s="3">
-        <v>174500</v>
+        <v>124100</v>
       </c>
       <c r="I21" s="3">
-        <v>144800</v>
+        <v>174800</v>
       </c>
       <c r="J21" s="3">
+        <v>145000</v>
+      </c>
+      <c r="K21" s="3">
         <v>199900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>165900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>182700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>137100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>113000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-175300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>77600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>152300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>137200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>139300</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,114 +1478,123 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>100900</v>
+        <v>118100</v>
       </c>
       <c r="E23" s="3">
-        <v>138100</v>
+        <v>101000</v>
       </c>
       <c r="F23" s="3">
-        <v>204600</v>
+        <v>138300</v>
       </c>
       <c r="G23" s="3">
-        <v>101300</v>
+        <v>205000</v>
       </c>
       <c r="H23" s="3">
-        <v>155600</v>
+        <v>101500</v>
       </c>
       <c r="I23" s="3">
-        <v>124300</v>
+        <v>155900</v>
       </c>
       <c r="J23" s="3">
+        <v>124600</v>
+      </c>
+      <c r="K23" s="3">
         <v>180800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>148200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>164700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>118100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>95900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-192600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>59700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>136800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>118700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>122200</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E24" s="3">
         <v>28400</v>
       </c>
-      <c r="E24" s="3">
-        <v>28700</v>
-      </c>
       <c r="F24" s="3">
-        <v>38000</v>
+        <v>28800</v>
       </c>
       <c r="G24" s="3">
-        <v>33000</v>
+        <v>38100</v>
       </c>
       <c r="H24" s="3">
-        <v>25800</v>
+        <v>33100</v>
       </c>
       <c r="I24" s="3">
-        <v>52500</v>
+        <v>25900</v>
       </c>
       <c r="J24" s="3">
+        <v>52600</v>
+      </c>
+      <c r="K24" s="3">
         <v>31000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>27300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>24300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>19800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>11200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-71000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>20500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>36000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>31200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>30600</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>72500</v>
+        <v>90100</v>
       </c>
       <c r="E26" s="3">
-        <v>109400</v>
+        <v>72600</v>
       </c>
       <c r="F26" s="3">
-        <v>166600</v>
+        <v>109500</v>
       </c>
       <c r="G26" s="3">
-        <v>68300</v>
+        <v>166900</v>
       </c>
       <c r="H26" s="3">
-        <v>129800</v>
+        <v>68400</v>
       </c>
       <c r="I26" s="3">
-        <v>71800</v>
+        <v>130000</v>
       </c>
       <c r="J26" s="3">
+        <v>71900</v>
+      </c>
+      <c r="K26" s="3">
         <v>149800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>120900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>140400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>98300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>84700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-121600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>39200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>100800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>87500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>91600</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>72000</v>
+        <v>89500</v>
       </c>
       <c r="E27" s="3">
-        <v>108700</v>
+        <v>72100</v>
       </c>
       <c r="F27" s="3">
-        <v>165900</v>
+        <v>108800</v>
       </c>
       <c r="G27" s="3">
-        <v>67600</v>
+        <v>166100</v>
       </c>
       <c r="H27" s="3">
-        <v>129100</v>
+        <v>67700</v>
       </c>
       <c r="I27" s="3">
-        <v>70900</v>
+        <v>129300</v>
       </c>
       <c r="J27" s="3">
+        <v>71000</v>
+      </c>
+      <c r="K27" s="3">
         <v>149200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>120400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>139700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>97900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>84400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-120600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>38800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>100200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>87000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>91100</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>92100</v>
+        <v>88400</v>
       </c>
       <c r="E32" s="3">
-        <v>98400</v>
+        <v>92300</v>
       </c>
       <c r="F32" s="3">
-        <v>32900</v>
+        <v>98500</v>
       </c>
       <c r="G32" s="3">
-        <v>126500</v>
+        <v>33000</v>
       </c>
       <c r="H32" s="3">
-        <v>60400</v>
+        <v>126700</v>
       </c>
       <c r="I32" s="3">
-        <v>159200</v>
+        <v>60500</v>
       </c>
       <c r="J32" s="3">
+        <v>159400</v>
+      </c>
+      <c r="K32" s="3">
         <v>33200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>34800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>6500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-3700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>26100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>82100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>101800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>36200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>53500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>52600</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>72000</v>
+        <v>89500</v>
       </c>
       <c r="E33" s="3">
-        <v>108700</v>
+        <v>72100</v>
       </c>
       <c r="F33" s="3">
-        <v>165900</v>
+        <v>108800</v>
       </c>
       <c r="G33" s="3">
-        <v>67600</v>
+        <v>166100</v>
       </c>
       <c r="H33" s="3">
-        <v>129100</v>
+        <v>67700</v>
       </c>
       <c r="I33" s="3">
-        <v>70900</v>
+        <v>129300</v>
       </c>
       <c r="J33" s="3">
+        <v>71000</v>
+      </c>
+      <c r="K33" s="3">
         <v>149200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>120400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>139700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>97900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>84400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-120600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>38800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>100200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>87000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>91100</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>72000</v>
+        <v>89500</v>
       </c>
       <c r="E35" s="3">
-        <v>108700</v>
+        <v>72100</v>
       </c>
       <c r="F35" s="3">
-        <v>165900</v>
+        <v>108800</v>
       </c>
       <c r="G35" s="3">
-        <v>67600</v>
+        <v>166100</v>
       </c>
       <c r="H35" s="3">
-        <v>129100</v>
+        <v>67700</v>
       </c>
       <c r="I35" s="3">
-        <v>70900</v>
+        <v>129300</v>
       </c>
       <c r="J35" s="3">
+        <v>71000</v>
+      </c>
+      <c r="K35" s="3">
         <v>149200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>120400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>139700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>97900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>84400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-120600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>38800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>100200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>87000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>91100</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,114 +2313,121 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3246100</v>
+        <v>2908700</v>
       </c>
       <c r="E41" s="3">
-        <v>3456400</v>
+        <v>3251500</v>
       </c>
       <c r="F41" s="3">
-        <v>3423600</v>
+        <v>3462100</v>
       </c>
       <c r="G41" s="3">
-        <v>3283000</v>
+        <v>3429300</v>
       </c>
       <c r="H41" s="3">
-        <v>3609800</v>
+        <v>3288500</v>
       </c>
       <c r="I41" s="3">
-        <v>4459900</v>
+        <v>3615700</v>
       </c>
       <c r="J41" s="3">
+        <v>4467300</v>
+      </c>
+      <c r="K41" s="3">
         <v>5339700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4999400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4971700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4727000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4504200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3810300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2722600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2407900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2668300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2403000</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>377300</v>
+        <v>341300</v>
       </c>
       <c r="E42" s="3">
-        <v>430200</v>
+        <v>377900</v>
       </c>
       <c r="F42" s="3">
-        <v>6226200</v>
+        <v>430900</v>
       </c>
       <c r="G42" s="3">
-        <v>6705900</v>
+        <v>6236600</v>
       </c>
       <c r="H42" s="3">
-        <v>6106200</v>
+        <v>6717000</v>
       </c>
       <c r="I42" s="3">
-        <v>6113000</v>
+        <v>6116300</v>
       </c>
       <c r="J42" s="3">
+        <v>6123100</v>
+      </c>
+      <c r="K42" s="3">
         <v>6146400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>6025700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>6134600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>5894900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>5627300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>5242300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>4729400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>4377800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>4497700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>4501200</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2492,8 +2591,11 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2545,8 +2647,11 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,114 +2703,123 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>214700</v>
+        <v>212700</v>
       </c>
       <c r="E48" s="3">
         <v>215000</v>
       </c>
       <c r="F48" s="3">
-        <v>213900</v>
+        <v>215300</v>
       </c>
       <c r="G48" s="3">
-        <v>229200</v>
+        <v>214300</v>
       </c>
       <c r="H48" s="3">
-        <v>219400</v>
+        <v>229500</v>
       </c>
       <c r="I48" s="3">
-        <v>221400</v>
+        <v>219700</v>
       </c>
       <c r="J48" s="3">
+        <v>221800</v>
+      </c>
+      <c r="K48" s="3">
         <v>215900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>209300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>216300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>219900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>232700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>239200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>252900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>232300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>230300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>235600</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>442000</v>
+        <v>443900</v>
       </c>
       <c r="E49" s="3">
-        <v>443600</v>
+        <v>442800</v>
       </c>
       <c r="F49" s="3">
-        <v>436200</v>
+        <v>444300</v>
       </c>
       <c r="G49" s="3">
-        <v>351300</v>
+        <v>436900</v>
       </c>
       <c r="H49" s="3">
-        <v>281600</v>
+        <v>351900</v>
       </c>
       <c r="I49" s="3">
-        <v>283800</v>
+        <v>282100</v>
       </c>
       <c r="J49" s="3">
+        <v>284200</v>
+      </c>
+      <c r="K49" s="3">
         <v>280300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>271800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>273600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>271600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>274100</v>
-      </c>
-      <c r="O49" s="3">
-        <v>273400</v>
       </c>
       <c r="P49" s="3">
         <v>273400</v>
       </c>
       <c r="Q49" s="3">
+        <v>273400</v>
+      </c>
+      <c r="R49" s="3">
         <v>239200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>249500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>250200</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>49600</v>
+        <v>42900</v>
       </c>
       <c r="E52" s="3">
-        <v>45000</v>
+        <v>49700</v>
       </c>
       <c r="F52" s="3">
-        <v>58600</v>
+        <v>45100</v>
       </c>
       <c r="G52" s="3">
-        <v>62100</v>
+        <v>58700</v>
       </c>
       <c r="H52" s="3">
-        <v>55500</v>
+        <v>62200</v>
       </c>
       <c r="I52" s="3">
+        <v>55600</v>
+      </c>
+      <c r="J52" s="3">
         <v>38700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>71000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>67800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>74400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>92100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>63200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>78100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>23000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>11000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>13800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>23907000</v>
+        <v>24034000</v>
       </c>
       <c r="E54" s="3">
-        <v>23760900</v>
+        <v>23946600</v>
       </c>
       <c r="F54" s="3">
-        <v>24094700</v>
+        <v>23800300</v>
       </c>
       <c r="G54" s="3">
-        <v>23278500</v>
+        <v>24134600</v>
       </c>
       <c r="H54" s="3">
-        <v>23192000</v>
+        <v>23317100</v>
       </c>
       <c r="I54" s="3">
-        <v>24433300</v>
+        <v>23230400</v>
       </c>
       <c r="J54" s="3">
+        <v>24473800</v>
+      </c>
+      <c r="K54" s="3">
         <v>25094000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>24032900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>23900800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>22982800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>22875900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>21750200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>19413500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>17479800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>18688800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>17581000</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,61 +3141,65 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>26200</v>
+      </c>
+      <c r="E57" s="3">
         <v>20500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>16000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>14500</v>
       </c>
-      <c r="G57" s="3">
-        <v>11100</v>
-      </c>
       <c r="H57" s="3">
+        <v>11200</v>
+      </c>
+      <c r="I57" s="3">
         <v>8000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>12300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>9900</v>
-      </c>
-      <c r="K57" s="3">
-        <v>9600</v>
       </c>
       <c r="L57" s="3">
         <v>9600</v>
       </c>
       <c r="M57" s="3">
+        <v>9600</v>
+      </c>
+      <c r="N57" s="3">
         <v>11100</v>
-      </c>
-      <c r="N57" s="3">
-        <v>9000</v>
       </c>
       <c r="O57" s="3">
         <v>9000</v>
       </c>
       <c r="P57" s="3">
+        <v>9000</v>
+      </c>
+      <c r="Q57" s="3">
         <v>13300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>11000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>14500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3117,8 +3251,11 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3170,8 +3307,11 @@
       <c r="S59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3223,61 +3363,67 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1575900</v>
+        <v>1529300</v>
       </c>
       <c r="E61" s="3">
-        <v>2147500</v>
+        <v>1578500</v>
       </c>
       <c r="F61" s="3">
-        <v>2225400</v>
+        <v>2151100</v>
       </c>
       <c r="G61" s="3">
-        <v>2147300</v>
+        <v>2229100</v>
       </c>
       <c r="H61" s="3">
-        <v>2124600</v>
+        <v>2150800</v>
       </c>
       <c r="I61" s="3">
-        <v>2278800</v>
+        <v>2128100</v>
       </c>
       <c r="J61" s="3">
+        <v>2282600</v>
+      </c>
+      <c r="K61" s="3">
         <v>2346900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2190100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2128900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2026100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2046900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1993500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1885200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1683000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2182600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1729000</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3285,52 +3431,55 @@
         <v>22300</v>
       </c>
       <c r="E62" s="3">
-        <v>22200</v>
+        <v>22300</v>
       </c>
       <c r="F62" s="3">
+        <v>22300</v>
+      </c>
+      <c r="G62" s="3">
         <v>23900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>300</v>
       </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
       <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3">
         <v>400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>100</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
       <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
         <v>400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>200</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
-      </c>
       <c r="R62" s="3">
         <v>0</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>21439400</v>
+        <v>21493800</v>
       </c>
       <c r="E66" s="3">
-        <v>21221700</v>
+        <v>21474900</v>
       </c>
       <c r="F66" s="3">
-        <v>21524400</v>
+        <v>21256900</v>
       </c>
       <c r="G66" s="3">
-        <v>20843200</v>
+        <v>21560100</v>
       </c>
       <c r="H66" s="3">
-        <v>20754600</v>
+        <v>20877800</v>
       </c>
       <c r="I66" s="3">
-        <v>21851800</v>
+        <v>20789000</v>
       </c>
       <c r="J66" s="3">
+        <v>21888000</v>
+      </c>
+      <c r="K66" s="3">
         <v>22445800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>21571800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>21545100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>20662500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>20670600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>19677000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>17115800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>15316400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>16480800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>15643900</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2196000</v>
+        <v>2286100</v>
       </c>
       <c r="E72" s="3">
-        <v>2264100</v>
+        <v>2199700</v>
       </c>
       <c r="F72" s="3">
-        <v>2343800</v>
+        <v>2267800</v>
       </c>
       <c r="G72" s="3">
-        <v>2177500</v>
+        <v>2347700</v>
       </c>
       <c r="H72" s="3">
-        <v>2109100</v>
+        <v>2181100</v>
       </c>
       <c r="I72" s="3">
-        <v>2201500</v>
+        <v>2112600</v>
       </c>
       <c r="J72" s="3">
+        <v>2205100</v>
+      </c>
+      <c r="K72" s="3">
         <v>2137700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1919800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1797300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1693900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1627300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1541100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1878600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1672100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1687600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1560800</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2467600</v>
+        <v>2540300</v>
       </c>
       <c r="E76" s="3">
-        <v>2539200</v>
+        <v>2471700</v>
       </c>
       <c r="F76" s="3">
-        <v>2570200</v>
+        <v>2543500</v>
       </c>
       <c r="G76" s="3">
-        <v>2435300</v>
+        <v>2574500</v>
       </c>
       <c r="H76" s="3">
-        <v>2437300</v>
+        <v>2439300</v>
       </c>
       <c r="I76" s="3">
-        <v>2581500</v>
+        <v>2441400</v>
       </c>
       <c r="J76" s="3">
+        <v>2585800</v>
+      </c>
+      <c r="K76" s="3">
         <v>2648300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2461000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2355800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2320300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2205300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2073200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2297800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2163400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2208000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1937100</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>72000</v>
+        <v>89500</v>
       </c>
       <c r="E81" s="3">
-        <v>108700</v>
+        <v>72100</v>
       </c>
       <c r="F81" s="3">
-        <v>165900</v>
+        <v>108800</v>
       </c>
       <c r="G81" s="3">
-        <v>67600</v>
+        <v>166100</v>
       </c>
       <c r="H81" s="3">
-        <v>129100</v>
+        <v>67700</v>
       </c>
       <c r="I81" s="3">
-        <v>70900</v>
+        <v>129300</v>
       </c>
       <c r="J81" s="3">
+        <v>71000</v>
+      </c>
+      <c r="K81" s="3">
         <v>149200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>120400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>139700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>97900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>84400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-120600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>38800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>100200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>87000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>91100</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>25200</v>
+      </c>
+      <c r="E83" s="3">
         <v>24700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>25100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>24800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>22600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>18900</v>
       </c>
-      <c r="I83" s="3">
-        <v>20400</v>
-      </c>
       <c r="J83" s="3">
+        <v>20500</v>
+      </c>
+      <c r="K83" s="3">
         <v>19100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>17700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>18000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>19000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>17100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>17400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>17900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>15400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>18500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>17100</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>716300</v>
+        <v>-68900</v>
       </c>
       <c r="E89" s="3">
-        <v>-475800</v>
+        <v>717400</v>
       </c>
       <c r="F89" s="3">
-        <v>658300</v>
+        <v>-476600</v>
       </c>
       <c r="G89" s="3">
-        <v>47500</v>
+        <v>659400</v>
       </c>
       <c r="H89" s="3">
-        <v>-504900</v>
+        <v>47600</v>
       </c>
       <c r="I89" s="3">
-        <v>-610700</v>
+        <v>-505800</v>
       </c>
       <c r="J89" s="3">
+        <v>-611700</v>
+      </c>
+      <c r="K89" s="3">
         <v>371400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>44700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>546400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>617900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>836400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1665500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>328400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>335600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-347500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>223600</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,34 +4836,35 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-83000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-96700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-141500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-115700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-43800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-61300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-117000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-65500</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-2500</v>
       </c>
       <c r="L91" s="3">
         <v>-2500</v>
@@ -4652,25 +4873,28 @@
         <v>-2500</v>
       </c>
       <c r="N91" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="O91" s="3">
         <v>-2600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-6800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3200</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-502100</v>
+        <v>-158500</v>
       </c>
       <c r="E94" s="3">
-        <v>669900</v>
+        <v>-503000</v>
       </c>
       <c r="F94" s="3">
-        <v>-642000</v>
+        <v>671000</v>
       </c>
       <c r="G94" s="3">
-        <v>-118400</v>
+        <v>-643000</v>
       </c>
       <c r="H94" s="3">
-        <v>-288000</v>
+        <v>-118600</v>
       </c>
       <c r="I94" s="3">
-        <v>-118300</v>
+        <v>-288500</v>
       </c>
       <c r="J94" s="3">
+        <v>-118500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-187100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>72500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-391600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-90900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-340700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-335900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-312100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-193900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>52000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>101200</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4870,10 +5104,10 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-82000</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-82100</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-426000</v>
+        <v>-116200</v>
       </c>
       <c r="E100" s="3">
-        <v>-160200</v>
+        <v>-426700</v>
       </c>
       <c r="F100" s="3">
-        <v>123100</v>
+        <v>-160500</v>
       </c>
       <c r="G100" s="3">
-        <v>-243800</v>
+        <v>123300</v>
       </c>
       <c r="H100" s="3">
-        <v>-65600</v>
+        <v>-244200</v>
       </c>
       <c r="I100" s="3">
-        <v>-120900</v>
+        <v>-65700</v>
       </c>
       <c r="J100" s="3">
+        <v>-121100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-4200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-97300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-9100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-197500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>208900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-198200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>44600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-229500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>566800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-244300</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>100</v>
+      </c>
+      <c r="E101" s="3">
         <v>400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-2300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-600</v>
       </c>
-      <c r="G101" s="3">
-        <v>-12700</v>
-      </c>
       <c r="H101" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="I101" s="3">
         <v>8400</v>
       </c>
-      <c r="I101" s="3">
-        <v>-30000</v>
-      </c>
       <c r="J101" s="3">
+        <v>-30100</v>
+      </c>
+      <c r="K101" s="3">
         <v>43600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>7900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>8800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-13000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-10400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>5700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-5700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-211500</v>
+        <v>-343400</v>
       </c>
       <c r="E102" s="3">
+        <v>-211800</v>
+      </c>
+      <c r="F102" s="3">
         <v>31600</v>
       </c>
-      <c r="F102" s="3">
-        <v>138800</v>
-      </c>
       <c r="G102" s="3">
-        <v>-327500</v>
+        <v>139000</v>
       </c>
       <c r="H102" s="3">
-        <v>-850200</v>
+        <v>-328000</v>
       </c>
       <c r="I102" s="3">
-        <v>-880000</v>
+        <v>-851600</v>
       </c>
       <c r="J102" s="3">
+        <v>-881500</v>
+      </c>
+      <c r="K102" s="3">
         <v>223700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>27800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>154500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>316500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>694200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1131500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>58000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-82200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>265500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>96700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IFS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IFS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
   <si>
     <t>IFS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,145 +665,152 @@
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>492000</v>
+        <v>484900</v>
       </c>
       <c r="E8" s="3">
-        <v>451100</v>
+        <v>474200</v>
       </c>
       <c r="F8" s="3">
-        <v>458200</v>
+        <v>434800</v>
       </c>
       <c r="G8" s="3">
-        <v>420900</v>
+        <v>441600</v>
       </c>
       <c r="H8" s="3">
-        <v>378700</v>
+        <v>405700</v>
       </c>
       <c r="I8" s="3">
-        <v>339600</v>
+        <v>365100</v>
       </c>
       <c r="J8" s="3">
+        <v>327300</v>
+      </c>
+      <c r="K8" s="3">
         <v>336600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>317900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>295200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>288200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>269900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>319300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>313900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>337400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>305300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>321600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>314500</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -858,8 +865,11 @@
       <c r="T9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +924,11 @@
       <c r="T10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1006,11 @@
       <c r="T12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1065,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,64 +1124,70 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-25200</v>
+        <v>-25100</v>
       </c>
       <c r="E15" s="3">
-        <v>-24700</v>
+        <v>-24300</v>
       </c>
       <c r="F15" s="3">
-        <v>-25100</v>
+        <v>-23900</v>
       </c>
       <c r="G15" s="3">
-        <v>-24800</v>
+        <v>-24200</v>
       </c>
       <c r="H15" s="3">
-        <v>-22600</v>
+        <v>-23900</v>
       </c>
       <c r="I15" s="3">
-        <v>-18900</v>
+        <v>-21800</v>
       </c>
       <c r="J15" s="3">
+        <v>-18200</v>
+      </c>
+      <c r="K15" s="3">
         <v>-20500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-19100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-17700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-18000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-19000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>-17100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>-17400</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>-17900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>-15400</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>-18500</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>-17100</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1205,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>285500</v>
+        <v>335500</v>
       </c>
       <c r="E17" s="3">
-        <v>257800</v>
+        <v>275200</v>
       </c>
       <c r="F17" s="3">
-        <v>221300</v>
+        <v>248500</v>
       </c>
       <c r="G17" s="3">
-        <v>183000</v>
+        <v>213300</v>
       </c>
       <c r="H17" s="3">
-        <v>150600</v>
+        <v>176400</v>
       </c>
       <c r="I17" s="3">
-        <v>123200</v>
+        <v>145200</v>
       </c>
       <c r="J17" s="3">
+        <v>118700</v>
+      </c>
+      <c r="K17" s="3">
         <v>52600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>103900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>112200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>117000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>155400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>197300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>424400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>175900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>132200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>149400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>139700</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>206500</v>
+        <v>149300</v>
       </c>
       <c r="E18" s="3">
-        <v>193300</v>
+        <v>199000</v>
       </c>
       <c r="F18" s="3">
-        <v>236800</v>
+        <v>186300</v>
       </c>
       <c r="G18" s="3">
-        <v>237900</v>
+        <v>228300</v>
       </c>
       <c r="H18" s="3">
-        <v>228100</v>
+        <v>229300</v>
       </c>
       <c r="I18" s="3">
-        <v>216400</v>
+        <v>219900</v>
       </c>
       <c r="J18" s="3">
+        <v>208600</v>
+      </c>
+      <c r="K18" s="3">
         <v>284000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>214000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>183000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>171200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>114500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>122000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-110500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>161500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>173100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>172300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>174800</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,120 +1346,127 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-88400</v>
+        <v>-90000</v>
       </c>
       <c r="E20" s="3">
-        <v>-92300</v>
+        <v>-85200</v>
       </c>
       <c r="F20" s="3">
-        <v>-98500</v>
+        <v>-88900</v>
       </c>
       <c r="G20" s="3">
-        <v>-33000</v>
+        <v>-95000</v>
       </c>
       <c r="H20" s="3">
-        <v>-126700</v>
+        <v>-31800</v>
       </c>
       <c r="I20" s="3">
-        <v>-60500</v>
+        <v>-122100</v>
       </c>
       <c r="J20" s="3">
+        <v>-58300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-159400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-33200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-34800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-6500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>3700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-26100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-82100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-101800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-36200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-53500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-52600</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>143300</v>
+        <v>84400</v>
       </c>
       <c r="E21" s="3">
-        <v>125800</v>
+        <v>138100</v>
       </c>
       <c r="F21" s="3">
-        <v>163500</v>
+        <v>121200</v>
       </c>
       <c r="G21" s="3">
-        <v>229800</v>
+        <v>157600</v>
       </c>
       <c r="H21" s="3">
-        <v>124100</v>
+        <v>221500</v>
       </c>
       <c r="I21" s="3">
-        <v>174800</v>
+        <v>119600</v>
       </c>
       <c r="J21" s="3">
+        <v>168500</v>
+      </c>
+      <c r="K21" s="3">
         <v>145000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>199900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>165900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>182700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>137100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>113000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-175300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>77600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>152300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>137200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>139300</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,120 +1521,129 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>59300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>113800</v>
+      </c>
+      <c r="F23" s="3">
+        <v>97400</v>
+      </c>
+      <c r="G23" s="3">
+        <v>133300</v>
+      </c>
+      <c r="H23" s="3">
+        <v>197600</v>
+      </c>
+      <c r="I23" s="3">
+        <v>97800</v>
+      </c>
+      <c r="J23" s="3">
+        <v>150300</v>
+      </c>
+      <c r="K23" s="3">
+        <v>124600</v>
+      </c>
+      <c r="L23" s="3">
+        <v>180800</v>
+      </c>
+      <c r="M23" s="3">
+        <v>148200</v>
+      </c>
+      <c r="N23" s="3">
+        <v>164700</v>
+      </c>
+      <c r="O23" s="3">
         <v>118100</v>
       </c>
-      <c r="E23" s="3">
-        <v>101000</v>
-      </c>
-      <c r="F23" s="3">
-        <v>138300</v>
-      </c>
-      <c r="G23" s="3">
-        <v>205000</v>
-      </c>
-      <c r="H23" s="3">
-        <v>101500</v>
-      </c>
-      <c r="I23" s="3">
-        <v>155900</v>
-      </c>
-      <c r="J23" s="3">
-        <v>124600</v>
-      </c>
-      <c r="K23" s="3">
-        <v>180800</v>
-      </c>
-      <c r="L23" s="3">
-        <v>148200</v>
-      </c>
-      <c r="M23" s="3">
-        <v>164700</v>
-      </c>
-      <c r="N23" s="3">
-        <v>118100</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>95900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-192600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>59700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>136800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>118700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>122200</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>28000</v>
+        <v>8100</v>
       </c>
       <c r="E24" s="3">
-        <v>28400</v>
+        <v>27000</v>
       </c>
       <c r="F24" s="3">
-        <v>28800</v>
+        <v>27400</v>
       </c>
       <c r="G24" s="3">
-        <v>38100</v>
+        <v>27700</v>
       </c>
       <c r="H24" s="3">
-        <v>33100</v>
+        <v>36700</v>
       </c>
       <c r="I24" s="3">
-        <v>25900</v>
+        <v>31900</v>
       </c>
       <c r="J24" s="3">
+        <v>25000</v>
+      </c>
+      <c r="K24" s="3">
         <v>52600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>31000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>27300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>24300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>19800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>11200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-71000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>20500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>36000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>31200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>30600</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>90100</v>
+        <v>51200</v>
       </c>
       <c r="E26" s="3">
-        <v>72600</v>
+        <v>86800</v>
       </c>
       <c r="F26" s="3">
-        <v>109500</v>
+        <v>70000</v>
       </c>
       <c r="G26" s="3">
-        <v>166900</v>
+        <v>105600</v>
       </c>
       <c r="H26" s="3">
-        <v>68400</v>
+        <v>160900</v>
       </c>
       <c r="I26" s="3">
-        <v>130000</v>
+        <v>65900</v>
       </c>
       <c r="J26" s="3">
+        <v>125300</v>
+      </c>
+      <c r="K26" s="3">
         <v>71900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>149800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>120900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>140400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>98300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>84700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-121600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>39200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>100800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>87500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>91600</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>89500</v>
+        <v>50800</v>
       </c>
       <c r="E27" s="3">
-        <v>72100</v>
+        <v>86300</v>
       </c>
       <c r="F27" s="3">
-        <v>108800</v>
+        <v>69500</v>
       </c>
       <c r="G27" s="3">
-        <v>166100</v>
+        <v>104900</v>
       </c>
       <c r="H27" s="3">
-        <v>67700</v>
+        <v>160100</v>
       </c>
       <c r="I27" s="3">
-        <v>129300</v>
+        <v>65300</v>
       </c>
       <c r="J27" s="3">
+        <v>124700</v>
+      </c>
+      <c r="K27" s="3">
         <v>71000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>149200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>120400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>139700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>97900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>84400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-120600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>38800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>100200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>87000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>91100</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2052,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>88400</v>
+        <v>90000</v>
       </c>
       <c r="E32" s="3">
-        <v>92300</v>
+        <v>85200</v>
       </c>
       <c r="F32" s="3">
-        <v>98500</v>
+        <v>88900</v>
       </c>
       <c r="G32" s="3">
-        <v>33000</v>
+        <v>95000</v>
       </c>
       <c r="H32" s="3">
-        <v>126700</v>
+        <v>31800</v>
       </c>
       <c r="I32" s="3">
-        <v>60500</v>
+        <v>122100</v>
       </c>
       <c r="J32" s="3">
+        <v>58300</v>
+      </c>
+      <c r="K32" s="3">
         <v>159400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>33200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>34800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>6500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-3700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>26100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>82100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>101800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>36200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>53500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>52600</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>89500</v>
+        <v>50800</v>
       </c>
       <c r="E33" s="3">
-        <v>72100</v>
+        <v>86300</v>
       </c>
       <c r="F33" s="3">
-        <v>108800</v>
+        <v>69500</v>
       </c>
       <c r="G33" s="3">
-        <v>166100</v>
+        <v>104900</v>
       </c>
       <c r="H33" s="3">
-        <v>67700</v>
+        <v>160100</v>
       </c>
       <c r="I33" s="3">
-        <v>129300</v>
+        <v>65300</v>
       </c>
       <c r="J33" s="3">
+        <v>124700</v>
+      </c>
+      <c r="K33" s="3">
         <v>71000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>149200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>120400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>139700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>97900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>84400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-120600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>38800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>100200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>87000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>91100</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>89500</v>
+        <v>50800</v>
       </c>
       <c r="E35" s="3">
-        <v>72100</v>
+        <v>86300</v>
       </c>
       <c r="F35" s="3">
-        <v>108800</v>
+        <v>69500</v>
       </c>
       <c r="G35" s="3">
-        <v>166100</v>
+        <v>104900</v>
       </c>
       <c r="H35" s="3">
-        <v>67700</v>
+        <v>160100</v>
       </c>
       <c r="I35" s="3">
-        <v>129300</v>
+        <v>65300</v>
       </c>
       <c r="J35" s="3">
+        <v>124700</v>
+      </c>
+      <c r="K35" s="3">
         <v>71000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>149200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>120400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>139700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>97900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>84400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-120600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>38800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>100200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>87000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>91100</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,120 +2400,127 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2908700</v>
+        <v>2774800</v>
       </c>
       <c r="E41" s="3">
-        <v>3251500</v>
+        <v>2803500</v>
       </c>
       <c r="F41" s="3">
-        <v>3462100</v>
+        <v>3133900</v>
       </c>
       <c r="G41" s="3">
-        <v>3429300</v>
+        <v>3336900</v>
       </c>
       <c r="H41" s="3">
-        <v>3288500</v>
+        <v>3305200</v>
       </c>
       <c r="I41" s="3">
-        <v>3615700</v>
+        <v>3169500</v>
       </c>
       <c r="J41" s="3">
+        <v>3485000</v>
+      </c>
+      <c r="K41" s="3">
         <v>4467300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5339700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4999400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4971700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4727000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4504200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3810300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2722600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2407900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2668300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2403000</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>341300</v>
+        <v>368700</v>
       </c>
       <c r="E42" s="3">
-        <v>377900</v>
+        <v>328900</v>
       </c>
       <c r="F42" s="3">
-        <v>430900</v>
+        <v>364300</v>
       </c>
       <c r="G42" s="3">
-        <v>6236600</v>
+        <v>415300</v>
       </c>
       <c r="H42" s="3">
-        <v>6717000</v>
+        <v>6011000</v>
       </c>
       <c r="I42" s="3">
-        <v>6116300</v>
+        <v>6474100</v>
       </c>
       <c r="J42" s="3">
+        <v>5895100</v>
+      </c>
+      <c r="K42" s="3">
         <v>6123100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>6146400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>6025700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>6134600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>5894900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>5627300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>5242300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>4729400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>4377800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>4497700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>4501200</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2482,8 +2575,11 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,8 +2634,11 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2594,8 +2693,11 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2650,8 +2752,11 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,120 +2811,129 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>212700</v>
+        <v>209100</v>
       </c>
       <c r="E48" s="3">
-        <v>215000</v>
+        <v>205100</v>
       </c>
       <c r="F48" s="3">
-        <v>215300</v>
+        <v>207200</v>
       </c>
       <c r="G48" s="3">
-        <v>214300</v>
+        <v>207500</v>
       </c>
       <c r="H48" s="3">
-        <v>229500</v>
+        <v>206500</v>
       </c>
       <c r="I48" s="3">
-        <v>219700</v>
+        <v>221200</v>
       </c>
       <c r="J48" s="3">
+        <v>211800</v>
+      </c>
+      <c r="K48" s="3">
         <v>221800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>215900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>209300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>216300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>219900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>232700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>239200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>252900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>232300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>230300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>235600</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>443900</v>
+        <v>431600</v>
       </c>
       <c r="E49" s="3">
-        <v>442800</v>
+        <v>427800</v>
       </c>
       <c r="F49" s="3">
-        <v>444300</v>
+        <v>426700</v>
       </c>
       <c r="G49" s="3">
-        <v>436900</v>
+        <v>428300</v>
       </c>
       <c r="H49" s="3">
-        <v>351900</v>
+        <v>421100</v>
       </c>
       <c r="I49" s="3">
-        <v>282100</v>
+        <v>339100</v>
       </c>
       <c r="J49" s="3">
+        <v>271900</v>
+      </c>
+      <c r="K49" s="3">
         <v>284200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>280300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>271800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>273600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>271600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>274100</v>
-      </c>
-      <c r="P49" s="3">
-        <v>273400</v>
       </c>
       <c r="Q49" s="3">
         <v>273400</v>
       </c>
       <c r="R49" s="3">
+        <v>273400</v>
+      </c>
+      <c r="S49" s="3">
         <v>239200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>249500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>250200</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3047,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>42900</v>
+        <v>35800</v>
       </c>
       <c r="E52" s="3">
-        <v>49700</v>
+        <v>41400</v>
       </c>
       <c r="F52" s="3">
-        <v>45100</v>
+        <v>47900</v>
       </c>
       <c r="G52" s="3">
-        <v>58700</v>
+        <v>43500</v>
       </c>
       <c r="H52" s="3">
-        <v>62200</v>
+        <v>56600</v>
       </c>
       <c r="I52" s="3">
-        <v>55600</v>
+        <v>60000</v>
       </c>
       <c r="J52" s="3">
+        <v>53600</v>
+      </c>
+      <c r="K52" s="3">
         <v>38700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>71000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>67800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>74400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>92100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>63200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>78100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>23000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>11000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>13800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3165,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>24034000</v>
+        <v>23432600</v>
       </c>
       <c r="E54" s="3">
-        <v>23946600</v>
+        <v>23164800</v>
       </c>
       <c r="F54" s="3">
-        <v>23800300</v>
+        <v>23080500</v>
       </c>
       <c r="G54" s="3">
-        <v>24134600</v>
+        <v>22939500</v>
       </c>
       <c r="H54" s="3">
-        <v>23317100</v>
+        <v>23261700</v>
       </c>
       <c r="I54" s="3">
-        <v>23230400</v>
+        <v>22473800</v>
       </c>
       <c r="J54" s="3">
+        <v>22390200</v>
+      </c>
+      <c r="K54" s="3">
         <v>24473800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>25094000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>24032900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>23900800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>22982800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>22875900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>21750200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>19413500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>17479800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>18688800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>17581000</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,64 +3272,68 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>26200</v>
+        <v>25200</v>
       </c>
       <c r="E57" s="3">
-        <v>20500</v>
+        <v>25200</v>
       </c>
       <c r="F57" s="3">
-        <v>16000</v>
+        <v>19800</v>
       </c>
       <c r="G57" s="3">
-        <v>14500</v>
+        <v>15400</v>
       </c>
       <c r="H57" s="3">
-        <v>11200</v>
+        <v>14000</v>
       </c>
       <c r="I57" s="3">
-        <v>8000</v>
+        <v>10800</v>
       </c>
       <c r="J57" s="3">
+        <v>7700</v>
+      </c>
+      <c r="K57" s="3">
         <v>12300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>9900</v>
-      </c>
-      <c r="L57" s="3">
-        <v>9600</v>
       </c>
       <c r="M57" s="3">
         <v>9600</v>
       </c>
       <c r="N57" s="3">
+        <v>9600</v>
+      </c>
+      <c r="O57" s="3">
         <v>11100</v>
-      </c>
-      <c r="O57" s="3">
-        <v>9000</v>
       </c>
       <c r="P57" s="3">
         <v>9000</v>
       </c>
       <c r="Q57" s="3">
+        <v>9000</v>
+      </c>
+      <c r="R57" s="3">
         <v>13300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>11000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>14500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>12100</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3254,8 +3388,11 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3310,8 +3447,11 @@
       <c r="T59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3366,120 +3506,129 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1529300</v>
+        <v>1533000</v>
       </c>
       <c r="E61" s="3">
-        <v>1578500</v>
+        <v>1473900</v>
       </c>
       <c r="F61" s="3">
-        <v>2151100</v>
+        <v>1521400</v>
       </c>
       <c r="G61" s="3">
-        <v>2229100</v>
+        <v>2073300</v>
       </c>
       <c r="H61" s="3">
-        <v>2150800</v>
+        <v>2148400</v>
       </c>
       <c r="I61" s="3">
-        <v>2128100</v>
+        <v>2073000</v>
       </c>
       <c r="J61" s="3">
+        <v>2051100</v>
+      </c>
+      <c r="K61" s="3">
         <v>2282600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2346900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2190100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2128900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2026100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2046900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1993500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1885200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1683000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2182600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1729000</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>22300</v>
+        <v>21600</v>
       </c>
       <c r="E62" s="3">
-        <v>22300</v>
+        <v>21500</v>
       </c>
       <c r="F62" s="3">
-        <v>22300</v>
+        <v>21500</v>
       </c>
       <c r="G62" s="3">
-        <v>23900</v>
+        <v>21500</v>
       </c>
       <c r="H62" s="3">
+        <v>23000</v>
+      </c>
+      <c r="I62" s="3">
         <v>600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>300</v>
       </c>
-      <c r="J62" s="3">
-        <v>0</v>
-      </c>
       <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
         <v>400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>100</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
-      </c>
       <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
         <v>400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>200</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
-      </c>
       <c r="S62" s="3">
         <v>0</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3801,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>21493800</v>
+        <v>20921100</v>
       </c>
       <c r="E66" s="3">
-        <v>21474900</v>
+        <v>20716400</v>
       </c>
       <c r="F66" s="3">
-        <v>21256900</v>
+        <v>20698200</v>
       </c>
       <c r="G66" s="3">
-        <v>21560100</v>
+        <v>20488100</v>
       </c>
       <c r="H66" s="3">
-        <v>20877800</v>
+        <v>20780300</v>
       </c>
       <c r="I66" s="3">
-        <v>20789000</v>
+        <v>20122700</v>
       </c>
       <c r="J66" s="3">
+        <v>20037100</v>
+      </c>
+      <c r="K66" s="3">
         <v>21888000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>22445800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>21571800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>21545100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>20662500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>20670600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>19677000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>17115800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>15316400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>16480800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>15643900</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4119,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2286100</v>
+        <v>2265400</v>
       </c>
       <c r="E72" s="3">
-        <v>2199700</v>
+        <v>2203400</v>
       </c>
       <c r="F72" s="3">
-        <v>2267800</v>
+        <v>2120100</v>
       </c>
       <c r="G72" s="3">
-        <v>2347700</v>
+        <v>2185800</v>
       </c>
       <c r="H72" s="3">
-        <v>2181100</v>
+        <v>2262800</v>
       </c>
       <c r="I72" s="3">
-        <v>2112600</v>
+        <v>2102200</v>
       </c>
       <c r="J72" s="3">
+        <v>2036200</v>
+      </c>
+      <c r="K72" s="3">
         <v>2205100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2137700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1919800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1797300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1693900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1627300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1541100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1878600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1672100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1687600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1560800</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4355,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2540300</v>
+        <v>2511500</v>
       </c>
       <c r="E76" s="3">
-        <v>2471700</v>
+        <v>2448400</v>
       </c>
       <c r="F76" s="3">
-        <v>2543500</v>
+        <v>2382300</v>
       </c>
       <c r="G76" s="3">
-        <v>2574500</v>
+        <v>2451500</v>
       </c>
       <c r="H76" s="3">
-        <v>2439300</v>
+        <v>2481400</v>
       </c>
       <c r="I76" s="3">
-        <v>2441400</v>
+        <v>2351100</v>
       </c>
       <c r="J76" s="3">
+        <v>2353100</v>
+      </c>
+      <c r="K76" s="3">
         <v>2585800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2648300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2461000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2355800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2320300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2205300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2073200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2297800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2163400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2208000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1937100</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>89500</v>
+        <v>50800</v>
       </c>
       <c r="E81" s="3">
-        <v>72100</v>
+        <v>86300</v>
       </c>
       <c r="F81" s="3">
-        <v>108800</v>
+        <v>69500</v>
       </c>
       <c r="G81" s="3">
-        <v>166100</v>
+        <v>104900</v>
       </c>
       <c r="H81" s="3">
-        <v>67700</v>
+        <v>160100</v>
       </c>
       <c r="I81" s="3">
-        <v>129300</v>
+        <v>65300</v>
       </c>
       <c r="J81" s="3">
+        <v>124700</v>
+      </c>
+      <c r="K81" s="3">
         <v>71000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>149200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>120400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>139700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>97900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>84400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-120600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>38800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>100200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>87000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>91100</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4621,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>25200</v>
+        <v>25100</v>
       </c>
       <c r="E83" s="3">
-        <v>24700</v>
+        <v>24300</v>
       </c>
       <c r="F83" s="3">
-        <v>25100</v>
+        <v>23900</v>
       </c>
       <c r="G83" s="3">
-        <v>24800</v>
+        <v>24200</v>
       </c>
       <c r="H83" s="3">
-        <v>22600</v>
+        <v>23900</v>
       </c>
       <c r="I83" s="3">
-        <v>18900</v>
+        <v>21800</v>
       </c>
       <c r="J83" s="3">
+        <v>18200</v>
+      </c>
+      <c r="K83" s="3">
         <v>20500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>19100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>17700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>18000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>19000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>17100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>17400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>17900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>15400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>18500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>17100</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4973,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-68900</v>
+        <v>227000</v>
       </c>
       <c r="E89" s="3">
-        <v>717400</v>
+        <v>-66400</v>
       </c>
       <c r="F89" s="3">
-        <v>-476600</v>
+        <v>691500</v>
       </c>
       <c r="G89" s="3">
-        <v>659400</v>
+        <v>-459400</v>
       </c>
       <c r="H89" s="3">
-        <v>47600</v>
+        <v>635600</v>
       </c>
       <c r="I89" s="3">
-        <v>-505800</v>
+        <v>45900</v>
       </c>
       <c r="J89" s="3">
+        <v>-487500</v>
+      </c>
+      <c r="K89" s="3">
         <v>-611700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>371400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>44700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>546400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>617900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>836400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1665500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>328400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>335600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-347500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>223600</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,37 +5057,38 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-105500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-83000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-96700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-141500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-115700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-43800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-61300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-117000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-65500</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-2500</v>
       </c>
       <c r="M91" s="3">
         <v>-2500</v>
@@ -4876,25 +5097,28 @@
         <v>-2500</v>
       </c>
       <c r="O91" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="P91" s="3">
         <v>-2600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-5200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-6800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-3200</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5232,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-158500</v>
+        <v>-212600</v>
       </c>
       <c r="E94" s="3">
-        <v>-503000</v>
+        <v>-152700</v>
       </c>
       <c r="F94" s="3">
-        <v>671000</v>
+        <v>-484800</v>
       </c>
       <c r="G94" s="3">
-        <v>-643000</v>
+        <v>646700</v>
       </c>
       <c r="H94" s="3">
-        <v>-118600</v>
+        <v>-619800</v>
       </c>
       <c r="I94" s="3">
-        <v>-288500</v>
+        <v>-114400</v>
       </c>
       <c r="J94" s="3">
+        <v>-278000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-118500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-187100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>72500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-391600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-90900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-340700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-335900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-312100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-193900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>52000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>101200</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5107,11 +5341,11 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-82100</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,172 +5550,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-116200</v>
+        <v>-44800</v>
       </c>
       <c r="E100" s="3">
-        <v>-426700</v>
+        <v>-112000</v>
       </c>
       <c r="F100" s="3">
-        <v>-160500</v>
+        <v>-411300</v>
       </c>
       <c r="G100" s="3">
-        <v>123300</v>
+        <v>-154700</v>
       </c>
       <c r="H100" s="3">
-        <v>-244200</v>
+        <v>118800</v>
       </c>
       <c r="I100" s="3">
-        <v>-65700</v>
+        <v>-235400</v>
       </c>
       <c r="J100" s="3">
+        <v>-63400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-121100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-4200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-97300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-9100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-197500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>208900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-198200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>44600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-229500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>566800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-244300</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>400</v>
       </c>
-      <c r="F101" s="3">
-        <v>-2300</v>
-      </c>
       <c r="G101" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="H101" s="3">
         <v>-600</v>
       </c>
-      <c r="H101" s="3">
-        <v>-12800</v>
-      </c>
       <c r="I101" s="3">
-        <v>8400</v>
+        <v>-12300</v>
       </c>
       <c r="J101" s="3">
+        <v>8100</v>
+      </c>
+      <c r="K101" s="3">
         <v>-30100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>43600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>7900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>8800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-13000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-10400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-2900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>5700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-5700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-343400</v>
+        <v>-29200</v>
       </c>
       <c r="E102" s="3">
-        <v>-211800</v>
+        <v>-331000</v>
       </c>
       <c r="F102" s="3">
-        <v>31600</v>
+        <v>-204100</v>
       </c>
       <c r="G102" s="3">
-        <v>139000</v>
+        <v>30500</v>
       </c>
       <c r="H102" s="3">
-        <v>-328000</v>
+        <v>134000</v>
       </c>
       <c r="I102" s="3">
-        <v>-851600</v>
+        <v>-316200</v>
       </c>
       <c r="J102" s="3">
+        <v>-820800</v>
+      </c>
+      <c r="K102" s="3">
         <v>-881500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>223700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>27800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>154500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>316500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>694200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1131500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>58000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-82200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>265500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>96700</v>
       </c>
     </row>
